--- a/VacationTracking/Vacation Tracking - Features Estimation.xlsx
+++ b/VacationTracking/Vacation Tracking - Features Estimation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F07-MinhTran\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vacation\VacationTracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,12 +17,11 @@
     <sheet name="Mobile" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -194,6 +193,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
       </rPr>
       <t xml:space="preserve"> if he/she is active state and then employee can't login into system
 - Able to </t>
@@ -213,6 +214,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
       </rPr>
       <t xml:space="preserve"> employee account</t>
     </r>
@@ -236,32 +239,10 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> by input the email</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Able to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
       </rPr>
-      <t>create new account</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> with some information: first name, last name, position, gender, phone number, email,...
-- Able to send email to employee with password default after creating</t>
+      <t xml:space="preserve"> by input the email</t>
     </r>
   </si>
   <si>
@@ -349,6 +330,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
       </rPr>
       <t xml:space="preserve">
 - Able to </t>
@@ -366,6 +349,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
       </rPr>
       <t xml:space="preserve">
 - Able to </t>
@@ -385,6 +370,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
       </rPr>
       <t xml:space="preserve"> employees
 - Able to see some </t>
@@ -404,6 +391,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
       </rPr>
       <t xml:space="preserve"> such as: </t>
     </r>
@@ -422,6 +411,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
       </rPr>
       <t xml:space="preserve">, edit, </t>
     </r>
@@ -440,6 +431,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -453,6 +446,231 @@
         <charset val="163"/>
       </rPr>
       <t>view detail</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>create new account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> with some information: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>first name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>last name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>position,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>gender,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>phone number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">,…
+- Able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>send email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> to employee </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>with password default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> after creating</t>
+    </r>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>email and password</t>
     </r>
   </si>
 </sst>
@@ -470,45 +688,63 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
     <font>
       <b/>
       <u/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
     <font>
       <sz val="10"/>
@@ -601,7 +837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -722,9 +958,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -742,9 +975,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -766,6 +996,20 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1274,7 +1518,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1306,9 +1550,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="34"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -1342,14 +1586,14 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
@@ -1359,18 +1603,20 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="52" t="s">
-        <v>11</v>
+      <c r="D4" s="62"/>
+      <c r="E4" s="64" t="s">
+        <v>71</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="63" t="s">
+        <v>70</v>
+      </c>
       <c r="G4" s="15"/>
       <c r="H4" s="7"/>
       <c r="I4" s="16"/>
@@ -1380,14 +1626,14 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -1397,18 +1643,20 @@
       <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="36" t="s">
-        <v>46</v>
+      <c r="D6" s="40"/>
+      <c r="E6" s="59" t="s">
+        <v>69</v>
       </c>
-      <c r="F6" s="33"/>
+      <c r="F6" s="59" t="s">
+        <v>70</v>
+      </c>
       <c r="G6" s="15"/>
       <c r="H6" s="7"/>
       <c r="I6" s="16"/>
@@ -1426,8 +1674,8 @@
         <v>18</v>
       </c>
       <c r="D7" s="24"/>
-      <c r="E7" s="36" t="s">
-        <v>69</v>
+      <c r="E7" s="33" t="s">
+        <v>68</v>
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="15"/>
@@ -1501,7 +1749,7 @@
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
     </row>
-    <row r="11" spans="1:13" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37"/>
       <c r="B11" s="38" t="s">
         <v>9</v>
@@ -1513,26 +1761,26 @@
       <c r="E11" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="42" t="s">
-        <v>57</v>
+      <c r="F11" s="39" t="s">
+        <v>70</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="15"/>
       <c r="H12" s="7"/>
       <c r="I12" s="16"/>
@@ -1572,7 +1820,7 @@
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="15"/>
@@ -1584,14 +1832,14 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="15"/>
       <c r="H15" s="7"/>
       <c r="I15" s="16"/>
@@ -1605,7 +1853,7 @@
       <c r="B16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="51" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="24"/>
@@ -1613,7 +1861,7 @@
         <v>43</v>
       </c>
       <c r="F16" s="32"/>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="52" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="7"/>
@@ -1680,14 +1928,14 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -15310,126 +15558,126 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="31"/>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="50"/>
+    <col min="3" max="3" width="9.140625" style="49"/>
     <col min="5" max="5" width="56.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="50"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>57</v>
+      <c r="C3" s="49" t="s">
+        <v>56</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E3" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="48"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="49"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>48</v>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>54</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>57</v>
+      <c r="C7" s="49" t="s">
+        <v>56</v>
       </c>
-      <c r="E3" s="51" t="s">
-        <v>59</v>
+      <c r="E7" s="50" t="s">
+        <v>63</v>
       </c>
-      <c r="G3" s="49"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>49</v>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E8" s="50" t="s">
+        <v>64</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>57</v>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E9" s="48" t="s">
+        <v>65</v>
       </c>
-      <c r="E4" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="49"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E8" s="51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E9" s="49" t="s">
+      <c r="E10" s="50" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="C11" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="50" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>57</v>
+      <c r="C12" s="49" t="s">
+        <v>56</v>
       </c>
-      <c r="E11" s="51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="48" t="s">
-        <v>56</v>
+      <c r="B14" s="47" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -15478,9 +15726,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -15514,14 +15762,14 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
@@ -15552,14 +15800,14 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -15590,14 +15838,14 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="15"/>
       <c r="H7" s="7"/>
       <c r="I7" s="16"/>

--- a/VacationTracking/Vacation Tracking - Features Estimation.xlsx
+++ b/VacationTracking/Vacation Tracking - Features Estimation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vacation\VacationTracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Company\Futurify\Project\Vacation\VacationTracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="Mobile" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -673,6 +673,10 @@
       <t>email and password</t>
     </r>
   </si>
+  <si>
+    <t>fix something in viewdetail
+change view layout</t>
+  </si>
 </sst>
 </file>
 
@@ -981,6 +985,20 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -996,20 +1014,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1518,7 +1522,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1528,7 +1532,7 @@
     <col min="3" max="3" width="54.28515625" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="112.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="31" customWidth="1"/>
     <col min="7" max="9" width="25.85546875" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
     <col min="11" max="11" width="21.28515625" customWidth="1"/>
@@ -1550,9 +1554,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="34"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -1586,14 +1590,14 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
@@ -1603,18 +1607,18 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="64" t="s">
+      <c r="D4" s="56"/>
+      <c r="E4" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="57" t="s">
         <v>70</v>
       </c>
       <c r="G4" s="15"/>
@@ -1626,14 +1630,14 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -1651,10 +1655,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="40"/>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="53" t="s">
         <v>70</v>
       </c>
       <c r="G6" s="15"/>
@@ -1677,7 +1681,9 @@
       <c r="E7" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="32"/>
+      <c r="F7" s="28" t="s">
+        <v>72</v>
+      </c>
       <c r="G7" s="15"/>
       <c r="H7" s="7"/>
       <c r="I7" s="16"/>
@@ -1773,14 +1779,14 @@
       <c r="M11" s="44"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="15"/>
       <c r="H12" s="7"/>
       <c r="I12" s="16"/>
@@ -1832,14 +1838,14 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="15"/>
       <c r="H15" s="7"/>
       <c r="I15" s="16"/>
@@ -1928,14 +1934,14 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -15726,9 +15732,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -15762,14 +15768,14 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
@@ -15800,14 +15806,14 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -15838,14 +15844,14 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="15"/>
       <c r="H7" s="7"/>
       <c r="I7" s="16"/>

--- a/VacationTracking/Vacation Tracking - Features Estimation.xlsx
+++ b/VacationTracking/Vacation Tracking - Features Estimation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Company\Futurify\Project\Vacation\VacationTracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vacation\VacationTracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="Mobile" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -174,54 +174,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">- Able to edit all general information: Name, DoB, Gender, Picture, Remaining days off...
-- Able to set employee to a deparment
-- Able to set employee to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>inactive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> if he/she is active state and then employee can't login into system
-- Able to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>reactivate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> employee account</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">'- Able to </t>
     </r>
     <r>
@@ -310,143 +262,6 @@
   </si>
   <si>
     <t>- Check token anywhere</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Able to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>see list of employees</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve">
-- Able to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>search by keyword</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve">
-- Able to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>filter or sort</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> employees
-- Able to see some </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>buttons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> such as: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>add new</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve">, edit, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>remove,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>view detail</t>
-    </r>
   </si>
   <si>
     <r>
@@ -674,8 +489,177 @@
     </r>
   </si>
   <si>
-    <t>fix something in viewdetail
-change view layout</t>
+    <t>Lỗi:</t>
+  </si>
+  <si>
+    <t>server trả về lỗi khi user/pass sai, làm sao để xóa bỏ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Able to edit all general information: Name, DoB, Gender, Picture, Remaining days off...
+- Able to set employee to a deparment
+- Able to set employee to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>inactive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> if he/she is active state and then employee </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>can't login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> into system
+- Able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>reactivate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> employee account</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>see list of employees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">
+- Able to search by keyword
+- Able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>filter or sort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> employees
+- Able to see some </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>buttons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> such as: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>add new, edit, remove,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>view detail</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1522,7 +1506,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1616,10 +1600,10 @@
       </c>
       <c r="D4" s="56"/>
       <c r="E4" s="58" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="7"/>
@@ -1656,10 +1640,10 @@
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="7"/>
@@ -1670,19 +1654,19 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="33" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="44" t="s">
         <v>68</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="7"/>
@@ -1722,8 +1706,8 @@
         <v>24</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="E9" s="36" t="s">
-        <v>44</v>
+      <c r="E9" s="33" t="s">
+        <v>72</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="15"/>
@@ -1765,10 +1749,10 @@
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G11" s="42"/>
       <c r="H11" s="43"/>
@@ -1826,7 +1810,7 @@
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="15"/>
@@ -15554,10 +15538,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15569,121 +15553,127 @@
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="49"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>56</v>
+      <c r="C3" s="49" t="s">
+        <v>55</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E3" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="48"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="48"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>47</v>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>53</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>56</v>
+      <c r="C7" s="49" t="s">
+        <v>55</v>
       </c>
-      <c r="E3" s="50" t="s">
-        <v>58</v>
+      <c r="E7" s="50" t="s">
+        <v>62</v>
       </c>
-      <c r="G3" s="48"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>48</v>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="50" t="s">
+        <v>63</v>
       </c>
-      <c r="C4" s="49" t="s">
-        <v>56</v>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="48" t="s">
+        <v>64</v>
       </c>
-      <c r="E4" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="48"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E8" s="50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E9" s="48" t="s">
+      <c r="E10" s="50" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="C11" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="50" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>56</v>
+      <c r="C12" s="49" t="s">
+        <v>55</v>
       </c>
-      <c r="E11" s="50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/VacationTracking/Vacation Tracking - Features Estimation.xlsx
+++ b/VacationTracking/Vacation Tracking - Features Estimation.xlsx
@@ -13,15 +13,17 @@
   </bookViews>
   <sheets>
     <sheet name="Web" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="Mobile" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -134,10 +136,6 @@
     <t>As a admin, I want to manage all team in the system</t>
   </si>
   <si>
-    <t>- Able to cancel vacation that I booked
-- Team Lead and HR will recieve email notification</t>
-  </si>
-  <si>
     <t>Nice to have</t>
   </si>
   <si>
@@ -164,38 +162,6 @@
     <t>- Able to see list of day off on calendar that grouped by month
 - Able to filter by employee
 - Able to see the remaning day of employee</t>
-  </si>
-  <si>
-    <t>'- Each employee will have 12 days off (configurable), every time a vacation booked, employee's days off will be reduce accordingly
-- Able to book vacation with some information such as: from date - to date, from hour - to hour, reason
-- Able to see my vacation on google calendar
-- After submited, Team Lead and HR will recieve an email notification
-- Abe to edit submited vacation, Team Lead and HR will recieve email notification</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">'- Able to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>reset password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> by input the email</t>
-    </r>
   </si>
   <si>
     <t>text Loi</t>
@@ -264,6 +230,54 @@
     <t>- Check token anywhere</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Lỗi:</t>
+  </si>
+  <si>
+    <t>server trả về lỗi khi user/pass sai, làm sao để xóa bỏ</t>
+  </si>
+  <si>
+    <t>From 9AM to 7PM</t>
+  </si>
+  <si>
+    <t>button inactive reverse, add status</t>
+  </si>
+  <si>
+    <t>remove old error when have new message</t>
+  </si>
+  <si>
+    <t>loading</t>
+  </si>
+  <si>
+    <t>defaut is active account</t>
+  </si>
+  <si>
+    <t>confirm when delete account</t>
+  </si>
+  <si>
+    <t>can't book when out of date</t>
+  </si>
+  <si>
+    <t>calculator date wrong</t>
+  </si>
+  <si>
+    <t>reason should be placeholder</t>
+  </si>
+  <si>
+    <t>auto add 12 days for new user</t>
+  </si>
+  <si>
+    <t>Thời hạn đổi mật khẩu đã hết (invalid token)</t>
+  </si>
+  <si>
+    <t>booking by day or hour</t>
+  </si>
+  <si>
+    <t>change remaing day to hours</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">- Able to </t>
     </r>
@@ -271,7 +285,43 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>email and password</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
@@ -281,17 +331,37 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
       </rPr>
-      <t xml:space="preserve"> with some information: </t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>with some information:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
@@ -301,6 +371,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
@@ -311,7 +382,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
@@ -321,6 +392,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
@@ -331,7 +403,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
@@ -341,6 +413,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
@@ -351,7 +424,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
@@ -361,6 +434,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
@@ -371,7 +445,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
@@ -381,6 +455,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
@@ -391,7 +466,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
@@ -412,7 +487,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
@@ -432,7 +507,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
@@ -442,19 +517,78 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
       </rPr>
-      <t xml:space="preserve"> after creating</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>after creating</t>
     </r>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">- Able to </t>
+      <t>- Able to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>see list of employees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">
+- Able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> by keyword
+- Able to </t>
     </r>
     <r>
       <rPr>
@@ -465,7 +599,7 @@
         <family val="2"/>
         <charset val="163"/>
       </rPr>
-      <t>login</t>
+      <t>filter</t>
     </r>
     <r>
       <rPr>
@@ -474,7 +608,7 @@
         <family val="2"/>
         <charset val="163"/>
       </rPr>
-      <t xml:space="preserve"> using </t>
+      <t xml:space="preserve"> or</t>
     </r>
     <r>
       <rPr>
@@ -485,14 +619,81 @@
         <family val="2"/>
         <charset val="163"/>
       </rPr>
-      <t>email and password</t>
+      <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>Lỗi:</t>
-  </si>
-  <si>
-    <t>server trả về lỗi khi user/pass sai, làm sao để xóa bỏ</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>sort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> employees
+- Able to see some </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>buttons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> such as: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>add new, edit, remove,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>view detail</t>
+    </r>
   </si>
   <si>
     <r>
@@ -504,7 +705,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
@@ -524,7 +725,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
@@ -545,7 +746,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
@@ -564,18 +765,18 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">- Able to </t>
+      <t xml:space="preserve">'- Able to </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
       </rPr>
-      <t>see list of employees</t>
+      <t>reset password</t>
     </r>
     <r>
       <rPr>
@@ -584,65 +785,17 @@
         <family val="2"/>
         <charset val="163"/>
       </rPr>
-      <t xml:space="preserve">
-- Able to search by keyword
-- Able to </t>
+      <t xml:space="preserve"> by input the email</t>
     </r>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>filter or sort</t>
+      <t>- Able to</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> employees
-- Able to see some </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>buttons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> such as: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>add new, edit, remove,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
@@ -653,12 +806,81 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="163"/>
       </rPr>
-      <t>view detail</t>
+      <t>cancel vacation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> that I booked
+- Team Lead and HR will recieve email notification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'- Each employee will have 12 days off (configurable), every time a vacation booked, employee's days off will be reduce accordingly
+- Able to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>book vacation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> with some information such as: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>from date - to date, from hour - to hour, reason</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">
+- Able to see my vacation on google calendar
+- After submited, Team Lead and HR will recieve an email notification
+- Abe to edit submited vacation, Team Lead and HR will recieve email notification</t>
     </r>
   </si>
 </sst>
@@ -666,7 +888,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -777,6 +999,27 @@
       <family val="2"/>
       <charset val="163"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -825,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -943,9 +1186,6 @@
     <xf numFmtId="4" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -999,6 +1239,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1506,15 +1748,15 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="112.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" style="31" customWidth="1"/>
     <col min="7" max="9" width="25.85546875" customWidth="1"/>
@@ -1538,9 +1780,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="34"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -1574,14 +1816,14 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
@@ -1591,19 +1833,19 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="58" t="s">
-        <v>69</v>
+      <c r="D4" s="55"/>
+      <c r="E4" s="57" t="s">
+        <v>80</v>
       </c>
-      <c r="F4" s="57" t="s">
-        <v>68</v>
+      <c r="F4" s="56" t="s">
+        <v>64</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="7"/>
@@ -1614,14 +1856,14 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -1639,11 +1881,11 @@
         <v>14</v>
       </c>
       <c r="D6" s="40"/>
-      <c r="E6" s="53" t="s">
-        <v>67</v>
+      <c r="E6" s="52" t="s">
+        <v>81</v>
       </c>
-      <c r="F6" s="53" t="s">
-        <v>68</v>
+      <c r="F6" s="52" t="s">
+        <v>64</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="7"/>
@@ -1662,11 +1904,11 @@
         <v>18</v>
       </c>
       <c r="D7" s="40"/>
-      <c r="E7" s="53" t="s">
-        <v>73</v>
+      <c r="E7" s="52" t="s">
+        <v>82</v>
       </c>
-      <c r="F7" s="44" t="s">
-        <v>68</v>
+      <c r="F7" s="43" t="s">
+        <v>64</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="7"/>
@@ -1707,7 +1949,7 @@
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="33" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="15"/>
@@ -1739,7 +1981,7 @@
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="45" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37"/>
       <c r="B11" s="38" t="s">
         <v>9</v>
@@ -1748,29 +1990,29 @@
         <v>29</v>
       </c>
       <c r="D11" s="40"/>
-      <c r="E11" s="41" t="s">
-        <v>44</v>
+      <c r="E11" s="52" t="s">
+        <v>84</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
       <c r="G12" s="15"/>
       <c r="H12" s="7"/>
       <c r="I12" s="16"/>
@@ -1810,7 +2052,7 @@
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="15"/>
@@ -1822,14 +2064,14 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
       <c r="G15" s="15"/>
       <c r="H15" s="7"/>
       <c r="I15" s="16"/>
@@ -1843,15 +2085,17 @@
       <c r="B16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="50" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="24"/>
-      <c r="E16" s="36" t="s">
-        <v>43</v>
+      <c r="E16" s="33" t="s">
+        <v>86</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="52" t="s">
+      <c r="F16" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="51" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="7"/>
@@ -1871,21 +2115,21 @@
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="33" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="F17" s="32"/>
     </row>
     <row r="18" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
       <c r="B18" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="15"/>
@@ -1899,14 +2143,14 @@
     <row r="19" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="15"/>
@@ -1918,14 +2162,14 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="59" t="s">
-        <v>40</v>
+      <c r="A20" s="58" t="s">
+        <v>39</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1940,11 +2184,11 @@
         <v>9</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="15" t="s">
@@ -15538,147 +15782,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="49"/>
-    <col min="5" max="5" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="49"/>
-      <c r="H1" s="31" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="64" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>45</v>
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="65" t="s">
+        <v>77</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>55</v>
+      <c r="B4" s="64" t="s">
+        <v>52</v>
       </c>
-      <c r="E2" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="I2" t="s">
+      <c r="C4" s="64"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="64" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>46</v>
+      <c r="B5" s="64" t="s">
+        <v>52</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>55</v>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="64" t="s">
+        <v>72</v>
       </c>
-      <c r="E3" s="50" t="s">
-        <v>57</v>
+      <c r="B6" s="64" t="s">
+        <v>52</v>
       </c>
-      <c r="G3" s="48"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>47</v>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="64" t="s">
+        <v>73</v>
       </c>
-      <c r="C4" s="49" t="s">
-        <v>55</v>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
+        <v>74</v>
       </c>
-      <c r="E4" s="50" t="s">
-        <v>58</v>
+      <c r="B8" s="64" t="s">
+        <v>52</v>
       </c>
-      <c r="F4" s="48" t="s">
-        <v>55</v>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="64" t="s">
+        <v>75</v>
       </c>
-      <c r="G4" s="48"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>48</v>
+      <c r="B9" s="64" t="s">
+        <v>52</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>55</v>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
+        <v>76</v>
       </c>
-      <c r="E5" s="48" t="s">
-        <v>59</v>
+      <c r="B10" s="64" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>49</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="64" t="s">
+        <v>78</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>55</v>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="64" t="s">
+        <v>79</v>
       </c>
-      <c r="E6" s="50" t="s">
-        <v>61</v>
+      <c r="B12" s="64" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E8" s="50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E9" s="48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="47" t="s">
-        <v>54</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15722,9 +15926,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -15758,14 +15962,14 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
@@ -15796,14 +16000,14 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -15834,14 +16038,14 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="15"/>
       <c r="H7" s="7"/>
       <c r="I7" s="16"/>
@@ -29482,4 +29686,150 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="31"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="48"/>
+    <col min="5" max="5" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="48"/>
+      <c r="H1" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/VacationTracking/Vacation Tracking - Features Estimation.xlsx
+++ b/VacationTracking/Vacation Tracking - Features Estimation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Web" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -883,6 +883,48 @@
 - Abe to edit submited vacation, Team Lead and HR will recieve email notification</t>
     </r>
   </si>
+  <si>
+    <t>Route: init-new-user</t>
+  </si>
+  <si>
+    <t>Route: check-new-user</t>
+  </si>
+  <si>
+    <t>Route: get-booking</t>
+  </si>
+  <si>
+    <t>Vacation Controller</t>
+  </si>
+  <si>
+    <t>booking/userId/{userId}</t>
+  </si>
+  <si>
+    <t>Add function change password</t>
+  </si>
+  <si>
+    <t>Loading create user</t>
+  </si>
+  <si>
+    <t>page size</t>
+  </si>
+  <si>
+    <t>search: delay some seconds</t>
+  </si>
+  <si>
+    <t>hours - day</t>
+  </si>
+  <si>
+    <t>options: allday</t>
+  </si>
+  <si>
+    <t>config: 12</t>
+  </si>
+  <si>
+    <t>time work</t>
+  </si>
+  <si>
+    <t>time relax</t>
+  </si>
 </sst>
 </file>
 
@@ -1068,7 +1110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1223,6 +1265,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1744,11 +1787,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M923"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1780,9 +1823,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="34"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -1816,14 +1859,14 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
@@ -1856,14 +1899,14 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -2005,14 +2048,14 @@
       <c r="M11" s="43"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="15"/>
       <c r="H12" s="7"/>
       <c r="I12" s="16"/>
@@ -2064,14 +2107,14 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="15"/>
       <c r="H15" s="7"/>
       <c r="I15" s="16"/>
@@ -2162,14 +2205,14 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -15782,10 +15825,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15795,47 +15838,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="65" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="64"/>
+      <c r="C4" s="65"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="65" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="65" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>73</v>
       </c>
     </row>
@@ -15843,15 +15886,15 @@
       <c r="A8" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="65" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="65" t="s">
         <v>52</v>
       </c>
     </row>
@@ -15859,26 +15902,97 @@
       <c r="A10" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="65" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="65" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="65" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="65" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="65"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="65" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -15926,9 +16040,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -15962,14 +16076,14 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
@@ -16000,14 +16114,14 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -16038,14 +16152,14 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="15"/>
       <c r="H7" s="7"/>
       <c r="I7" s="16"/>

--- a/VacationTracking/Vacation Tracking - Features Estimation.xlsx
+++ b/VacationTracking/Vacation Tracking - Features Estimation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="100">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -231,12 +231,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>Lỗi:</t>
-  </si>
-  <si>
-    <t>server trả về lỗi khi user/pass sai, làm sao để xóa bỏ</t>
   </si>
   <si>
     <t>From 9AM to 7PM</t>
@@ -925,6 +919,9 @@
   <si>
     <t>time relax</t>
   </si>
+  <si>
+    <t>:(</t>
+  </si>
 </sst>
 </file>
 
@@ -1110,7 +1107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1266,6 +1263,8 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1282,8 +1281,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1791,7 +1790,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1823,9 +1822,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="34"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -1859,14 +1858,14 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
@@ -1885,7 +1884,7 @@
       </c>
       <c r="D4" s="55"/>
       <c r="E4" s="57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F4" s="56" t="s">
         <v>64</v>
@@ -1899,14 +1898,14 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -1925,7 +1924,7 @@
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F6" s="52" t="s">
         <v>64</v>
@@ -1948,7 +1947,7 @@
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>64</v>
@@ -1992,7 +1991,7 @@
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="15"/>
@@ -2034,7 +2033,7 @@
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>64</v>
@@ -2048,14 +2047,14 @@
       <c r="M11" s="43"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="15"/>
       <c r="H12" s="7"/>
       <c r="I12" s="16"/>
@@ -2107,14 +2106,14 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="15"/>
       <c r="H15" s="7"/>
       <c r="I15" s="16"/>
@@ -2133,10 +2132,10 @@
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G16" s="51" t="s">
         <v>26</v>
@@ -2158,7 +2157,7 @@
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F17" s="32"/>
     </row>
@@ -2205,14 +2204,14 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -15827,8 +15826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15838,161 +15837,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="59" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="59"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="59" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
+      <c r="B5" s="59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="59" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
+      <c r="B6" s="59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B12" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="65"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="65" t="s">
-        <v>71</v>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="59" t="s">
+        <v>53</v>
       </c>
-      <c r="B5" s="65" t="s">
+    </row>
+    <row r="14" spans="1:3" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="59" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="65" t="s">
-        <v>72</v>
+      <c r="C14" s="59"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="59" t="s">
+        <v>85</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="65" t="s">
-        <v>73</v>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="59" t="s">
+        <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="65" t="s">
+      <c r="B16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="65" t="s">
-        <v>75</v>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="59" t="s">
+        <v>87</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
-        <v>76</v>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="59" t="s">
+        <v>89</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="65" t="s">
-        <v>78</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="59" t="s">
+        <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="65" t="s">
+      <c r="B20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="65" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="65"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="65" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="59" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="68" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="65" t="s">
+      <c r="B22" s="59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="68" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="65" t="s">
+      <c r="B23" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="68" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="68" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="65" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="68" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="65" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="68" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="65" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="68" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="65" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -16040,9 +16078,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -16076,14 +16114,14 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
@@ -16114,14 +16152,14 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -16152,14 +16190,14 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="15"/>
       <c r="H7" s="7"/>
       <c r="I7" s="16"/>
@@ -29804,7 +29842,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
@@ -29819,13 +29857,10 @@
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="48"/>
-      <c r="H1" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>42</v>
       </c>
@@ -29836,11 +29871,8 @@
         <v>57</v>
       </c>
       <c r="G2" s="47"/>
-      <c r="I2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>43</v>
       </c>
@@ -29852,7 +29884,7 @@
       </c>
       <c r="G3" s="47"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>44</v>
       </c>
@@ -29867,7 +29899,7 @@
       </c>
       <c r="G4" s="47"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -29878,7 +29910,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>46</v>
       </c>
@@ -29889,7 +29921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>50</v>
       </c>
@@ -29900,17 +29932,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E8" s="49" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E9" s="47" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>47</v>
       </c>
@@ -29918,7 +29950,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>48</v>
       </c>
@@ -29929,7 +29961,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>49</v>
       </c>
@@ -29937,7 +29969,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="46" t="s">
         <v>51</v>
       </c>

--- a/VacationTracking/Vacation Tracking - Features Estimation.xlsx
+++ b/VacationTracking/Vacation Tracking - Features Estimation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="98">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -267,9 +267,6 @@
   </si>
   <si>
     <t>booking by day or hour</t>
-  </si>
-  <si>
-    <t>change remaing day to hours</t>
   </si>
   <si>
     <r>
@@ -919,15 +916,12 @@
   <si>
     <t>time relax</t>
   </si>
-  <si>
-    <t>:(</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1039,12 +1033,6 @@
       <charset val="163"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF00B0F0"/>
@@ -1107,7 +1095,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1263,8 +1251,8 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1283,6 +1271,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1884,7 +1876,7 @@
       </c>
       <c r="D4" s="55"/>
       <c r="E4" s="57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="56" t="s">
         <v>64</v>
@@ -1924,7 +1916,7 @@
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="52" t="s">
         <v>64</v>
@@ -1947,7 +1939,7 @@
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>64</v>
@@ -1991,7 +1983,7 @@
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="15"/>
@@ -2033,7 +2025,7 @@
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>64</v>
@@ -2132,7 +2124,7 @@
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>65</v>
@@ -2157,7 +2149,7 @@
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" s="32"/>
     </row>
@@ -15824,213 +15816,250 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="59"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="71">
+        <v>42957</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="C5" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="59"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="59" t="s">
+      <c r="D5" s="60"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="C6" s="60" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="C7" s="60" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="68" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="71">
+        <v>42957</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="59"/>
+      <c r="B13" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="72">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="72">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="72">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="72">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="72">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="72">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="72">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="72">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="72">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+    </row>
+    <row r="23" spans="2:4" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="68" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="68" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="59" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="59"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="68" t="s">
+      <c r="C23"/>
+      <c r="D23" s="60"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="59" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="68" t="s">
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="68" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="68" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="68" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="68" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="68" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="68" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="68" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="68" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/VacationTracking/Vacation Tracking - Features Estimation.xlsx
+++ b/VacationTracking/Vacation Tracking - Features Estimation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="97">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>Thời hạn đổi mật khẩu đã hết (invalid token)</t>
-  </si>
-  <si>
-    <t>booking by day or hour</t>
   </si>
   <si>
     <r>
@@ -911,10 +908,10 @@
     <t>config: 12</t>
   </si>
   <si>
-    <t>time work</t>
+    <t>+time work</t>
   </si>
   <si>
-    <t>time relax</t>
+    <t>+time relax</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1253,6 +1250,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1269,12 +1273,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1782,7 +1781,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1814,9 +1813,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="34"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -1850,14 +1849,14 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
@@ -1876,7 +1875,7 @@
       </c>
       <c r="D4" s="55"/>
       <c r="E4" s="57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="56" t="s">
         <v>64</v>
@@ -1890,14 +1889,14 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -1916,7 +1915,7 @@
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="52" t="s">
         <v>64</v>
@@ -1939,7 +1938,7 @@
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>64</v>
@@ -1983,7 +1982,7 @@
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="15"/>
@@ -2025,7 +2024,7 @@
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>64</v>
@@ -2039,14 +2038,14 @@
       <c r="M11" s="43"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="15"/>
       <c r="H12" s="7"/>
       <c r="I12" s="16"/>
@@ -2098,14 +2097,14 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="15"/>
       <c r="H15" s="7"/>
       <c r="I15" s="16"/>
@@ -2124,7 +2123,7 @@
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>65</v>
@@ -2149,7 +2148,7 @@
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="32"/>
     </row>
@@ -2196,14 +2195,14 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -15818,8 +15817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15830,7 +15829,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71">
+      <c r="A1" s="66">
         <v>42957</v>
       </c>
     </row>
@@ -15884,7 +15883,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="62" t="s">
         <v>72</v>
       </c>
       <c r="C8" s="60" t="s">
@@ -15892,7 +15891,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="62" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="60" t="s">
@@ -15900,7 +15899,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="62" t="s">
         <v>74</v>
       </c>
       <c r="C10" s="60" t="s">
@@ -15916,7 +15915,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="71">
+      <c r="A12" s="66">
         <v>42957</v>
       </c>
       <c r="D12" s="60" t="s">
@@ -15926,140 +15925,166 @@
     <row r="13" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59"/>
       <c r="B13" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="67">
         <v>42958</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="67">
         <v>42958</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="72">
+      <c r="D15" s="67">
         <v>42958</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="72">
+      <c r="D16" s="67">
         <v>42958</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="72">
+      <c r="D17" s="67">
         <v>42958</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="67">
         <v>42958</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="72">
+      <c r="D19" s="67">
         <v>42958</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="69" t="s">
-        <v>91</v>
+      <c r="B20" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="C20" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="67">
         <v>42958</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="70" t="s">
-        <v>92</v>
+      <c r="B21" s="65" t="s">
+        <v>91</v>
       </c>
       <c r="C21" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="72">
+      <c r="D21" s="67">
         <v>42958</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="68" t="s">
-        <v>76</v>
-      </c>
+    <row r="22" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="65"/>
       <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
+      <c r="D22" s="67"/>
     </row>
     <row r="23" spans="2:4" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="C23"/>
-      <c r="D23" s="60"/>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="67">
+        <v>42961</v>
+      </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="67">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="64" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="68" t="s">
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="67">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="63" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="68" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="74" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="68" t="s">
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="67">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="74" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="68" t="s">
-        <v>97</v>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="67">
+        <v>42961</v>
       </c>
     </row>
   </sheetData>
@@ -16107,9 +16132,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -16143,14 +16168,14 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
@@ -16181,14 +16206,14 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -16219,14 +16244,14 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="15"/>
       <c r="H7" s="7"/>
       <c r="I7" s="16"/>

--- a/VacationTracking/Vacation Tracking - Features Estimation.xlsx
+++ b/VacationTracking/Vacation Tracking - Features Estimation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="Web" sheetId="1" r:id="rId1"/>
@@ -813,6 +813,48 @@
     </r>
   </si>
   <si>
+    <t>Route: init-new-user</t>
+  </si>
+  <si>
+    <t>Route: check-new-user</t>
+  </si>
+  <si>
+    <t>Route: get-booking</t>
+  </si>
+  <si>
+    <t>Vacation Controller</t>
+  </si>
+  <si>
+    <t>booking/userId/{userId}</t>
+  </si>
+  <si>
+    <t>Add function change password</t>
+  </si>
+  <si>
+    <t>Loading create user</t>
+  </si>
+  <si>
+    <t>page size</t>
+  </si>
+  <si>
+    <t>search: delay some seconds</t>
+  </si>
+  <si>
+    <t>hours - day</t>
+  </si>
+  <si>
+    <t>options: allday</t>
+  </si>
+  <si>
+    <t>config: 12</t>
+  </si>
+  <si>
+    <t>+time work</t>
+  </si>
+  <si>
+    <t>+time relax</t>
+  </si>
+  <si>
     <r>
       <t>'- Each employee will have 12 days off (configurable), every time a vacation booked, employee's days off will be reduce accordingly
 - Able to</t>
@@ -868,50 +910,28 @@
       <t xml:space="preserve">
 - Able to see my vacation on google calendar
 - After submited, Team Lead and HR will recieve an email notification
-- Abe to edit submited vacation, Team Lead and HR will recieve email notification</t>
+- Abe to </t>
     </r>
-  </si>
-  <si>
-    <t>Route: init-new-user</t>
-  </si>
-  <si>
-    <t>Route: check-new-user</t>
-  </si>
-  <si>
-    <t>Route: get-booking</t>
-  </si>
-  <si>
-    <t>Vacation Controller</t>
-  </si>
-  <si>
-    <t>booking/userId/{userId}</t>
-  </si>
-  <si>
-    <t>Add function change password</t>
-  </si>
-  <si>
-    <t>Loading create user</t>
-  </si>
-  <si>
-    <t>page size</t>
-  </si>
-  <si>
-    <t>search: delay some seconds</t>
-  </si>
-  <si>
-    <t>hours - day</t>
-  </si>
-  <si>
-    <t>options: allday</t>
-  </si>
-  <si>
-    <t>config: 12</t>
-  </si>
-  <si>
-    <t>+time work</t>
-  </si>
-  <si>
-    <t>+time relax</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>edit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> submited vacation, Team Lead and HR will recieve email notification</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1257,6 +1277,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1273,7 +1294,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1777,11 +1797,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M923"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1813,9 +1833,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="34"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -1849,14 +1869,14 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
       <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
@@ -1889,14 +1909,14 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -2038,14 +2058,14 @@
       <c r="M11" s="43"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="15"/>
       <c r="H12" s="7"/>
       <c r="I12" s="16"/>
@@ -2097,14 +2117,14 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="15"/>
       <c r="H15" s="7"/>
       <c r="I15" s="16"/>
@@ -2123,7 +2143,7 @@
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="33" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>65</v>
@@ -2195,14 +2215,14 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -15817,7 +15837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -15925,7 +15945,7 @@
     <row r="13" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59"/>
       <c r="B13" s="60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="60" t="s">
         <v>52</v>
@@ -15936,7 +15956,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
@@ -15947,7 +15967,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
@@ -15958,7 +15978,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
@@ -15969,7 +15989,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
         <v>52</v>
@@ -15980,7 +16000,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
@@ -15991,7 +16011,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
         <v>52</v>
@@ -16002,7 +16022,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="60" t="s">
         <v>52</v>
@@ -16013,7 +16033,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="60" t="s">
         <v>52</v>
@@ -16040,7 +16060,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="60" t="s">
         <v>52</v>
@@ -16051,7 +16071,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
         <v>52</v>
@@ -16062,12 +16082,12 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="68" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="74" t="s">
-        <v>95</v>
       </c>
       <c r="C27" t="s">
         <v>52</v>
@@ -16077,8 +16097,8 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="74" t="s">
-        <v>96</v>
+      <c r="B28" s="68" t="s">
+        <v>95</v>
       </c>
       <c r="C28" t="s">
         <v>52</v>
@@ -16132,9 +16152,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -16168,14 +16188,14 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
       <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
@@ -16206,14 +16226,14 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -16244,14 +16264,14 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="15"/>
       <c r="H7" s="7"/>
       <c r="I7" s="16"/>

--- a/VacationTracking/Vacation Tracking - Features Estimation.xlsx
+++ b/VacationTracking/Vacation Tracking - Features Estimation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="98">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -146,11 +146,6 @@
   </si>
   <si>
     <t>As a admin, I want to set the rule of vacation booking</t>
-  </si>
-  <si>
-    <t>- If vacation duration &gt; 1 and &lt; 5 days, do not allow to book winthin a week
-- If vacation duration &gt; 5 do not allow book within a month
-- Number of duration in the rules need to be configurable (e.g: 4 days, 5 days)</t>
   </si>
   <si>
     <t>Report</t>
@@ -932,6 +927,116 @@
       </rPr>
       <t xml:space="preserve"> submited vacation, Team Lead and HR will recieve email notification</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- If vacation duration </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&gt; 1 and &lt; 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> days, do not allow to book </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>winthin a week</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">
+- If vacation duration </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>&gt; 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> do not allow book </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>within a month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">
+- Number of duration in the rules need to be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>configurable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> (e.g: 4 days, 5 days)</t>
+    </r>
+  </si>
+  <si>
+    <t>Not yet</t>
   </si>
 </sst>
 </file>
@@ -1801,7 +1906,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1895,10 +2000,10 @@
       </c>
       <c r="D4" s="55"/>
       <c r="E4" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="7"/>
@@ -1935,10 +2040,10 @@
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="7"/>
@@ -1958,10 +2063,10 @@
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="7"/>
@@ -2002,7 +2107,7 @@
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="15"/>
@@ -2044,10 +2149,10 @@
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="42"/>
@@ -2105,7 +2210,7 @@
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="15"/>
@@ -2143,10 +2248,10 @@
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="51" t="s">
         <v>26</v>
@@ -2168,7 +2273,7 @@
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="32"/>
     </row>
@@ -2194,18 +2299,20 @@
       <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="33" t="s">
-        <v>38</v>
+      <c r="D19" s="40"/>
+      <c r="E19" s="52" t="s">
+        <v>96</v>
       </c>
-      <c r="F19" s="32"/>
+      <c r="F19" s="39" t="s">
+        <v>97</v>
+      </c>
       <c r="G19" s="15"/>
       <c r="H19" s="7"/>
       <c r="I19" s="16"/>
@@ -2216,7 +2323,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="70"/>
       <c r="C20" s="70"/>
@@ -2237,11 +2344,11 @@
         <v>9</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="15" t="s">
@@ -15855,83 +15962,83 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
-        <v>52</v>
+      <c r="C3" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="60" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s">
-        <v>52</v>
+      <c r="C4" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="60" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="60"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C4" t="s">
-        <v>52</v>
+      <c r="C6" s="60" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="60"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="60" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="60" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="60" t="s">
-        <v>70</v>
-      </c>
       <c r="C7" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="60" t="s">
-        <v>52</v>
+      <c r="C9" s="60" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="62" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="60" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="62" t="s">
-        <v>74</v>
-      </c>
       <c r="C10" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -15939,16 +16046,16 @@
         <v>42957</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59"/>
       <c r="B13" s="60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="67">
         <v>42958</v>
@@ -15956,10 +16063,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="67">
         <v>42958</v>
@@ -15967,10 +16074,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="67">
         <v>42958</v>
@@ -15978,10 +16085,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="67">
         <v>42958</v>
@@ -15989,10 +16096,10 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="67">
         <v>42958</v>
@@ -16000,10 +16107,10 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="67">
         <v>42958</v>
@@ -16011,10 +16118,10 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="67">
         <v>42958</v>
@@ -16022,10 +16129,10 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="67">
         <v>42958</v>
@@ -16033,10 +16140,10 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="67">
         <v>42958</v>
@@ -16049,10 +16156,10 @@
     </row>
     <row r="23" spans="2:4" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="67">
         <v>42961</v>
@@ -16060,10 +16167,10 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="67">
         <v>42961</v>
@@ -16071,10 +16178,10 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="67">
         <v>42961</v>
@@ -16082,15 +16189,15 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="68" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="68" t="s">
-        <v>94</v>
-      </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="67">
         <v>42961</v>
@@ -16098,10 +16205,10 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="67">
         <v>42961</v>
@@ -29936,116 +30043,116 @@
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>52</v>
+      <c r="C3" s="48" t="s">
+        <v>51</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E3" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="47"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>43</v>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>49</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>52</v>
+      <c r="C7" s="48" t="s">
+        <v>51</v>
       </c>
-      <c r="E3" s="49" t="s">
-        <v>54</v>
+      <c r="E7" s="49" t="s">
+        <v>58</v>
       </c>
-      <c r="G3" s="47"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>44</v>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E8" s="49" t="s">
+        <v>59</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>52</v>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E9" s="47" t="s">
+        <v>60</v>
       </c>
-      <c r="E4" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="47"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E8" s="49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E9" s="47" t="s">
+      <c r="E10" s="49" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="C11" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
       <c r="C12" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/VacationTracking/Vacation Tracking - Features Estimation.xlsx
+++ b/VacationTracking/Vacation Tracking - Features Estimation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -1035,9 +1035,6 @@
       <t xml:space="preserve"> (e.g: 4 days, 5 days)</t>
     </r>
   </si>
-  <si>
-    <t>Not yet</t>
-  </si>
 </sst>
 </file>
 
@@ -1217,7 +1214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1335,19 +1332,9 @@
     <xf numFmtId="4" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1399,6 +1386,19 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1906,7 +1906,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1938,9 +1938,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="34"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -1974,14 +1974,14 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
@@ -1991,18 +1991,18 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="57" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="52" t="s">
         <v>63</v>
       </c>
       <c r="G4" s="15"/>
@@ -2014,14 +2014,14 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -2039,10 +2039,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="40"/>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="48" t="s">
         <v>63</v>
       </c>
       <c r="G6" s="15"/>
@@ -2062,10 +2062,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="40"/>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="41" t="s">
         <v>63</v>
       </c>
       <c r="G7" s="15"/>
@@ -2139,7 +2139,7 @@
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
     </row>
-    <row r="11" spans="1:13" s="45" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="75" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37"/>
       <c r="B11" s="38" t="s">
         <v>9</v>
@@ -2148,29 +2148,29 @@
         <v>29</v>
       </c>
       <c r="D11" s="40"/>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="48" t="s">
         <v>79</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
       <c r="G12" s="15"/>
       <c r="H12" s="7"/>
       <c r="I12" s="16"/>
@@ -2222,14 +2222,14 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="15"/>
       <c r="H15" s="7"/>
       <c r="I15" s="16"/>
@@ -2243,7 +2243,7 @@
       <c r="B16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="46" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="24"/>
@@ -2253,7 +2253,7 @@
       <c r="F16" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="47" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="7"/>
@@ -2307,11 +2307,11 @@
         <v>37</v>
       </c>
       <c r="D19" s="40"/>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="48" t="s">
         <v>96</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="7"/>
@@ -2322,14 +2322,14 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -15950,18 +15950,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="59"/>
+    <col min="1" max="1" width="9.140625" style="55"/>
     <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66">
+    <row r="1" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62">
         <v>42957</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="56" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
@@ -15969,7 +15969,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="56" t="s">
         <v>66</v>
       </c>
       <c r="C3" t="s">
@@ -15977,7 +15977,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="56" t="s">
         <v>67</v>
       </c>
       <c r="C4" t="s">
@@ -15985,232 +15985,232 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="60"/>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="56" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="56" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="56" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="56" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="56" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="66">
+      <c r="A12" s="62">
         <v>42957</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="56" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
-      <c r="B13" s="60" t="s">
+    <row r="13" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="55"/>
+      <c r="B13" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="63">
         <v>42958</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="56" t="s">
         <v>81</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="63">
         <v>42958</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="56" t="s">
         <v>82</v>
       </c>
       <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="63">
         <v>42958</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="56" t="s">
         <v>83</v>
       </c>
       <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16" s="63">
         <v>42958</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="56" t="s">
         <v>85</v>
       </c>
       <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="63">
         <v>42958</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="56" t="s">
         <v>86</v>
       </c>
       <c r="C18" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="63">
         <v>42958</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="56" t="s">
         <v>87</v>
       </c>
       <c r="C19" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="63">
         <v>42958</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D20" s="63">
         <v>42958</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="67">
+      <c r="D21" s="63">
         <v>42958</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="65"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="67"/>
-    </row>
-    <row r="23" spans="2:4" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="64" t="s">
+    <row r="22" spans="2:4" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="61"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="63"/>
+    </row>
+    <row r="23" spans="2:4" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="60" t="s">
         <v>70</v>
       </c>
       <c r="C23" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="63">
         <v>42961</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="67">
+      <c r="D24" s="63">
         <v>42961</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="60" t="s">
         <v>91</v>
       </c>
       <c r="C25" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="67">
+      <c r="D25" s="63">
         <v>42961</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="59" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="64" t="s">
         <v>93</v>
       </c>
       <c r="C27" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="67">
+      <c r="D27" s="63">
         <v>42961</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="64" t="s">
         <v>94</v>
       </c>
       <c r="C28" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="67">
+      <c r="D28" s="63">
         <v>42961</v>
       </c>
     </row>
@@ -16259,9 +16259,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -16295,14 +16295,14 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
@@ -16333,14 +16333,14 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -16371,14 +16371,14 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="15"/>
       <c r="H7" s="7"/>
       <c r="I7" s="16"/>
@@ -30033,61 +30033,61 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="31"/>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="48"/>
+    <col min="3" max="3" width="9.140625" style="44"/>
     <col min="5" max="5" width="56.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="48"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="47"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="47"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="47"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="43" t="s">
         <v>55</v>
       </c>
     </row>
@@ -30095,10 +30095,10 @@
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="45" t="s">
         <v>57</v>
       </c>
     </row>
@@ -30106,20 +30106,20 @@
       <c r="B7" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="45" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="45" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="43" t="s">
         <v>60</v>
       </c>
     </row>
@@ -30127,7 +30127,7 @@
       <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="45" t="s">
         <v>61</v>
       </c>
     </row>
@@ -30135,10 +30135,10 @@
       <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="45" t="s">
         <v>62</v>
       </c>
     </row>
@@ -30146,12 +30146,12 @@
       <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="44" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="42" t="s">
         <v>50</v>
       </c>
     </row>

--- a/VacationTracking/Vacation Tracking - Features Estimation.xlsx
+++ b/VacationTracking/Vacation Tracking - Features Estimation.xlsx
@@ -748,31 +748,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">'- Able to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>reset password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> by input the email</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>- Able to</t>
     </r>
     <r>
@@ -848,85 +823,6 @@
   </si>
   <si>
     <t>+time relax</t>
-  </si>
-  <si>
-    <r>
-      <t>'- Each employee will have 12 days off (configurable), every time a vacation booked, employee's days off will be reduce accordingly
-- Able to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>book vacation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> with some information such as: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>from date - to date, from hour - to hour, reason</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve">
-- Able to see my vacation on google calendar
-- After submited, Team Lead and HR will recieve an email notification
-- Abe to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>edit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> submited vacation, Team Lead and HR will recieve email notification</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1033,6 +929,110 @@
         <charset val="163"/>
       </rPr>
       <t xml:space="preserve"> (e.g: 4 days, 5 days)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- Each employee will have 12 days off (configurable), every time a vacation booked, employee's days off will be reduce accordingly
+- Able to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>book vacation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> with some information such as: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>from date - to date, from hour - to hour, reason</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">
+- Able to see my vacation on google calendar
+- After submited, Team Lead and HR will recieve an email notification
+- Abe to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>edit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> submited vacation, Team Lead and HR will recieve email notification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>reset password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> by input the email</t>
     </r>
   </si>
 </sst>
@@ -1903,10 +1903,10 @@
   <dimension ref="A1:M923"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:F20"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1916,7 +1916,7 @@
     <col min="3" max="3" width="53.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="112.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="25.85546875" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
     <col min="11" max="11" width="21.28515625" customWidth="1"/>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="48" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>63</v>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="32"/>
     </row>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F19" s="39" t="s">
         <v>63</v>
@@ -16052,7 +16052,7 @@
     <row r="13" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55"/>
       <c r="B13" s="56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="56" t="s">
         <v>51</v>
@@ -16063,7 +16063,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
@@ -16074,7 +16074,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
         <v>51</v>
@@ -16085,7 +16085,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
         <v>51</v>
@@ -16096,7 +16096,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
         <v>51</v>
@@ -16107,7 +16107,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
         <v>51</v>
@@ -16118,7 +16118,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
         <v>51</v>
@@ -16129,7 +16129,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="56" t="s">
         <v>51</v>
@@ -16140,7 +16140,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="56" t="s">
         <v>51</v>
@@ -16167,7 +16167,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="56" t="s">
         <v>51</v>
@@ -16178,7 +16178,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
         <v>51</v>
@@ -16189,12 +16189,12 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
         <v>51</v>
@@ -16205,7 +16205,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
         <v>51</v>

--- a/VacationTracking/Vacation Tracking - Features Estimation.xlsx
+++ b/VacationTracking/Vacation Tracking - Features Estimation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="97">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -680,74 +680,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">- Able to edit all general information: Name, DoB, Gender, Picture, Remaining days off...
-- Able to set employee to a deparment
-- Able to set employee to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>inactive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> if he/she is active state and then employee </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>can't login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> into system
-- Able to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>reactivate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> employee account</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>- Able to</t>
     </r>
     <r>
@@ -933,6 +865,179 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">- Able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>reset password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> by input the email</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>edit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> all general information: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>Name, DoB, Gender, Picture, Remaining days off...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">
+- Able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> employee to a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>deparment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">
+- Able to set employee to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>inactive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> if he/she is active state and then employee </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>can't login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> into system
+- Able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>reactivate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> employee account</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>- Each employee will have 12 days off (configurable), every time a vacation booked, employee's days off will be reduce accordingly
 - Able to</t>
     </r>
@@ -986,7 +1091,47 @@
       </rPr>
       <t xml:space="preserve">
 - Able to see my vacation on google calendar
-- After submited, Team Lead and HR will recieve an email notification
+- After </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>submited,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> Team Lead and HR will recieve an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> notification
 - Abe to </t>
     </r>
     <r>
@@ -1008,31 +1153,6 @@
         <charset val="163"/>
       </rPr>
       <t xml:space="preserve"> submited vacation, Team Lead and HR will recieve email notification</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Able to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>reset password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> by input the email</t>
     </r>
   </si>
 </sst>
@@ -1214,7 +1334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1370,6 +1490,19 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1386,19 +1519,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1903,19 +2038,19 @@
   <dimension ref="A1:M923"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="112.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="108.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="25.85546875" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
@@ -1938,9 +2073,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="34"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -1974,14 +2109,14 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
@@ -2014,14 +2149,14 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -2097,49 +2232,51 @@
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="19" t="s">
+    <row r="9" spans="1:13" s="69" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="37"/>
+      <c r="B9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="33" t="s">
-        <v>78</v>
+      <c r="D9" s="40"/>
+      <c r="E9" s="48" t="s">
+        <v>95</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="19" t="s">
+      <c r="F9" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+    </row>
+    <row r="10" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="76"/>
+      <c r="B10" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="33" t="s">
+      <c r="D10" s="78"/>
+      <c r="E10" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-    </row>
-    <row r="11" spans="1:13" s="75" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="80"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+    </row>
+    <row r="11" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37"/>
       <c r="B11" s="38" t="s">
         <v>9</v>
@@ -2149,28 +2286,28 @@
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="15"/>
       <c r="H12" s="7"/>
       <c r="I12" s="16"/>
@@ -2222,14 +2359,14 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="15"/>
       <c r="H15" s="7"/>
       <c r="I15" s="16"/>
@@ -2238,7 +2375,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="19" t="s">
         <v>9</v>
@@ -2248,7 +2385,7 @@
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>64</v>
@@ -2273,7 +2410,7 @@
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" s="32"/>
     </row>
@@ -2308,7 +2445,7 @@
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F19" s="39" t="s">
         <v>63</v>
@@ -2322,14 +2459,14 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -16052,7 +16189,7 @@
     <row r="13" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55"/>
       <c r="B13" s="56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="56" t="s">
         <v>51</v>
@@ -16063,7 +16200,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
@@ -16074,7 +16211,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>51</v>
@@ -16085,7 +16222,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
         <v>51</v>
@@ -16096,7 +16233,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
         <v>51</v>
@@ -16107,7 +16244,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
         <v>51</v>
@@ -16118,7 +16255,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
         <v>51</v>
@@ -16129,7 +16266,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="56" t="s">
         <v>51</v>
@@ -16140,7 +16277,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="56" t="s">
         <v>51</v>
@@ -16167,7 +16304,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="56" t="s">
         <v>51</v>
@@ -16178,7 +16315,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
         <v>51</v>
@@ -16189,12 +16326,12 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
         <v>51</v>
@@ -16205,7 +16342,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
         <v>51</v>
@@ -16259,9 +16396,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -16295,14 +16432,14 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
@@ -16333,14 +16470,14 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -16371,14 +16508,14 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="15"/>
       <c r="H7" s="7"/>
       <c r="I7" s="16"/>

--- a/VacationTracking/Vacation Tracking - Features Estimation.xlsx
+++ b/VacationTracking/Vacation Tracking - Features Estimation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="98">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -226,9 +226,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>From 9AM to 7PM</t>
   </si>
   <si>
     <t>button inactive reverse, add status</t>
@@ -679,42 +676,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>- Able to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>cancel vacation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> that I booked
-- Team Lead and HR will recieve email notification</t>
-    </r>
-  </si>
-  <si>
     <t>Route: init-new-user</t>
   </si>
   <si>
@@ -1155,6 +1116,68 @@
       <t xml:space="preserve"> submited vacation, Team Lead and HR will recieve email notification</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>- Able to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>cancel vacation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> that I booked
+- Team Lead and HR will </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>recieve email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> notification</t>
+    </r>
+  </si>
+  <si>
+    <t>Turned off send email</t>
+  </si>
+  <si>
+    <t>Done, turned off send email</t>
+  </si>
 </sst>
 </file>
 
@@ -1334,7 +1357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1425,17 +1448,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1475,7 +1489,6 @@
     <xf numFmtId="4" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1503,6 +1516,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1519,20 +1544,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2051,7 +2067,7 @@
     <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="108.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="77" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="25.85546875" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
     <col min="11" max="11" width="21.28515625" customWidth="1"/>
@@ -2072,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="34"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="72"/>
       <c r="H1" s="71"/>
       <c r="I1" s="71"/>
@@ -2097,7 +2113,7 @@
       <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="11"/>
@@ -2126,18 +2142,18 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="53" t="s">
-        <v>75</v>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49" t="s">
+        <v>74</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="76" t="s">
         <v>63</v>
       </c>
       <c r="G4" s="15"/>
@@ -2166,18 +2182,18 @@
       <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="48" t="s">
-        <v>76</v>
+      <c r="D6" s="37"/>
+      <c r="E6" s="45" t="s">
+        <v>75</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="45" t="s">
         <v>63</v>
       </c>
       <c r="G6" s="15"/>
@@ -2189,18 +2205,18 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="48" t="s">
-        <v>77</v>
+      <c r="D7" s="37"/>
+      <c r="E7" s="45" t="s">
+        <v>76</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="38" t="s">
         <v>63</v>
       </c>
       <c r="G7" s="15"/>
@@ -2220,10 +2236,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="24"/>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="15"/>
       <c r="H8" s="7"/>
       <c r="I8" s="16"/>
@@ -2232,72 +2248,72 @@
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="1:13" s="69" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38" t="s">
+    <row r="9" spans="1:13" s="65" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="34"/>
+      <c r="B9" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="48" t="s">
-        <v>95</v>
+      <c r="D9" s="37"/>
+      <c r="E9" s="45" t="s">
+        <v>93</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-    </row>
-    <row r="10" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77" t="s">
+      <c r="G9" s="61"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+    </row>
+    <row r="10" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="66"/>
+      <c r="B10" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="78"/>
-      <c r="E10" s="79" t="s">
+      <c r="D10" s="68"/>
+      <c r="E10" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="80"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-    </row>
-    <row r="11" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38" t="s">
+      <c r="F10" s="63"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+    </row>
+    <row r="11" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="48" t="s">
-        <v>94</v>
+      <c r="D11" s="37"/>
+      <c r="E11" s="45" t="s">
+        <v>92</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="75" t="s">
@@ -2325,10 +2341,10 @@
         <v>31</v>
       </c>
       <c r="D13" s="24"/>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="32"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="15"/>
       <c r="H13" s="7"/>
       <c r="I13" s="16"/>
@@ -2346,10 +2362,10 @@
         <v>33</v>
       </c>
       <c r="D14" s="24"/>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="32"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="15"/>
       <c r="H14" s="7"/>
       <c r="I14" s="16"/>
@@ -2380,17 +2396,17 @@
       <c r="B16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="43" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="24"/>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="47" t="s">
+      <c r="G16" s="44" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="7"/>
@@ -2401,18 +2417,20 @@
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="33" t="s">
-        <v>78</v>
+      <c r="D17" s="37"/>
+      <c r="E17" s="45" t="s">
+        <v>95</v>
       </c>
-      <c r="F17" s="32"/>
+      <c r="F17" s="38" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
@@ -2423,10 +2441,10 @@
         <v>35</v>
       </c>
       <c r="D18" s="24"/>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="32"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="15"/>
       <c r="H18" s="7"/>
       <c r="I18" s="16"/>
@@ -2436,18 +2454,18 @@
       <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="48" t="s">
-        <v>93</v>
+      <c r="D19" s="37"/>
+      <c r="E19" s="45" t="s">
+        <v>91</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="38" t="s">
         <v>63</v>
       </c>
       <c r="G19" s="15"/>
@@ -2484,10 +2502,10 @@
         <v>39</v>
       </c>
       <c r="D21" s="24"/>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="32"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="15" t="s">
         <v>26</v>
       </c>
@@ -2504,7 +2522,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="27"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="32"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -2519,7 +2537,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="27"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="32"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2534,7 +2552,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="27"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="32"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -2549,7 +2567,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="27"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="32"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -2564,7 +2582,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="27"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="32"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -2579,7 +2597,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="27"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="32"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -2594,7 +2612,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="27"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="32"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -2609,7 +2627,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="27"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="32"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -2624,7 +2642,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="27"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="32"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2639,7 +2657,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="27"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="32"/>
+      <c r="F31" s="28"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -2654,7 +2672,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="27"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="32"/>
+      <c r="F32" s="28"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -2669,7 +2687,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="27"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="32"/>
+      <c r="F33" s="28"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -2684,7 +2702,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="27"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="32"/>
+      <c r="F34" s="28"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -2699,7 +2717,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="27"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="32"/>
+      <c r="F35" s="28"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -2714,7 +2732,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="27"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="32"/>
+      <c r="F36" s="28"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -2729,7 +2747,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="27"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="32"/>
+      <c r="F37" s="28"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -2744,7 +2762,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="27"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="32"/>
+      <c r="F38" s="28"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -2759,7 +2777,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="27"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="32"/>
+      <c r="F39" s="28"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -2774,7 +2792,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="27"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="32"/>
+      <c r="F40" s="28"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -2789,7 +2807,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="27"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="32"/>
+      <c r="F41" s="28"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -2804,7 +2822,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="27"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="32"/>
+      <c r="F42" s="28"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -2819,7 +2837,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="27"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="32"/>
+      <c r="F43" s="28"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -2834,7 +2852,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="27"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="32"/>
+      <c r="F44" s="28"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -2849,7 +2867,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="27"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="32"/>
+      <c r="F45" s="28"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -2864,7 +2882,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="27"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="32"/>
+      <c r="F46" s="28"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -2879,7 +2897,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="27"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="32"/>
+      <c r="F47" s="28"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -2894,7 +2912,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="27"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="32"/>
+      <c r="F48" s="28"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -2909,7 +2927,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="27"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="32"/>
+      <c r="F49" s="28"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -2924,7 +2942,7 @@
       <c r="C50" s="2"/>
       <c r="D50" s="27"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="32"/>
+      <c r="F50" s="28"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -2939,7 +2957,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="27"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="32"/>
+      <c r="F51" s="28"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -2954,7 +2972,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="27"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="32"/>
+      <c r="F52" s="28"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -2969,7 +2987,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="27"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="32"/>
+      <c r="F53" s="28"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -2984,7 +3002,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="27"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="32"/>
+      <c r="F54" s="28"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -2999,7 +3017,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="27"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="32"/>
+      <c r="F55" s="28"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -3014,7 +3032,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="27"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="32"/>
+      <c r="F56" s="28"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -3029,7 +3047,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="27"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="32"/>
+      <c r="F57" s="28"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -3044,7 +3062,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="27"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="32"/>
+      <c r="F58" s="28"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -3059,7 +3077,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="27"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="32"/>
+      <c r="F59" s="28"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -3074,7 +3092,7 @@
       <c r="C60" s="2"/>
       <c r="D60" s="27"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="32"/>
+      <c r="F60" s="28"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -3089,7 +3107,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="27"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="32"/>
+      <c r="F61" s="28"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -3104,7 +3122,7 @@
       <c r="C62" s="2"/>
       <c r="D62" s="27"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="32"/>
+      <c r="F62" s="28"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -3119,7 +3137,7 @@
       <c r="C63" s="2"/>
       <c r="D63" s="27"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="32"/>
+      <c r="F63" s="28"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -3134,7 +3152,7 @@
       <c r="C64" s="2"/>
       <c r="D64" s="27"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="32"/>
+      <c r="F64" s="28"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -3149,7 +3167,7 @@
       <c r="C65" s="2"/>
       <c r="D65" s="27"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="32"/>
+      <c r="F65" s="28"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -3164,7 +3182,7 @@
       <c r="C66" s="2"/>
       <c r="D66" s="27"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="32"/>
+      <c r="F66" s="28"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -3179,7 +3197,7 @@
       <c r="C67" s="2"/>
       <c r="D67" s="27"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="32"/>
+      <c r="F67" s="28"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -3194,7 +3212,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="27"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="32"/>
+      <c r="F68" s="28"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -3209,7 +3227,7 @@
       <c r="C69" s="2"/>
       <c r="D69" s="27"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="32"/>
+      <c r="F69" s="28"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -3224,7 +3242,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="27"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="32"/>
+      <c r="F70" s="28"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -3239,7 +3257,7 @@
       <c r="C71" s="2"/>
       <c r="D71" s="27"/>
       <c r="E71" s="2"/>
-      <c r="F71" s="32"/>
+      <c r="F71" s="28"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -3254,7 +3272,7 @@
       <c r="C72" s="2"/>
       <c r="D72" s="27"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="32"/>
+      <c r="F72" s="28"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -3269,7 +3287,7 @@
       <c r="C73" s="2"/>
       <c r="D73" s="27"/>
       <c r="E73" s="2"/>
-      <c r="F73" s="32"/>
+      <c r="F73" s="28"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -3284,7 +3302,7 @@
       <c r="C74" s="2"/>
       <c r="D74" s="27"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="32"/>
+      <c r="F74" s="28"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -3299,7 +3317,7 @@
       <c r="C75" s="2"/>
       <c r="D75" s="27"/>
       <c r="E75" s="2"/>
-      <c r="F75" s="32"/>
+      <c r="F75" s="28"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -3314,7 +3332,7 @@
       <c r="C76" s="2"/>
       <c r="D76" s="27"/>
       <c r="E76" s="2"/>
-      <c r="F76" s="32"/>
+      <c r="F76" s="28"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -3329,7 +3347,7 @@
       <c r="C77" s="2"/>
       <c r="D77" s="27"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="32"/>
+      <c r="F77" s="28"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -3344,7 +3362,7 @@
       <c r="C78" s="2"/>
       <c r="D78" s="27"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="32"/>
+      <c r="F78" s="28"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -3359,7 +3377,7 @@
       <c r="C79" s="2"/>
       <c r="D79" s="27"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="32"/>
+      <c r="F79" s="28"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -3374,7 +3392,7 @@
       <c r="C80" s="2"/>
       <c r="D80" s="27"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="32"/>
+      <c r="F80" s="28"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -3389,7 +3407,7 @@
       <c r="C81" s="2"/>
       <c r="D81" s="27"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="32"/>
+      <c r="F81" s="28"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -3404,7 +3422,7 @@
       <c r="C82" s="2"/>
       <c r="D82" s="27"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="32"/>
+      <c r="F82" s="28"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -3419,7 +3437,7 @@
       <c r="C83" s="2"/>
       <c r="D83" s="27"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="32"/>
+      <c r="F83" s="28"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -3434,7 +3452,7 @@
       <c r="C84" s="2"/>
       <c r="D84" s="27"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="32"/>
+      <c r="F84" s="28"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -3449,7 +3467,7 @@
       <c r="C85" s="2"/>
       <c r="D85" s="27"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="32"/>
+      <c r="F85" s="28"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -3464,7 +3482,7 @@
       <c r="C86" s="2"/>
       <c r="D86" s="27"/>
       <c r="E86" s="2"/>
-      <c r="F86" s="32"/>
+      <c r="F86" s="28"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -3479,7 +3497,7 @@
       <c r="C87" s="2"/>
       <c r="D87" s="27"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="32"/>
+      <c r="F87" s="28"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -3494,7 +3512,7 @@
       <c r="C88" s="2"/>
       <c r="D88" s="27"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="32"/>
+      <c r="F88" s="28"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -3509,7 +3527,7 @@
       <c r="C89" s="2"/>
       <c r="D89" s="27"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="32"/>
+      <c r="F89" s="28"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -3524,7 +3542,7 @@
       <c r="C90" s="2"/>
       <c r="D90" s="27"/>
       <c r="E90" s="2"/>
-      <c r="F90" s="32"/>
+      <c r="F90" s="28"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -3539,7 +3557,7 @@
       <c r="C91" s="2"/>
       <c r="D91" s="27"/>
       <c r="E91" s="2"/>
-      <c r="F91" s="32"/>
+      <c r="F91" s="28"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -3554,7 +3572,7 @@
       <c r="C92" s="2"/>
       <c r="D92" s="27"/>
       <c r="E92" s="2"/>
-      <c r="F92" s="32"/>
+      <c r="F92" s="28"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -3569,7 +3587,7 @@
       <c r="C93" s="2"/>
       <c r="D93" s="27"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="32"/>
+      <c r="F93" s="28"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -3584,7 +3602,7 @@
       <c r="C94" s="2"/>
       <c r="D94" s="27"/>
       <c r="E94" s="2"/>
-      <c r="F94" s="32"/>
+      <c r="F94" s="28"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -3599,7 +3617,7 @@
       <c r="C95" s="2"/>
       <c r="D95" s="27"/>
       <c r="E95" s="2"/>
-      <c r="F95" s="32"/>
+      <c r="F95" s="28"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
@@ -3614,7 +3632,7 @@
       <c r="C96" s="2"/>
       <c r="D96" s="27"/>
       <c r="E96" s="2"/>
-      <c r="F96" s="32"/>
+      <c r="F96" s="28"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -3629,7 +3647,7 @@
       <c r="C97" s="2"/>
       <c r="D97" s="27"/>
       <c r="E97" s="2"/>
-      <c r="F97" s="32"/>
+      <c r="F97" s="28"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -3644,7 +3662,7 @@
       <c r="C98" s="2"/>
       <c r="D98" s="27"/>
       <c r="E98" s="2"/>
-      <c r="F98" s="32"/>
+      <c r="F98" s="28"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -3659,7 +3677,7 @@
       <c r="C99" s="2"/>
       <c r="D99" s="27"/>
       <c r="E99" s="2"/>
-      <c r="F99" s="32"/>
+      <c r="F99" s="28"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -3674,7 +3692,7 @@
       <c r="C100" s="2"/>
       <c r="D100" s="27"/>
       <c r="E100" s="2"/>
-      <c r="F100" s="32"/>
+      <c r="F100" s="28"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -3689,7 +3707,7 @@
       <c r="C101" s="2"/>
       <c r="D101" s="27"/>
       <c r="E101" s="2"/>
-      <c r="F101" s="32"/>
+      <c r="F101" s="28"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -3704,7 +3722,7 @@
       <c r="C102" s="2"/>
       <c r="D102" s="27"/>
       <c r="E102" s="2"/>
-      <c r="F102" s="32"/>
+      <c r="F102" s="28"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
@@ -3719,7 +3737,7 @@
       <c r="C103" s="2"/>
       <c r="D103" s="27"/>
       <c r="E103" s="2"/>
-      <c r="F103" s="32"/>
+      <c r="F103" s="28"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
@@ -3734,7 +3752,7 @@
       <c r="C104" s="2"/>
       <c r="D104" s="27"/>
       <c r="E104" s="2"/>
-      <c r="F104" s="32"/>
+      <c r="F104" s="28"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -3749,7 +3767,7 @@
       <c r="C105" s="2"/>
       <c r="D105" s="27"/>
       <c r="E105" s="2"/>
-      <c r="F105" s="32"/>
+      <c r="F105" s="28"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -3764,7 +3782,7 @@
       <c r="C106" s="2"/>
       <c r="D106" s="27"/>
       <c r="E106" s="2"/>
-      <c r="F106" s="32"/>
+      <c r="F106" s="28"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -3779,7 +3797,7 @@
       <c r="C107" s="2"/>
       <c r="D107" s="27"/>
       <c r="E107" s="2"/>
-      <c r="F107" s="32"/>
+      <c r="F107" s="28"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
@@ -3794,7 +3812,7 @@
       <c r="C108" s="2"/>
       <c r="D108" s="27"/>
       <c r="E108" s="2"/>
-      <c r="F108" s="32"/>
+      <c r="F108" s="28"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -3809,7 +3827,7 @@
       <c r="C109" s="2"/>
       <c r="D109" s="27"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="32"/>
+      <c r="F109" s="28"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -3824,7 +3842,7 @@
       <c r="C110" s="2"/>
       <c r="D110" s="27"/>
       <c r="E110" s="2"/>
-      <c r="F110" s="32"/>
+      <c r="F110" s="28"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -3839,7 +3857,7 @@
       <c r="C111" s="2"/>
       <c r="D111" s="27"/>
       <c r="E111" s="2"/>
-      <c r="F111" s="32"/>
+      <c r="F111" s="28"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -3854,7 +3872,7 @@
       <c r="C112" s="2"/>
       <c r="D112" s="27"/>
       <c r="E112" s="2"/>
-      <c r="F112" s="32"/>
+      <c r="F112" s="28"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -3869,7 +3887,7 @@
       <c r="C113" s="2"/>
       <c r="D113" s="27"/>
       <c r="E113" s="2"/>
-      <c r="F113" s="32"/>
+      <c r="F113" s="28"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
@@ -3884,7 +3902,7 @@
       <c r="C114" s="2"/>
       <c r="D114" s="27"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="32"/>
+      <c r="F114" s="28"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -3899,7 +3917,7 @@
       <c r="C115" s="2"/>
       <c r="D115" s="27"/>
       <c r="E115" s="2"/>
-      <c r="F115" s="32"/>
+      <c r="F115" s="28"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
@@ -3914,7 +3932,7 @@
       <c r="C116" s="2"/>
       <c r="D116" s="27"/>
       <c r="E116" s="2"/>
-      <c r="F116" s="32"/>
+      <c r="F116" s="28"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
@@ -3929,7 +3947,7 @@
       <c r="C117" s="2"/>
       <c r="D117" s="27"/>
       <c r="E117" s="2"/>
-      <c r="F117" s="32"/>
+      <c r="F117" s="28"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
@@ -3944,7 +3962,7 @@
       <c r="C118" s="2"/>
       <c r="D118" s="27"/>
       <c r="E118" s="2"/>
-      <c r="F118" s="32"/>
+      <c r="F118" s="28"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -3959,7 +3977,7 @@
       <c r="C119" s="2"/>
       <c r="D119" s="27"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="32"/>
+      <c r="F119" s="28"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -3974,7 +3992,7 @@
       <c r="C120" s="2"/>
       <c r="D120" s="27"/>
       <c r="E120" s="2"/>
-      <c r="F120" s="32"/>
+      <c r="F120" s="28"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -3989,7 +4007,7 @@
       <c r="C121" s="2"/>
       <c r="D121" s="27"/>
       <c r="E121" s="2"/>
-      <c r="F121" s="32"/>
+      <c r="F121" s="28"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -4004,7 +4022,7 @@
       <c r="C122" s="2"/>
       <c r="D122" s="27"/>
       <c r="E122" s="2"/>
-      <c r="F122" s="32"/>
+      <c r="F122" s="28"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
@@ -4019,7 +4037,7 @@
       <c r="C123" s="2"/>
       <c r="D123" s="27"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="32"/>
+      <c r="F123" s="28"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
@@ -4034,7 +4052,7 @@
       <c r="C124" s="2"/>
       <c r="D124" s="27"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="32"/>
+      <c r="F124" s="28"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
@@ -4049,7 +4067,7 @@
       <c r="C125" s="2"/>
       <c r="D125" s="27"/>
       <c r="E125" s="2"/>
-      <c r="F125" s="32"/>
+      <c r="F125" s="28"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
@@ -4064,7 +4082,7 @@
       <c r="C126" s="2"/>
       <c r="D126" s="27"/>
       <c r="E126" s="2"/>
-      <c r="F126" s="32"/>
+      <c r="F126" s="28"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -4079,7 +4097,7 @@
       <c r="C127" s="2"/>
       <c r="D127" s="27"/>
       <c r="E127" s="2"/>
-      <c r="F127" s="32"/>
+      <c r="F127" s="28"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -4094,7 +4112,7 @@
       <c r="C128" s="2"/>
       <c r="D128" s="27"/>
       <c r="E128" s="2"/>
-      <c r="F128" s="32"/>
+      <c r="F128" s="28"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -4109,7 +4127,7 @@
       <c r="C129" s="2"/>
       <c r="D129" s="27"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="32"/>
+      <c r="F129" s="28"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -4124,7 +4142,7 @@
       <c r="C130" s="2"/>
       <c r="D130" s="27"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="32"/>
+      <c r="F130" s="28"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -4139,7 +4157,7 @@
       <c r="C131" s="2"/>
       <c r="D131" s="27"/>
       <c r="E131" s="2"/>
-      <c r="F131" s="32"/>
+      <c r="F131" s="28"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
@@ -4154,7 +4172,7 @@
       <c r="C132" s="2"/>
       <c r="D132" s="27"/>
       <c r="E132" s="2"/>
-      <c r="F132" s="32"/>
+      <c r="F132" s="28"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -4169,7 +4187,7 @@
       <c r="C133" s="2"/>
       <c r="D133" s="27"/>
       <c r="E133" s="2"/>
-      <c r="F133" s="32"/>
+      <c r="F133" s="28"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
@@ -4184,7 +4202,7 @@
       <c r="C134" s="2"/>
       <c r="D134" s="27"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="32"/>
+      <c r="F134" s="28"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
@@ -4199,7 +4217,7 @@
       <c r="C135" s="2"/>
       <c r="D135" s="27"/>
       <c r="E135" s="2"/>
-      <c r="F135" s="32"/>
+      <c r="F135" s="28"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
@@ -4214,7 +4232,7 @@
       <c r="C136" s="2"/>
       <c r="D136" s="27"/>
       <c r="E136" s="2"/>
-      <c r="F136" s="32"/>
+      <c r="F136" s="28"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
@@ -4229,7 +4247,7 @@
       <c r="C137" s="2"/>
       <c r="D137" s="27"/>
       <c r="E137" s="2"/>
-      <c r="F137" s="32"/>
+      <c r="F137" s="28"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
@@ -4244,7 +4262,7 @@
       <c r="C138" s="2"/>
       <c r="D138" s="27"/>
       <c r="E138" s="2"/>
-      <c r="F138" s="32"/>
+      <c r="F138" s="28"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
@@ -4259,7 +4277,7 @@
       <c r="C139" s="2"/>
       <c r="D139" s="27"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="32"/>
+      <c r="F139" s="28"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
@@ -4274,7 +4292,7 @@
       <c r="C140" s="2"/>
       <c r="D140" s="27"/>
       <c r="E140" s="2"/>
-      <c r="F140" s="32"/>
+      <c r="F140" s="28"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
@@ -4289,7 +4307,7 @@
       <c r="C141" s="2"/>
       <c r="D141" s="27"/>
       <c r="E141" s="2"/>
-      <c r="F141" s="32"/>
+      <c r="F141" s="28"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
@@ -4304,7 +4322,7 @@
       <c r="C142" s="2"/>
       <c r="D142" s="27"/>
       <c r="E142" s="2"/>
-      <c r="F142" s="32"/>
+      <c r="F142" s="28"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
@@ -4319,7 +4337,7 @@
       <c r="C143" s="2"/>
       <c r="D143" s="27"/>
       <c r="E143" s="2"/>
-      <c r="F143" s="32"/>
+      <c r="F143" s="28"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
@@ -4334,7 +4352,7 @@
       <c r="C144" s="2"/>
       <c r="D144" s="27"/>
       <c r="E144" s="2"/>
-      <c r="F144" s="32"/>
+      <c r="F144" s="28"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -4349,7 +4367,7 @@
       <c r="C145" s="2"/>
       <c r="D145" s="27"/>
       <c r="E145" s="2"/>
-      <c r="F145" s="32"/>
+      <c r="F145" s="28"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -4364,7 +4382,7 @@
       <c r="C146" s="2"/>
       <c r="D146" s="27"/>
       <c r="E146" s="2"/>
-      <c r="F146" s="32"/>
+      <c r="F146" s="28"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
@@ -4379,7 +4397,7 @@
       <c r="C147" s="2"/>
       <c r="D147" s="27"/>
       <c r="E147" s="2"/>
-      <c r="F147" s="32"/>
+      <c r="F147" s="28"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
@@ -4394,7 +4412,7 @@
       <c r="C148" s="2"/>
       <c r="D148" s="27"/>
       <c r="E148" s="2"/>
-      <c r="F148" s="32"/>
+      <c r="F148" s="28"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -4409,7 +4427,7 @@
       <c r="C149" s="2"/>
       <c r="D149" s="27"/>
       <c r="E149" s="2"/>
-      <c r="F149" s="32"/>
+      <c r="F149" s="28"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
@@ -4424,7 +4442,7 @@
       <c r="C150" s="2"/>
       <c r="D150" s="27"/>
       <c r="E150" s="2"/>
-      <c r="F150" s="32"/>
+      <c r="F150" s="28"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
@@ -4439,7 +4457,7 @@
       <c r="C151" s="2"/>
       <c r="D151" s="27"/>
       <c r="E151" s="2"/>
-      <c r="F151" s="32"/>
+      <c r="F151" s="28"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
@@ -4454,7 +4472,7 @@
       <c r="C152" s="2"/>
       <c r="D152" s="27"/>
       <c r="E152" s="2"/>
-      <c r="F152" s="32"/>
+      <c r="F152" s="28"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
@@ -4469,7 +4487,7 @@
       <c r="C153" s="2"/>
       <c r="D153" s="27"/>
       <c r="E153" s="2"/>
-      <c r="F153" s="32"/>
+      <c r="F153" s="28"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
@@ -4484,7 +4502,7 @@
       <c r="C154" s="2"/>
       <c r="D154" s="27"/>
       <c r="E154" s="2"/>
-      <c r="F154" s="32"/>
+      <c r="F154" s="28"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
@@ -4499,7 +4517,7 @@
       <c r="C155" s="2"/>
       <c r="D155" s="27"/>
       <c r="E155" s="2"/>
-      <c r="F155" s="32"/>
+      <c r="F155" s="28"/>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
@@ -4514,7 +4532,7 @@
       <c r="C156" s="2"/>
       <c r="D156" s="27"/>
       <c r="E156" s="2"/>
-      <c r="F156" s="32"/>
+      <c r="F156" s="28"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
@@ -4529,7 +4547,7 @@
       <c r="C157" s="2"/>
       <c r="D157" s="27"/>
       <c r="E157" s="2"/>
-      <c r="F157" s="32"/>
+      <c r="F157" s="28"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
@@ -4544,7 +4562,7 @@
       <c r="C158" s="2"/>
       <c r="D158" s="27"/>
       <c r="E158" s="2"/>
-      <c r="F158" s="32"/>
+      <c r="F158" s="28"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
@@ -4559,7 +4577,7 @@
       <c r="C159" s="2"/>
       <c r="D159" s="27"/>
       <c r="E159" s="2"/>
-      <c r="F159" s="32"/>
+      <c r="F159" s="28"/>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
@@ -4574,7 +4592,7 @@
       <c r="C160" s="2"/>
       <c r="D160" s="27"/>
       <c r="E160" s="2"/>
-      <c r="F160" s="32"/>
+      <c r="F160" s="28"/>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
@@ -4589,7 +4607,7 @@
       <c r="C161" s="2"/>
       <c r="D161" s="27"/>
       <c r="E161" s="2"/>
-      <c r="F161" s="32"/>
+      <c r="F161" s="28"/>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
@@ -4604,7 +4622,7 @@
       <c r="C162" s="2"/>
       <c r="D162" s="27"/>
       <c r="E162" s="2"/>
-      <c r="F162" s="32"/>
+      <c r="F162" s="28"/>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
@@ -4619,7 +4637,7 @@
       <c r="C163" s="2"/>
       <c r="D163" s="27"/>
       <c r="E163" s="2"/>
-      <c r="F163" s="32"/>
+      <c r="F163" s="28"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
@@ -4634,7 +4652,7 @@
       <c r="C164" s="2"/>
       <c r="D164" s="27"/>
       <c r="E164" s="2"/>
-      <c r="F164" s="32"/>
+      <c r="F164" s="28"/>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
@@ -4649,7 +4667,7 @@
       <c r="C165" s="2"/>
       <c r="D165" s="27"/>
       <c r="E165" s="2"/>
-      <c r="F165" s="32"/>
+      <c r="F165" s="28"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
@@ -4664,7 +4682,7 @@
       <c r="C166" s="2"/>
       <c r="D166" s="27"/>
       <c r="E166" s="2"/>
-      <c r="F166" s="32"/>
+      <c r="F166" s="28"/>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
@@ -4679,7 +4697,7 @@
       <c r="C167" s="2"/>
       <c r="D167" s="27"/>
       <c r="E167" s="2"/>
-      <c r="F167" s="32"/>
+      <c r="F167" s="28"/>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
@@ -4694,7 +4712,7 @@
       <c r="C168" s="2"/>
       <c r="D168" s="27"/>
       <c r="E168" s="2"/>
-      <c r="F168" s="32"/>
+      <c r="F168" s="28"/>
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
@@ -4709,7 +4727,7 @@
       <c r="C169" s="2"/>
       <c r="D169" s="27"/>
       <c r="E169" s="2"/>
-      <c r="F169" s="32"/>
+      <c r="F169" s="28"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
@@ -4724,7 +4742,7 @@
       <c r="C170" s="2"/>
       <c r="D170" s="27"/>
       <c r="E170" s="2"/>
-      <c r="F170" s="32"/>
+      <c r="F170" s="28"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
@@ -4739,7 +4757,7 @@
       <c r="C171" s="2"/>
       <c r="D171" s="27"/>
       <c r="E171" s="2"/>
-      <c r="F171" s="32"/>
+      <c r="F171" s="28"/>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
@@ -4754,7 +4772,7 @@
       <c r="C172" s="2"/>
       <c r="D172" s="27"/>
       <c r="E172" s="2"/>
-      <c r="F172" s="32"/>
+      <c r="F172" s="28"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
@@ -4769,7 +4787,7 @@
       <c r="C173" s="2"/>
       <c r="D173" s="27"/>
       <c r="E173" s="2"/>
-      <c r="F173" s="32"/>
+      <c r="F173" s="28"/>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
@@ -4784,7 +4802,7 @@
       <c r="C174" s="2"/>
       <c r="D174" s="27"/>
       <c r="E174" s="2"/>
-      <c r="F174" s="32"/>
+      <c r="F174" s="28"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
@@ -4799,7 +4817,7 @@
       <c r="C175" s="2"/>
       <c r="D175" s="27"/>
       <c r="E175" s="2"/>
-      <c r="F175" s="32"/>
+      <c r="F175" s="28"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
@@ -4814,7 +4832,7 @@
       <c r="C176" s="2"/>
       <c r="D176" s="27"/>
       <c r="E176" s="2"/>
-      <c r="F176" s="32"/>
+      <c r="F176" s="28"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
@@ -4829,7 +4847,7 @@
       <c r="C177" s="2"/>
       <c r="D177" s="27"/>
       <c r="E177" s="2"/>
-      <c r="F177" s="32"/>
+      <c r="F177" s="28"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
@@ -4844,7 +4862,7 @@
       <c r="C178" s="2"/>
       <c r="D178" s="27"/>
       <c r="E178" s="2"/>
-      <c r="F178" s="32"/>
+      <c r="F178" s="28"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
@@ -4859,7 +4877,7 @@
       <c r="C179" s="2"/>
       <c r="D179" s="27"/>
       <c r="E179" s="2"/>
-      <c r="F179" s="32"/>
+      <c r="F179" s="28"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
@@ -4874,7 +4892,7 @@
       <c r="C180" s="2"/>
       <c r="D180" s="27"/>
       <c r="E180" s="2"/>
-      <c r="F180" s="32"/>
+      <c r="F180" s="28"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
@@ -4889,7 +4907,7 @@
       <c r="C181" s="2"/>
       <c r="D181" s="27"/>
       <c r="E181" s="2"/>
-      <c r="F181" s="32"/>
+      <c r="F181" s="28"/>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
@@ -4904,7 +4922,7 @@
       <c r="C182" s="2"/>
       <c r="D182" s="27"/>
       <c r="E182" s="2"/>
-      <c r="F182" s="32"/>
+      <c r="F182" s="28"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
@@ -4919,7 +4937,7 @@
       <c r="C183" s="2"/>
       <c r="D183" s="27"/>
       <c r="E183" s="2"/>
-      <c r="F183" s="32"/>
+      <c r="F183" s="28"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
@@ -4934,7 +4952,7 @@
       <c r="C184" s="2"/>
       <c r="D184" s="27"/>
       <c r="E184" s="2"/>
-      <c r="F184" s="32"/>
+      <c r="F184" s="28"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
@@ -4949,7 +4967,7 @@
       <c r="C185" s="2"/>
       <c r="D185" s="27"/>
       <c r="E185" s="2"/>
-      <c r="F185" s="32"/>
+      <c r="F185" s="28"/>
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
@@ -4964,7 +4982,7 @@
       <c r="C186" s="2"/>
       <c r="D186" s="27"/>
       <c r="E186" s="2"/>
-      <c r="F186" s="32"/>
+      <c r="F186" s="28"/>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
@@ -4979,7 +4997,7 @@
       <c r="C187" s="2"/>
       <c r="D187" s="27"/>
       <c r="E187" s="2"/>
-      <c r="F187" s="32"/>
+      <c r="F187" s="28"/>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
@@ -4994,7 +5012,7 @@
       <c r="C188" s="2"/>
       <c r="D188" s="27"/>
       <c r="E188" s="2"/>
-      <c r="F188" s="32"/>
+      <c r="F188" s="28"/>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
@@ -5009,7 +5027,7 @@
       <c r="C189" s="2"/>
       <c r="D189" s="27"/>
       <c r="E189" s="2"/>
-      <c r="F189" s="32"/>
+      <c r="F189" s="28"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
@@ -5024,7 +5042,7 @@
       <c r="C190" s="2"/>
       <c r="D190" s="27"/>
       <c r="E190" s="2"/>
-      <c r="F190" s="32"/>
+      <c r="F190" s="28"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
@@ -5039,7 +5057,7 @@
       <c r="C191" s="2"/>
       <c r="D191" s="27"/>
       <c r="E191" s="2"/>
-      <c r="F191" s="32"/>
+      <c r="F191" s="28"/>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
@@ -5054,7 +5072,7 @@
       <c r="C192" s="2"/>
       <c r="D192" s="27"/>
       <c r="E192" s="2"/>
-      <c r="F192" s="32"/>
+      <c r="F192" s="28"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
@@ -5069,7 +5087,7 @@
       <c r="C193" s="2"/>
       <c r="D193" s="27"/>
       <c r="E193" s="2"/>
-      <c r="F193" s="32"/>
+      <c r="F193" s="28"/>
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
@@ -5084,7 +5102,7 @@
       <c r="C194" s="2"/>
       <c r="D194" s="27"/>
       <c r="E194" s="2"/>
-      <c r="F194" s="32"/>
+      <c r="F194" s="28"/>
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
@@ -5099,7 +5117,7 @@
       <c r="C195" s="2"/>
       <c r="D195" s="27"/>
       <c r="E195" s="2"/>
-      <c r="F195" s="32"/>
+      <c r="F195" s="28"/>
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
@@ -5114,7 +5132,7 @@
       <c r="C196" s="2"/>
       <c r="D196" s="27"/>
       <c r="E196" s="2"/>
-      <c r="F196" s="32"/>
+      <c r="F196" s="28"/>
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
@@ -5129,7 +5147,7 @@
       <c r="C197" s="2"/>
       <c r="D197" s="27"/>
       <c r="E197" s="2"/>
-      <c r="F197" s="32"/>
+      <c r="F197" s="28"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
@@ -5144,7 +5162,7 @@
       <c r="C198" s="2"/>
       <c r="D198" s="27"/>
       <c r="E198" s="2"/>
-      <c r="F198" s="32"/>
+      <c r="F198" s="28"/>
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
@@ -5159,7 +5177,7 @@
       <c r="C199" s="2"/>
       <c r="D199" s="27"/>
       <c r="E199" s="2"/>
-      <c r="F199" s="32"/>
+      <c r="F199" s="28"/>
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
@@ -5174,7 +5192,7 @@
       <c r="C200" s="2"/>
       <c r="D200" s="27"/>
       <c r="E200" s="2"/>
-      <c r="F200" s="32"/>
+      <c r="F200" s="28"/>
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
@@ -5189,7 +5207,7 @@
       <c r="C201" s="2"/>
       <c r="D201" s="27"/>
       <c r="E201" s="2"/>
-      <c r="F201" s="32"/>
+      <c r="F201" s="28"/>
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
@@ -5204,7 +5222,7 @@
       <c r="C202" s="2"/>
       <c r="D202" s="27"/>
       <c r="E202" s="2"/>
-      <c r="F202" s="32"/>
+      <c r="F202" s="28"/>
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
@@ -5219,7 +5237,7 @@
       <c r="C203" s="2"/>
       <c r="D203" s="27"/>
       <c r="E203" s="2"/>
-      <c r="F203" s="32"/>
+      <c r="F203" s="28"/>
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
@@ -5234,7 +5252,7 @@
       <c r="C204" s="2"/>
       <c r="D204" s="27"/>
       <c r="E204" s="2"/>
-      <c r="F204" s="32"/>
+      <c r="F204" s="28"/>
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
@@ -5249,7 +5267,7 @@
       <c r="C205" s="2"/>
       <c r="D205" s="27"/>
       <c r="E205" s="2"/>
-      <c r="F205" s="32"/>
+      <c r="F205" s="28"/>
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
@@ -5264,7 +5282,7 @@
       <c r="C206" s="2"/>
       <c r="D206" s="27"/>
       <c r="E206" s="2"/>
-      <c r="F206" s="32"/>
+      <c r="F206" s="28"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
@@ -5279,7 +5297,7 @@
       <c r="C207" s="2"/>
       <c r="D207" s="27"/>
       <c r="E207" s="2"/>
-      <c r="F207" s="32"/>
+      <c r="F207" s="28"/>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
@@ -5294,7 +5312,7 @@
       <c r="C208" s="2"/>
       <c r="D208" s="27"/>
       <c r="E208" s="2"/>
-      <c r="F208" s="32"/>
+      <c r="F208" s="28"/>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
@@ -5309,7 +5327,7 @@
       <c r="C209" s="2"/>
       <c r="D209" s="27"/>
       <c r="E209" s="2"/>
-      <c r="F209" s="32"/>
+      <c r="F209" s="28"/>
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
@@ -5324,7 +5342,7 @@
       <c r="C210" s="2"/>
       <c r="D210" s="27"/>
       <c r="E210" s="2"/>
-      <c r="F210" s="32"/>
+      <c r="F210" s="28"/>
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
@@ -5339,7 +5357,7 @@
       <c r="C211" s="2"/>
       <c r="D211" s="27"/>
       <c r="E211" s="2"/>
-      <c r="F211" s="32"/>
+      <c r="F211" s="28"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
@@ -5354,7 +5372,7 @@
       <c r="C212" s="2"/>
       <c r="D212" s="27"/>
       <c r="E212" s="2"/>
-      <c r="F212" s="32"/>
+      <c r="F212" s="28"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
@@ -5369,7 +5387,7 @@
       <c r="C213" s="2"/>
       <c r="D213" s="27"/>
       <c r="E213" s="2"/>
-      <c r="F213" s="32"/>
+      <c r="F213" s="28"/>
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
@@ -5384,7 +5402,7 @@
       <c r="C214" s="2"/>
       <c r="D214" s="27"/>
       <c r="E214" s="2"/>
-      <c r="F214" s="32"/>
+      <c r="F214" s="28"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
@@ -5399,7 +5417,7 @@
       <c r="C215" s="2"/>
       <c r="D215" s="27"/>
       <c r="E215" s="2"/>
-      <c r="F215" s="32"/>
+      <c r="F215" s="28"/>
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
@@ -5414,7 +5432,7 @@
       <c r="C216" s="2"/>
       <c r="D216" s="27"/>
       <c r="E216" s="2"/>
-      <c r="F216" s="32"/>
+      <c r="F216" s="28"/>
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
@@ -5429,7 +5447,7 @@
       <c r="C217" s="2"/>
       <c r="D217" s="27"/>
       <c r="E217" s="2"/>
-      <c r="F217" s="32"/>
+      <c r="F217" s="28"/>
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
@@ -5444,7 +5462,7 @@
       <c r="C218" s="2"/>
       <c r="D218" s="27"/>
       <c r="E218" s="2"/>
-      <c r="F218" s="32"/>
+      <c r="F218" s="28"/>
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
@@ -5459,7 +5477,7 @@
       <c r="C219" s="2"/>
       <c r="D219" s="27"/>
       <c r="E219" s="2"/>
-      <c r="F219" s="32"/>
+      <c r="F219" s="28"/>
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
@@ -5474,7 +5492,7 @@
       <c r="C220" s="2"/>
       <c r="D220" s="27"/>
       <c r="E220" s="2"/>
-      <c r="F220" s="32"/>
+      <c r="F220" s="28"/>
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
@@ -5489,7 +5507,7 @@
       <c r="C221" s="2"/>
       <c r="D221" s="27"/>
       <c r="E221" s="2"/>
-      <c r="F221" s="32"/>
+      <c r="F221" s="28"/>
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
@@ -5504,7 +5522,7 @@
       <c r="C222" s="2"/>
       <c r="D222" s="27"/>
       <c r="E222" s="2"/>
-      <c r="F222" s="32"/>
+      <c r="F222" s="28"/>
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
@@ -5519,7 +5537,7 @@
       <c r="C223" s="2"/>
       <c r="D223" s="27"/>
       <c r="E223" s="2"/>
-      <c r="F223" s="32"/>
+      <c r="F223" s="28"/>
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
@@ -5534,7 +5552,7 @@
       <c r="C224" s="2"/>
       <c r="D224" s="27"/>
       <c r="E224" s="2"/>
-      <c r="F224" s="32"/>
+      <c r="F224" s="28"/>
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
@@ -5549,7 +5567,7 @@
       <c r="C225" s="2"/>
       <c r="D225" s="27"/>
       <c r="E225" s="2"/>
-      <c r="F225" s="32"/>
+      <c r="F225" s="28"/>
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
       <c r="I225" s="2"/>
@@ -5564,7 +5582,7 @@
       <c r="C226" s="2"/>
       <c r="D226" s="27"/>
       <c r="E226" s="2"/>
-      <c r="F226" s="32"/>
+      <c r="F226" s="28"/>
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
@@ -5579,7 +5597,7 @@
       <c r="C227" s="2"/>
       <c r="D227" s="27"/>
       <c r="E227" s="2"/>
-      <c r="F227" s="32"/>
+      <c r="F227" s="28"/>
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
       <c r="I227" s="2"/>
@@ -5594,7 +5612,7 @@
       <c r="C228" s="2"/>
       <c r="D228" s="27"/>
       <c r="E228" s="2"/>
-      <c r="F228" s="32"/>
+      <c r="F228" s="28"/>
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
@@ -5609,7 +5627,7 @@
       <c r="C229" s="2"/>
       <c r="D229" s="27"/>
       <c r="E229" s="2"/>
-      <c r="F229" s="32"/>
+      <c r="F229" s="28"/>
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
@@ -5624,7 +5642,7 @@
       <c r="C230" s="2"/>
       <c r="D230" s="27"/>
       <c r="E230" s="2"/>
-      <c r="F230" s="32"/>
+      <c r="F230" s="28"/>
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
@@ -5639,7 +5657,7 @@
       <c r="C231" s="2"/>
       <c r="D231" s="27"/>
       <c r="E231" s="2"/>
-      <c r="F231" s="32"/>
+      <c r="F231" s="28"/>
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
@@ -5654,7 +5672,7 @@
       <c r="C232" s="2"/>
       <c r="D232" s="27"/>
       <c r="E232" s="2"/>
-      <c r="F232" s="32"/>
+      <c r="F232" s="28"/>
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
       <c r="I232" s="2"/>
@@ -5669,7 +5687,7 @@
       <c r="C233" s="2"/>
       <c r="D233" s="27"/>
       <c r="E233" s="2"/>
-      <c r="F233" s="32"/>
+      <c r="F233" s="28"/>
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
@@ -5684,7 +5702,7 @@
       <c r="C234" s="2"/>
       <c r="D234" s="27"/>
       <c r="E234" s="2"/>
-      <c r="F234" s="32"/>
+      <c r="F234" s="28"/>
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
       <c r="I234" s="2"/>
@@ -5699,7 +5717,7 @@
       <c r="C235" s="2"/>
       <c r="D235" s="27"/>
       <c r="E235" s="2"/>
-      <c r="F235" s="32"/>
+      <c r="F235" s="28"/>
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
       <c r="I235" s="2"/>
@@ -5714,7 +5732,7 @@
       <c r="C236" s="2"/>
       <c r="D236" s="27"/>
       <c r="E236" s="2"/>
-      <c r="F236" s="32"/>
+      <c r="F236" s="28"/>
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
       <c r="I236" s="2"/>
@@ -5729,7 +5747,7 @@
       <c r="C237" s="2"/>
       <c r="D237" s="27"/>
       <c r="E237" s="2"/>
-      <c r="F237" s="32"/>
+      <c r="F237" s="28"/>
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
       <c r="I237" s="2"/>
@@ -5744,7 +5762,7 @@
       <c r="C238" s="2"/>
       <c r="D238" s="27"/>
       <c r="E238" s="2"/>
-      <c r="F238" s="32"/>
+      <c r="F238" s="28"/>
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
       <c r="I238" s="2"/>
@@ -5759,7 +5777,7 @@
       <c r="C239" s="2"/>
       <c r="D239" s="27"/>
       <c r="E239" s="2"/>
-      <c r="F239" s="32"/>
+      <c r="F239" s="28"/>
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
       <c r="I239" s="2"/>
@@ -5774,7 +5792,7 @@
       <c r="C240" s="2"/>
       <c r="D240" s="27"/>
       <c r="E240" s="2"/>
-      <c r="F240" s="32"/>
+      <c r="F240" s="28"/>
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
       <c r="I240" s="2"/>
@@ -5789,7 +5807,7 @@
       <c r="C241" s="2"/>
       <c r="D241" s="27"/>
       <c r="E241" s="2"/>
-      <c r="F241" s="32"/>
+      <c r="F241" s="28"/>
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
       <c r="I241" s="2"/>
@@ -5804,7 +5822,7 @@
       <c r="C242" s="2"/>
       <c r="D242" s="27"/>
       <c r="E242" s="2"/>
-      <c r="F242" s="32"/>
+      <c r="F242" s="28"/>
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
       <c r="I242" s="2"/>
@@ -5819,7 +5837,7 @@
       <c r="C243" s="2"/>
       <c r="D243" s="27"/>
       <c r="E243" s="2"/>
-      <c r="F243" s="32"/>
+      <c r="F243" s="28"/>
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
       <c r="I243" s="2"/>
@@ -5834,7 +5852,7 @@
       <c r="C244" s="2"/>
       <c r="D244" s="27"/>
       <c r="E244" s="2"/>
-      <c r="F244" s="32"/>
+      <c r="F244" s="28"/>
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
       <c r="I244" s="2"/>
@@ -5849,7 +5867,7 @@
       <c r="C245" s="2"/>
       <c r="D245" s="27"/>
       <c r="E245" s="2"/>
-      <c r="F245" s="32"/>
+      <c r="F245" s="28"/>
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
       <c r="I245" s="2"/>
@@ -5864,7 +5882,7 @@
       <c r="C246" s="2"/>
       <c r="D246" s="27"/>
       <c r="E246" s="2"/>
-      <c r="F246" s="32"/>
+      <c r="F246" s="28"/>
       <c r="G246" s="2"/>
       <c r="H246" s="2"/>
       <c r="I246" s="2"/>
@@ -5879,7 +5897,7 @@
       <c r="C247" s="2"/>
       <c r="D247" s="27"/>
       <c r="E247" s="2"/>
-      <c r="F247" s="32"/>
+      <c r="F247" s="28"/>
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
       <c r="I247" s="2"/>
@@ -5894,7 +5912,7 @@
       <c r="C248" s="2"/>
       <c r="D248" s="27"/>
       <c r="E248" s="2"/>
-      <c r="F248" s="32"/>
+      <c r="F248" s="28"/>
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
       <c r="I248" s="2"/>
@@ -5909,7 +5927,7 @@
       <c r="C249" s="2"/>
       <c r="D249" s="27"/>
       <c r="E249" s="2"/>
-      <c r="F249" s="32"/>
+      <c r="F249" s="28"/>
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
       <c r="I249" s="2"/>
@@ -5924,7 +5942,7 @@
       <c r="C250" s="2"/>
       <c r="D250" s="27"/>
       <c r="E250" s="2"/>
-      <c r="F250" s="32"/>
+      <c r="F250" s="28"/>
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
       <c r="I250" s="2"/>
@@ -5939,7 +5957,7 @@
       <c r="C251" s="2"/>
       <c r="D251" s="27"/>
       <c r="E251" s="2"/>
-      <c r="F251" s="32"/>
+      <c r="F251" s="28"/>
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
       <c r="I251" s="2"/>
@@ -5954,7 +5972,7 @@
       <c r="C252" s="2"/>
       <c r="D252" s="27"/>
       <c r="E252" s="2"/>
-      <c r="F252" s="32"/>
+      <c r="F252" s="28"/>
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
       <c r="I252" s="2"/>
@@ -5969,7 +5987,7 @@
       <c r="C253" s="2"/>
       <c r="D253" s="27"/>
       <c r="E253" s="2"/>
-      <c r="F253" s="32"/>
+      <c r="F253" s="28"/>
       <c r="G253" s="2"/>
       <c r="H253" s="2"/>
       <c r="I253" s="2"/>
@@ -5984,7 +6002,7 @@
       <c r="C254" s="2"/>
       <c r="D254" s="27"/>
       <c r="E254" s="2"/>
-      <c r="F254" s="32"/>
+      <c r="F254" s="28"/>
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
       <c r="I254" s="2"/>
@@ -5999,7 +6017,7 @@
       <c r="C255" s="2"/>
       <c r="D255" s="27"/>
       <c r="E255" s="2"/>
-      <c r="F255" s="32"/>
+      <c r="F255" s="28"/>
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
       <c r="I255" s="2"/>
@@ -6014,7 +6032,7 @@
       <c r="C256" s="2"/>
       <c r="D256" s="27"/>
       <c r="E256" s="2"/>
-      <c r="F256" s="32"/>
+      <c r="F256" s="28"/>
       <c r="G256" s="2"/>
       <c r="H256" s="2"/>
       <c r="I256" s="2"/>
@@ -6029,7 +6047,7 @@
       <c r="C257" s="2"/>
       <c r="D257" s="27"/>
       <c r="E257" s="2"/>
-      <c r="F257" s="32"/>
+      <c r="F257" s="28"/>
       <c r="G257" s="2"/>
       <c r="H257" s="2"/>
       <c r="I257" s="2"/>
@@ -6044,7 +6062,7 @@
       <c r="C258" s="2"/>
       <c r="D258" s="27"/>
       <c r="E258" s="2"/>
-      <c r="F258" s="32"/>
+      <c r="F258" s="28"/>
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
       <c r="I258" s="2"/>
@@ -6059,7 +6077,7 @@
       <c r="C259" s="2"/>
       <c r="D259" s="27"/>
       <c r="E259" s="2"/>
-      <c r="F259" s="32"/>
+      <c r="F259" s="28"/>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
       <c r="I259" s="2"/>
@@ -6074,7 +6092,7 @@
       <c r="C260" s="2"/>
       <c r="D260" s="27"/>
       <c r="E260" s="2"/>
-      <c r="F260" s="32"/>
+      <c r="F260" s="28"/>
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
       <c r="I260" s="2"/>
@@ -6089,7 +6107,7 @@
       <c r="C261" s="2"/>
       <c r="D261" s="27"/>
       <c r="E261" s="2"/>
-      <c r="F261" s="32"/>
+      <c r="F261" s="28"/>
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
       <c r="I261" s="2"/>
@@ -6104,7 +6122,7 @@
       <c r="C262" s="2"/>
       <c r="D262" s="27"/>
       <c r="E262" s="2"/>
-      <c r="F262" s="32"/>
+      <c r="F262" s="28"/>
       <c r="G262" s="2"/>
       <c r="H262" s="2"/>
       <c r="I262" s="2"/>
@@ -6119,7 +6137,7 @@
       <c r="C263" s="2"/>
       <c r="D263" s="27"/>
       <c r="E263" s="2"/>
-      <c r="F263" s="32"/>
+      <c r="F263" s="28"/>
       <c r="G263" s="2"/>
       <c r="H263" s="2"/>
       <c r="I263" s="2"/>
@@ -6134,7 +6152,7 @@
       <c r="C264" s="2"/>
       <c r="D264" s="27"/>
       <c r="E264" s="2"/>
-      <c r="F264" s="32"/>
+      <c r="F264" s="28"/>
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
       <c r="I264" s="2"/>
@@ -6149,7 +6167,7 @@
       <c r="C265" s="2"/>
       <c r="D265" s="27"/>
       <c r="E265" s="2"/>
-      <c r="F265" s="32"/>
+      <c r="F265" s="28"/>
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
       <c r="I265" s="2"/>
@@ -6164,7 +6182,7 @@
       <c r="C266" s="2"/>
       <c r="D266" s="27"/>
       <c r="E266" s="2"/>
-      <c r="F266" s="32"/>
+      <c r="F266" s="28"/>
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
       <c r="I266" s="2"/>
@@ -6179,7 +6197,7 @@
       <c r="C267" s="2"/>
       <c r="D267" s="27"/>
       <c r="E267" s="2"/>
-      <c r="F267" s="32"/>
+      <c r="F267" s="28"/>
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
       <c r="I267" s="2"/>
@@ -6194,7 +6212,7 @@
       <c r="C268" s="2"/>
       <c r="D268" s="27"/>
       <c r="E268" s="2"/>
-      <c r="F268" s="32"/>
+      <c r="F268" s="28"/>
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
       <c r="I268" s="2"/>
@@ -6209,7 +6227,7 @@
       <c r="C269" s="2"/>
       <c r="D269" s="27"/>
       <c r="E269" s="2"/>
-      <c r="F269" s="32"/>
+      <c r="F269" s="28"/>
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
       <c r="I269" s="2"/>
@@ -6224,7 +6242,7 @@
       <c r="C270" s="2"/>
       <c r="D270" s="27"/>
       <c r="E270" s="2"/>
-      <c r="F270" s="32"/>
+      <c r="F270" s="28"/>
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
       <c r="I270" s="2"/>
@@ -6239,7 +6257,7 @@
       <c r="C271" s="2"/>
       <c r="D271" s="27"/>
       <c r="E271" s="2"/>
-      <c r="F271" s="32"/>
+      <c r="F271" s="28"/>
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
       <c r="I271" s="2"/>
@@ -6254,7 +6272,7 @@
       <c r="C272" s="2"/>
       <c r="D272" s="27"/>
       <c r="E272" s="2"/>
-      <c r="F272" s="32"/>
+      <c r="F272" s="28"/>
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
       <c r="I272" s="2"/>
@@ -6269,7 +6287,7 @@
       <c r="C273" s="2"/>
       <c r="D273" s="27"/>
       <c r="E273" s="2"/>
-      <c r="F273" s="32"/>
+      <c r="F273" s="28"/>
       <c r="G273" s="2"/>
       <c r="H273" s="2"/>
       <c r="I273" s="2"/>
@@ -6284,7 +6302,7 @@
       <c r="C274" s="2"/>
       <c r="D274" s="27"/>
       <c r="E274" s="2"/>
-      <c r="F274" s="32"/>
+      <c r="F274" s="28"/>
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
       <c r="I274" s="2"/>
@@ -6299,7 +6317,7 @@
       <c r="C275" s="2"/>
       <c r="D275" s="27"/>
       <c r="E275" s="2"/>
-      <c r="F275" s="32"/>
+      <c r="F275" s="28"/>
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
       <c r="I275" s="2"/>
@@ -6314,7 +6332,7 @@
       <c r="C276" s="2"/>
       <c r="D276" s="27"/>
       <c r="E276" s="2"/>
-      <c r="F276" s="32"/>
+      <c r="F276" s="28"/>
       <c r="G276" s="2"/>
       <c r="H276" s="2"/>
       <c r="I276" s="2"/>
@@ -6329,7 +6347,7 @@
       <c r="C277" s="2"/>
       <c r="D277" s="27"/>
       <c r="E277" s="2"/>
-      <c r="F277" s="32"/>
+      <c r="F277" s="28"/>
       <c r="G277" s="2"/>
       <c r="H277" s="2"/>
       <c r="I277" s="2"/>
@@ -6344,7 +6362,7 @@
       <c r="C278" s="2"/>
       <c r="D278" s="27"/>
       <c r="E278" s="2"/>
-      <c r="F278" s="32"/>
+      <c r="F278" s="28"/>
       <c r="G278" s="2"/>
       <c r="H278" s="2"/>
       <c r="I278" s="2"/>
@@ -6359,7 +6377,7 @@
       <c r="C279" s="2"/>
       <c r="D279" s="27"/>
       <c r="E279" s="2"/>
-      <c r="F279" s="32"/>
+      <c r="F279" s="28"/>
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
       <c r="I279" s="2"/>
@@ -6374,7 +6392,7 @@
       <c r="C280" s="2"/>
       <c r="D280" s="27"/>
       <c r="E280" s="2"/>
-      <c r="F280" s="32"/>
+      <c r="F280" s="28"/>
       <c r="G280" s="2"/>
       <c r="H280" s="2"/>
       <c r="I280" s="2"/>
@@ -6389,7 +6407,7 @@
       <c r="C281" s="2"/>
       <c r="D281" s="27"/>
       <c r="E281" s="2"/>
-      <c r="F281" s="32"/>
+      <c r="F281" s="28"/>
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
       <c r="I281" s="2"/>
@@ -6404,7 +6422,7 @@
       <c r="C282" s="2"/>
       <c r="D282" s="27"/>
       <c r="E282" s="2"/>
-      <c r="F282" s="32"/>
+      <c r="F282" s="28"/>
       <c r="G282" s="2"/>
       <c r="H282" s="2"/>
       <c r="I282" s="2"/>
@@ -6419,7 +6437,7 @@
       <c r="C283" s="2"/>
       <c r="D283" s="27"/>
       <c r="E283" s="2"/>
-      <c r="F283" s="32"/>
+      <c r="F283" s="28"/>
       <c r="G283" s="2"/>
       <c r="H283" s="2"/>
       <c r="I283" s="2"/>
@@ -6434,7 +6452,7 @@
       <c r="C284" s="2"/>
       <c r="D284" s="27"/>
       <c r="E284" s="2"/>
-      <c r="F284" s="32"/>
+      <c r="F284" s="28"/>
       <c r="G284" s="2"/>
       <c r="H284" s="2"/>
       <c r="I284" s="2"/>
@@ -6449,7 +6467,7 @@
       <c r="C285" s="2"/>
       <c r="D285" s="27"/>
       <c r="E285" s="2"/>
-      <c r="F285" s="32"/>
+      <c r="F285" s="28"/>
       <c r="G285" s="2"/>
       <c r="H285" s="2"/>
       <c r="I285" s="2"/>
@@ -6464,7 +6482,7 @@
       <c r="C286" s="2"/>
       <c r="D286" s="27"/>
       <c r="E286" s="2"/>
-      <c r="F286" s="32"/>
+      <c r="F286" s="28"/>
       <c r="G286" s="2"/>
       <c r="H286" s="2"/>
       <c r="I286" s="2"/>
@@ -6479,7 +6497,7 @@
       <c r="C287" s="2"/>
       <c r="D287" s="27"/>
       <c r="E287" s="2"/>
-      <c r="F287" s="32"/>
+      <c r="F287" s="28"/>
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
       <c r="I287" s="2"/>
@@ -6494,7 +6512,7 @@
       <c r="C288" s="2"/>
       <c r="D288" s="27"/>
       <c r="E288" s="2"/>
-      <c r="F288" s="32"/>
+      <c r="F288" s="28"/>
       <c r="G288" s="2"/>
       <c r="H288" s="2"/>
       <c r="I288" s="2"/>
@@ -6509,7 +6527,7 @@
       <c r="C289" s="2"/>
       <c r="D289" s="27"/>
       <c r="E289" s="2"/>
-      <c r="F289" s="32"/>
+      <c r="F289" s="28"/>
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
       <c r="I289" s="2"/>
@@ -6524,7 +6542,7 @@
       <c r="C290" s="2"/>
       <c r="D290" s="27"/>
       <c r="E290" s="2"/>
-      <c r="F290" s="32"/>
+      <c r="F290" s="28"/>
       <c r="G290" s="2"/>
       <c r="H290" s="2"/>
       <c r="I290" s="2"/>
@@ -6539,7 +6557,7 @@
       <c r="C291" s="2"/>
       <c r="D291" s="27"/>
       <c r="E291" s="2"/>
-      <c r="F291" s="32"/>
+      <c r="F291" s="28"/>
       <c r="G291" s="2"/>
       <c r="H291" s="2"/>
       <c r="I291" s="2"/>
@@ -6554,7 +6572,7 @@
       <c r="C292" s="2"/>
       <c r="D292" s="27"/>
       <c r="E292" s="2"/>
-      <c r="F292" s="32"/>
+      <c r="F292" s="28"/>
       <c r="G292" s="2"/>
       <c r="H292" s="2"/>
       <c r="I292" s="2"/>
@@ -6569,7 +6587,7 @@
       <c r="C293" s="2"/>
       <c r="D293" s="27"/>
       <c r="E293" s="2"/>
-      <c r="F293" s="32"/>
+      <c r="F293" s="28"/>
       <c r="G293" s="2"/>
       <c r="H293" s="2"/>
       <c r="I293" s="2"/>
@@ -6584,7 +6602,7 @@
       <c r="C294" s="2"/>
       <c r="D294" s="27"/>
       <c r="E294" s="2"/>
-      <c r="F294" s="32"/>
+      <c r="F294" s="28"/>
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
       <c r="I294" s="2"/>
@@ -6599,7 +6617,7 @@
       <c r="C295" s="2"/>
       <c r="D295" s="27"/>
       <c r="E295" s="2"/>
-      <c r="F295" s="32"/>
+      <c r="F295" s="28"/>
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
       <c r="I295" s="2"/>
@@ -6614,7 +6632,7 @@
       <c r="C296" s="2"/>
       <c r="D296" s="27"/>
       <c r="E296" s="2"/>
-      <c r="F296" s="32"/>
+      <c r="F296" s="28"/>
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
       <c r="I296" s="2"/>
@@ -6629,7 +6647,7 @@
       <c r="C297" s="2"/>
       <c r="D297" s="27"/>
       <c r="E297" s="2"/>
-      <c r="F297" s="32"/>
+      <c r="F297" s="28"/>
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
       <c r="I297" s="2"/>
@@ -6644,7 +6662,7 @@
       <c r="C298" s="2"/>
       <c r="D298" s="27"/>
       <c r="E298" s="2"/>
-      <c r="F298" s="32"/>
+      <c r="F298" s="28"/>
       <c r="G298" s="2"/>
       <c r="H298" s="2"/>
       <c r="I298" s="2"/>
@@ -6659,7 +6677,7 @@
       <c r="C299" s="2"/>
       <c r="D299" s="27"/>
       <c r="E299" s="2"/>
-      <c r="F299" s="32"/>
+      <c r="F299" s="28"/>
       <c r="G299" s="2"/>
       <c r="H299" s="2"/>
       <c r="I299" s="2"/>
@@ -6674,7 +6692,7 @@
       <c r="C300" s="2"/>
       <c r="D300" s="27"/>
       <c r="E300" s="2"/>
-      <c r="F300" s="32"/>
+      <c r="F300" s="28"/>
       <c r="G300" s="2"/>
       <c r="H300" s="2"/>
       <c r="I300" s="2"/>
@@ -6689,7 +6707,7 @@
       <c r="C301" s="2"/>
       <c r="D301" s="27"/>
       <c r="E301" s="2"/>
-      <c r="F301" s="32"/>
+      <c r="F301" s="28"/>
       <c r="G301" s="2"/>
       <c r="H301" s="2"/>
       <c r="I301" s="2"/>
@@ -6704,7 +6722,7 @@
       <c r="C302" s="2"/>
       <c r="D302" s="27"/>
       <c r="E302" s="2"/>
-      <c r="F302" s="32"/>
+      <c r="F302" s="28"/>
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
       <c r="I302" s="2"/>
@@ -6719,7 +6737,7 @@
       <c r="C303" s="2"/>
       <c r="D303" s="27"/>
       <c r="E303" s="2"/>
-      <c r="F303" s="32"/>
+      <c r="F303" s="28"/>
       <c r="G303" s="2"/>
       <c r="H303" s="2"/>
       <c r="I303" s="2"/>
@@ -6734,7 +6752,7 @@
       <c r="C304" s="2"/>
       <c r="D304" s="27"/>
       <c r="E304" s="2"/>
-      <c r="F304" s="32"/>
+      <c r="F304" s="28"/>
       <c r="G304" s="2"/>
       <c r="H304" s="2"/>
       <c r="I304" s="2"/>
@@ -6749,7 +6767,7 @@
       <c r="C305" s="2"/>
       <c r="D305" s="27"/>
       <c r="E305" s="2"/>
-      <c r="F305" s="32"/>
+      <c r="F305" s="28"/>
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
       <c r="I305" s="2"/>
@@ -6764,7 +6782,7 @@
       <c r="C306" s="2"/>
       <c r="D306" s="27"/>
       <c r="E306" s="2"/>
-      <c r="F306" s="32"/>
+      <c r="F306" s="28"/>
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
       <c r="I306" s="2"/>
@@ -6779,7 +6797,7 @@
       <c r="C307" s="2"/>
       <c r="D307" s="27"/>
       <c r="E307" s="2"/>
-      <c r="F307" s="32"/>
+      <c r="F307" s="28"/>
       <c r="G307" s="2"/>
       <c r="H307" s="2"/>
       <c r="I307" s="2"/>
@@ -6794,7 +6812,7 @@
       <c r="C308" s="2"/>
       <c r="D308" s="27"/>
       <c r="E308" s="2"/>
-      <c r="F308" s="32"/>
+      <c r="F308" s="28"/>
       <c r="G308" s="2"/>
       <c r="H308" s="2"/>
       <c r="I308" s="2"/>
@@ -6809,7 +6827,7 @@
       <c r="C309" s="2"/>
       <c r="D309" s="27"/>
       <c r="E309" s="2"/>
-      <c r="F309" s="32"/>
+      <c r="F309" s="28"/>
       <c r="G309" s="2"/>
       <c r="H309" s="2"/>
       <c r="I309" s="2"/>
@@ -6824,7 +6842,7 @@
       <c r="C310" s="2"/>
       <c r="D310" s="27"/>
       <c r="E310" s="2"/>
-      <c r="F310" s="32"/>
+      <c r="F310" s="28"/>
       <c r="G310" s="2"/>
       <c r="H310" s="2"/>
       <c r="I310" s="2"/>
@@ -6839,7 +6857,7 @@
       <c r="C311" s="2"/>
       <c r="D311" s="27"/>
       <c r="E311" s="2"/>
-      <c r="F311" s="32"/>
+      <c r="F311" s="28"/>
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
       <c r="I311" s="2"/>
@@ -6854,7 +6872,7 @@
       <c r="C312" s="2"/>
       <c r="D312" s="27"/>
       <c r="E312" s="2"/>
-      <c r="F312" s="32"/>
+      <c r="F312" s="28"/>
       <c r="G312" s="2"/>
       <c r="H312" s="2"/>
       <c r="I312" s="2"/>
@@ -6869,7 +6887,7 @@
       <c r="C313" s="2"/>
       <c r="D313" s="27"/>
       <c r="E313" s="2"/>
-      <c r="F313" s="32"/>
+      <c r="F313" s="28"/>
       <c r="G313" s="2"/>
       <c r="H313" s="2"/>
       <c r="I313" s="2"/>
@@ -6884,7 +6902,7 @@
       <c r="C314" s="2"/>
       <c r="D314" s="27"/>
       <c r="E314" s="2"/>
-      <c r="F314" s="32"/>
+      <c r="F314" s="28"/>
       <c r="G314" s="2"/>
       <c r="H314" s="2"/>
       <c r="I314" s="2"/>
@@ -6899,7 +6917,7 @@
       <c r="C315" s="2"/>
       <c r="D315" s="27"/>
       <c r="E315" s="2"/>
-      <c r="F315" s="32"/>
+      <c r="F315" s="28"/>
       <c r="G315" s="2"/>
       <c r="H315" s="2"/>
       <c r="I315" s="2"/>
@@ -6914,7 +6932,7 @@
       <c r="C316" s="2"/>
       <c r="D316" s="27"/>
       <c r="E316" s="2"/>
-      <c r="F316" s="32"/>
+      <c r="F316" s="28"/>
       <c r="G316" s="2"/>
       <c r="H316" s="2"/>
       <c r="I316" s="2"/>
@@ -6929,7 +6947,7 @@
       <c r="C317" s="2"/>
       <c r="D317" s="27"/>
       <c r="E317" s="2"/>
-      <c r="F317" s="32"/>
+      <c r="F317" s="28"/>
       <c r="G317" s="2"/>
       <c r="H317" s="2"/>
       <c r="I317" s="2"/>
@@ -6944,7 +6962,7 @@
       <c r="C318" s="2"/>
       <c r="D318" s="27"/>
       <c r="E318" s="2"/>
-      <c r="F318" s="32"/>
+      <c r="F318" s="28"/>
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
       <c r="I318" s="2"/>
@@ -6959,7 +6977,7 @@
       <c r="C319" s="2"/>
       <c r="D319" s="27"/>
       <c r="E319" s="2"/>
-      <c r="F319" s="32"/>
+      <c r="F319" s="28"/>
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
       <c r="I319" s="2"/>
@@ -6974,7 +6992,7 @@
       <c r="C320" s="2"/>
       <c r="D320" s="27"/>
       <c r="E320" s="2"/>
-      <c r="F320" s="32"/>
+      <c r="F320" s="28"/>
       <c r="G320" s="2"/>
       <c r="H320" s="2"/>
       <c r="I320" s="2"/>
@@ -6989,7 +7007,7 @@
       <c r="C321" s="2"/>
       <c r="D321" s="27"/>
       <c r="E321" s="2"/>
-      <c r="F321" s="32"/>
+      <c r="F321" s="28"/>
       <c r="G321" s="2"/>
       <c r="H321" s="2"/>
       <c r="I321" s="2"/>
@@ -7004,7 +7022,7 @@
       <c r="C322" s="2"/>
       <c r="D322" s="27"/>
       <c r="E322" s="2"/>
-      <c r="F322" s="32"/>
+      <c r="F322" s="28"/>
       <c r="G322" s="2"/>
       <c r="H322" s="2"/>
       <c r="I322" s="2"/>
@@ -7019,7 +7037,7 @@
       <c r="C323" s="2"/>
       <c r="D323" s="27"/>
       <c r="E323" s="2"/>
-      <c r="F323" s="32"/>
+      <c r="F323" s="28"/>
       <c r="G323" s="2"/>
       <c r="H323" s="2"/>
       <c r="I323" s="2"/>
@@ -7034,7 +7052,7 @@
       <c r="C324" s="2"/>
       <c r="D324" s="27"/>
       <c r="E324" s="2"/>
-      <c r="F324" s="32"/>
+      <c r="F324" s="28"/>
       <c r="G324" s="2"/>
       <c r="H324" s="2"/>
       <c r="I324" s="2"/>
@@ -7049,7 +7067,7 @@
       <c r="C325" s="2"/>
       <c r="D325" s="27"/>
       <c r="E325" s="2"/>
-      <c r="F325" s="32"/>
+      <c r="F325" s="28"/>
       <c r="G325" s="2"/>
       <c r="H325" s="2"/>
       <c r="I325" s="2"/>
@@ -7064,7 +7082,7 @@
       <c r="C326" s="2"/>
       <c r="D326" s="27"/>
       <c r="E326" s="2"/>
-      <c r="F326" s="32"/>
+      <c r="F326" s="28"/>
       <c r="G326" s="2"/>
       <c r="H326" s="2"/>
       <c r="I326" s="2"/>
@@ -7079,7 +7097,7 @@
       <c r="C327" s="2"/>
       <c r="D327" s="27"/>
       <c r="E327" s="2"/>
-      <c r="F327" s="32"/>
+      <c r="F327" s="28"/>
       <c r="G327" s="2"/>
       <c r="H327" s="2"/>
       <c r="I327" s="2"/>
@@ -7094,7 +7112,7 @@
       <c r="C328" s="2"/>
       <c r="D328" s="27"/>
       <c r="E328" s="2"/>
-      <c r="F328" s="32"/>
+      <c r="F328" s="28"/>
       <c r="G328" s="2"/>
       <c r="H328" s="2"/>
       <c r="I328" s="2"/>
@@ -7109,7 +7127,7 @@
       <c r="C329" s="2"/>
       <c r="D329" s="27"/>
       <c r="E329" s="2"/>
-      <c r="F329" s="32"/>
+      <c r="F329" s="28"/>
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
       <c r="I329" s="2"/>
@@ -7124,7 +7142,7 @@
       <c r="C330" s="2"/>
       <c r="D330" s="27"/>
       <c r="E330" s="2"/>
-      <c r="F330" s="32"/>
+      <c r="F330" s="28"/>
       <c r="G330" s="2"/>
       <c r="H330" s="2"/>
       <c r="I330" s="2"/>
@@ -7139,7 +7157,7 @@
       <c r="C331" s="2"/>
       <c r="D331" s="27"/>
       <c r="E331" s="2"/>
-      <c r="F331" s="32"/>
+      <c r="F331" s="28"/>
       <c r="G331" s="2"/>
       <c r="H331" s="2"/>
       <c r="I331" s="2"/>
@@ -7154,7 +7172,7 @@
       <c r="C332" s="2"/>
       <c r="D332" s="27"/>
       <c r="E332" s="2"/>
-      <c r="F332" s="32"/>
+      <c r="F332" s="28"/>
       <c r="G332" s="2"/>
       <c r="H332" s="2"/>
       <c r="I332" s="2"/>
@@ -7169,7 +7187,7 @@
       <c r="C333" s="2"/>
       <c r="D333" s="27"/>
       <c r="E333" s="2"/>
-      <c r="F333" s="32"/>
+      <c r="F333" s="28"/>
       <c r="G333" s="2"/>
       <c r="H333" s="2"/>
       <c r="I333" s="2"/>
@@ -7184,7 +7202,7 @@
       <c r="C334" s="2"/>
       <c r="D334" s="27"/>
       <c r="E334" s="2"/>
-      <c r="F334" s="32"/>
+      <c r="F334" s="28"/>
       <c r="G334" s="2"/>
       <c r="H334" s="2"/>
       <c r="I334" s="2"/>
@@ -7199,7 +7217,7 @@
       <c r="C335" s="2"/>
       <c r="D335" s="27"/>
       <c r="E335" s="2"/>
-      <c r="F335" s="32"/>
+      <c r="F335" s="28"/>
       <c r="G335" s="2"/>
       <c r="H335" s="2"/>
       <c r="I335" s="2"/>
@@ -7214,7 +7232,7 @@
       <c r="C336" s="2"/>
       <c r="D336" s="27"/>
       <c r="E336" s="2"/>
-      <c r="F336" s="32"/>
+      <c r="F336" s="28"/>
       <c r="G336" s="2"/>
       <c r="H336" s="2"/>
       <c r="I336" s="2"/>
@@ -7229,7 +7247,7 @@
       <c r="C337" s="2"/>
       <c r="D337" s="27"/>
       <c r="E337" s="2"/>
-      <c r="F337" s="32"/>
+      <c r="F337" s="28"/>
       <c r="G337" s="2"/>
       <c r="H337" s="2"/>
       <c r="I337" s="2"/>
@@ -7244,7 +7262,7 @@
       <c r="C338" s="2"/>
       <c r="D338" s="27"/>
       <c r="E338" s="2"/>
-      <c r="F338" s="32"/>
+      <c r="F338" s="28"/>
       <c r="G338" s="2"/>
       <c r="H338" s="2"/>
       <c r="I338" s="2"/>
@@ -7259,7 +7277,7 @@
       <c r="C339" s="2"/>
       <c r="D339" s="27"/>
       <c r="E339" s="2"/>
-      <c r="F339" s="32"/>
+      <c r="F339" s="28"/>
       <c r="G339" s="2"/>
       <c r="H339" s="2"/>
       <c r="I339" s="2"/>
@@ -7274,7 +7292,7 @@
       <c r="C340" s="2"/>
       <c r="D340" s="27"/>
       <c r="E340" s="2"/>
-      <c r="F340" s="32"/>
+      <c r="F340" s="28"/>
       <c r="G340" s="2"/>
       <c r="H340" s="2"/>
       <c r="I340" s="2"/>
@@ -7289,7 +7307,7 @@
       <c r="C341" s="2"/>
       <c r="D341" s="27"/>
       <c r="E341" s="2"/>
-      <c r="F341" s="32"/>
+      <c r="F341" s="28"/>
       <c r="G341" s="2"/>
       <c r="H341" s="2"/>
       <c r="I341" s="2"/>
@@ -7304,7 +7322,7 @@
       <c r="C342" s="2"/>
       <c r="D342" s="27"/>
       <c r="E342" s="2"/>
-      <c r="F342" s="32"/>
+      <c r="F342" s="28"/>
       <c r="G342" s="2"/>
       <c r="H342" s="2"/>
       <c r="I342" s="2"/>
@@ -7319,7 +7337,7 @@
       <c r="C343" s="2"/>
       <c r="D343" s="27"/>
       <c r="E343" s="2"/>
-      <c r="F343" s="32"/>
+      <c r="F343" s="28"/>
       <c r="G343" s="2"/>
       <c r="H343" s="2"/>
       <c r="I343" s="2"/>
@@ -7334,7 +7352,7 @@
       <c r="C344" s="2"/>
       <c r="D344" s="27"/>
       <c r="E344" s="2"/>
-      <c r="F344" s="32"/>
+      <c r="F344" s="28"/>
       <c r="G344" s="2"/>
       <c r="H344" s="2"/>
       <c r="I344" s="2"/>
@@ -7349,7 +7367,7 @@
       <c r="C345" s="2"/>
       <c r="D345" s="27"/>
       <c r="E345" s="2"/>
-      <c r="F345" s="32"/>
+      <c r="F345" s="28"/>
       <c r="G345" s="2"/>
       <c r="H345" s="2"/>
       <c r="I345" s="2"/>
@@ -7364,7 +7382,7 @@
       <c r="C346" s="2"/>
       <c r="D346" s="27"/>
       <c r="E346" s="2"/>
-      <c r="F346" s="32"/>
+      <c r="F346" s="28"/>
       <c r="G346" s="2"/>
       <c r="H346" s="2"/>
       <c r="I346" s="2"/>
@@ -7379,7 +7397,7 @@
       <c r="C347" s="2"/>
       <c r="D347" s="27"/>
       <c r="E347" s="2"/>
-      <c r="F347" s="32"/>
+      <c r="F347" s="28"/>
       <c r="G347" s="2"/>
       <c r="H347" s="2"/>
       <c r="I347" s="2"/>
@@ -7394,7 +7412,7 @@
       <c r="C348" s="2"/>
       <c r="D348" s="27"/>
       <c r="E348" s="2"/>
-      <c r="F348" s="32"/>
+      <c r="F348" s="28"/>
       <c r="G348" s="2"/>
       <c r="H348" s="2"/>
       <c r="I348" s="2"/>
@@ -7409,7 +7427,7 @@
       <c r="C349" s="2"/>
       <c r="D349" s="27"/>
       <c r="E349" s="2"/>
-      <c r="F349" s="32"/>
+      <c r="F349" s="28"/>
       <c r="G349" s="2"/>
       <c r="H349" s="2"/>
       <c r="I349" s="2"/>
@@ -7424,7 +7442,7 @@
       <c r="C350" s="2"/>
       <c r="D350" s="27"/>
       <c r="E350" s="2"/>
-      <c r="F350" s="32"/>
+      <c r="F350" s="28"/>
       <c r="G350" s="2"/>
       <c r="H350" s="2"/>
       <c r="I350" s="2"/>
@@ -7439,7 +7457,7 @@
       <c r="C351" s="2"/>
       <c r="D351" s="27"/>
       <c r="E351" s="2"/>
-      <c r="F351" s="32"/>
+      <c r="F351" s="28"/>
       <c r="G351" s="2"/>
       <c r="H351" s="2"/>
       <c r="I351" s="2"/>
@@ -7454,7 +7472,7 @@
       <c r="C352" s="2"/>
       <c r="D352" s="27"/>
       <c r="E352" s="2"/>
-      <c r="F352" s="32"/>
+      <c r="F352" s="28"/>
       <c r="G352" s="2"/>
       <c r="H352" s="2"/>
       <c r="I352" s="2"/>
@@ -7469,7 +7487,7 @@
       <c r="C353" s="2"/>
       <c r="D353" s="27"/>
       <c r="E353" s="2"/>
-      <c r="F353" s="32"/>
+      <c r="F353" s="28"/>
       <c r="G353" s="2"/>
       <c r="H353" s="2"/>
       <c r="I353" s="2"/>
@@ -7484,7 +7502,7 @@
       <c r="C354" s="2"/>
       <c r="D354" s="27"/>
       <c r="E354" s="2"/>
-      <c r="F354" s="32"/>
+      <c r="F354" s="28"/>
       <c r="G354" s="2"/>
       <c r="H354" s="2"/>
       <c r="I354" s="2"/>
@@ -7499,7 +7517,7 @@
       <c r="C355" s="2"/>
       <c r="D355" s="27"/>
       <c r="E355" s="2"/>
-      <c r="F355" s="32"/>
+      <c r="F355" s="28"/>
       <c r="G355" s="2"/>
       <c r="H355" s="2"/>
       <c r="I355" s="2"/>
@@ -7514,7 +7532,7 @@
       <c r="C356" s="2"/>
       <c r="D356" s="27"/>
       <c r="E356" s="2"/>
-      <c r="F356" s="32"/>
+      <c r="F356" s="28"/>
       <c r="G356" s="2"/>
       <c r="H356" s="2"/>
       <c r="I356" s="2"/>
@@ -7529,7 +7547,7 @@
       <c r="C357" s="2"/>
       <c r="D357" s="27"/>
       <c r="E357" s="2"/>
-      <c r="F357" s="32"/>
+      <c r="F357" s="28"/>
       <c r="G357" s="2"/>
       <c r="H357" s="2"/>
       <c r="I357" s="2"/>
@@ -7544,7 +7562,7 @@
       <c r="C358" s="2"/>
       <c r="D358" s="27"/>
       <c r="E358" s="2"/>
-      <c r="F358" s="32"/>
+      <c r="F358" s="28"/>
       <c r="G358" s="2"/>
       <c r="H358" s="2"/>
       <c r="I358" s="2"/>
@@ -7559,7 +7577,7 @@
       <c r="C359" s="2"/>
       <c r="D359" s="27"/>
       <c r="E359" s="2"/>
-      <c r="F359" s="32"/>
+      <c r="F359" s="28"/>
       <c r="G359" s="2"/>
       <c r="H359" s="2"/>
       <c r="I359" s="2"/>
@@ -7574,7 +7592,7 @@
       <c r="C360" s="2"/>
       <c r="D360" s="27"/>
       <c r="E360" s="2"/>
-      <c r="F360" s="32"/>
+      <c r="F360" s="28"/>
       <c r="G360" s="2"/>
       <c r="H360" s="2"/>
       <c r="I360" s="2"/>
@@ -7589,7 +7607,7 @@
       <c r="C361" s="2"/>
       <c r="D361" s="27"/>
       <c r="E361" s="2"/>
-      <c r="F361" s="32"/>
+      <c r="F361" s="28"/>
       <c r="G361" s="2"/>
       <c r="H361" s="2"/>
       <c r="I361" s="2"/>
@@ -7604,7 +7622,7 @@
       <c r="C362" s="2"/>
       <c r="D362" s="27"/>
       <c r="E362" s="2"/>
-      <c r="F362" s="32"/>
+      <c r="F362" s="28"/>
       <c r="G362" s="2"/>
       <c r="H362" s="2"/>
       <c r="I362" s="2"/>
@@ -7619,7 +7637,7 @@
       <c r="C363" s="2"/>
       <c r="D363" s="27"/>
       <c r="E363" s="2"/>
-      <c r="F363" s="32"/>
+      <c r="F363" s="28"/>
       <c r="G363" s="2"/>
       <c r="H363" s="2"/>
       <c r="I363" s="2"/>
@@ -7634,7 +7652,7 @@
       <c r="C364" s="2"/>
       <c r="D364" s="27"/>
       <c r="E364" s="2"/>
-      <c r="F364" s="32"/>
+      <c r="F364" s="28"/>
       <c r="G364" s="2"/>
       <c r="H364" s="2"/>
       <c r="I364" s="2"/>
@@ -7649,7 +7667,7 @@
       <c r="C365" s="2"/>
       <c r="D365" s="27"/>
       <c r="E365" s="2"/>
-      <c r="F365" s="32"/>
+      <c r="F365" s="28"/>
       <c r="G365" s="2"/>
       <c r="H365" s="2"/>
       <c r="I365" s="2"/>
@@ -7664,7 +7682,7 @@
       <c r="C366" s="2"/>
       <c r="D366" s="27"/>
       <c r="E366" s="2"/>
-      <c r="F366" s="32"/>
+      <c r="F366" s="28"/>
       <c r="G366" s="2"/>
       <c r="H366" s="2"/>
       <c r="I366" s="2"/>
@@ -7679,7 +7697,7 @@
       <c r="C367" s="2"/>
       <c r="D367" s="27"/>
       <c r="E367" s="2"/>
-      <c r="F367" s="32"/>
+      <c r="F367" s="28"/>
       <c r="G367" s="2"/>
       <c r="H367" s="2"/>
       <c r="I367" s="2"/>
@@ -7694,7 +7712,7 @@
       <c r="C368" s="2"/>
       <c r="D368" s="27"/>
       <c r="E368" s="2"/>
-      <c r="F368" s="32"/>
+      <c r="F368" s="28"/>
       <c r="G368" s="2"/>
       <c r="H368" s="2"/>
       <c r="I368" s="2"/>
@@ -7709,7 +7727,7 @@
       <c r="C369" s="2"/>
       <c r="D369" s="27"/>
       <c r="E369" s="2"/>
-      <c r="F369" s="32"/>
+      <c r="F369" s="28"/>
       <c r="G369" s="2"/>
       <c r="H369" s="2"/>
       <c r="I369" s="2"/>
@@ -7724,7 +7742,7 @@
       <c r="C370" s="2"/>
       <c r="D370" s="27"/>
       <c r="E370" s="2"/>
-      <c r="F370" s="32"/>
+      <c r="F370" s="28"/>
       <c r="G370" s="2"/>
       <c r="H370" s="2"/>
       <c r="I370" s="2"/>
@@ -7739,7 +7757,7 @@
       <c r="C371" s="2"/>
       <c r="D371" s="27"/>
       <c r="E371" s="2"/>
-      <c r="F371" s="32"/>
+      <c r="F371" s="28"/>
       <c r="G371" s="2"/>
       <c r="H371" s="2"/>
       <c r="I371" s="2"/>
@@ -7754,7 +7772,7 @@
       <c r="C372" s="2"/>
       <c r="D372" s="27"/>
       <c r="E372" s="2"/>
-      <c r="F372" s="32"/>
+      <c r="F372" s="28"/>
       <c r="G372" s="2"/>
       <c r="H372" s="2"/>
       <c r="I372" s="2"/>
@@ -7769,7 +7787,7 @@
       <c r="C373" s="2"/>
       <c r="D373" s="27"/>
       <c r="E373" s="2"/>
-      <c r="F373" s="32"/>
+      <c r="F373" s="28"/>
       <c r="G373" s="2"/>
       <c r="H373" s="2"/>
       <c r="I373" s="2"/>
@@ -7784,7 +7802,7 @@
       <c r="C374" s="2"/>
       <c r="D374" s="27"/>
       <c r="E374" s="2"/>
-      <c r="F374" s="32"/>
+      <c r="F374" s="28"/>
       <c r="G374" s="2"/>
       <c r="H374" s="2"/>
       <c r="I374" s="2"/>
@@ -7799,7 +7817,7 @@
       <c r="C375" s="2"/>
       <c r="D375" s="27"/>
       <c r="E375" s="2"/>
-      <c r="F375" s="32"/>
+      <c r="F375" s="28"/>
       <c r="G375" s="2"/>
       <c r="H375" s="2"/>
       <c r="I375" s="2"/>
@@ -7814,7 +7832,7 @@
       <c r="C376" s="2"/>
       <c r="D376" s="27"/>
       <c r="E376" s="2"/>
-      <c r="F376" s="32"/>
+      <c r="F376" s="28"/>
       <c r="G376" s="2"/>
       <c r="H376" s="2"/>
       <c r="I376" s="2"/>
@@ -7829,7 +7847,7 @@
       <c r="C377" s="2"/>
       <c r="D377" s="27"/>
       <c r="E377" s="2"/>
-      <c r="F377" s="32"/>
+      <c r="F377" s="28"/>
       <c r="G377" s="2"/>
       <c r="H377" s="2"/>
       <c r="I377" s="2"/>
@@ -7844,7 +7862,7 @@
       <c r="C378" s="2"/>
       <c r="D378" s="27"/>
       <c r="E378" s="2"/>
-      <c r="F378" s="32"/>
+      <c r="F378" s="28"/>
       <c r="G378" s="2"/>
       <c r="H378" s="2"/>
       <c r="I378" s="2"/>
@@ -7859,7 +7877,7 @@
       <c r="C379" s="2"/>
       <c r="D379" s="27"/>
       <c r="E379" s="2"/>
-      <c r="F379" s="32"/>
+      <c r="F379" s="28"/>
       <c r="G379" s="2"/>
       <c r="H379" s="2"/>
       <c r="I379" s="2"/>
@@ -7874,7 +7892,7 @@
       <c r="C380" s="2"/>
       <c r="D380" s="27"/>
       <c r="E380" s="2"/>
-      <c r="F380" s="32"/>
+      <c r="F380" s="28"/>
       <c r="G380" s="2"/>
       <c r="H380" s="2"/>
       <c r="I380" s="2"/>
@@ -7889,7 +7907,7 @@
       <c r="C381" s="2"/>
       <c r="D381" s="27"/>
       <c r="E381" s="2"/>
-      <c r="F381" s="32"/>
+      <c r="F381" s="28"/>
       <c r="G381" s="2"/>
       <c r="H381" s="2"/>
       <c r="I381" s="2"/>
@@ -7904,7 +7922,7 @@
       <c r="C382" s="2"/>
       <c r="D382" s="27"/>
       <c r="E382" s="2"/>
-      <c r="F382" s="32"/>
+      <c r="F382" s="28"/>
       <c r="G382" s="2"/>
       <c r="H382" s="2"/>
       <c r="I382" s="2"/>
@@ -7919,7 +7937,7 @@
       <c r="C383" s="2"/>
       <c r="D383" s="27"/>
       <c r="E383" s="2"/>
-      <c r="F383" s="32"/>
+      <c r="F383" s="28"/>
       <c r="G383" s="2"/>
       <c r="H383" s="2"/>
       <c r="I383" s="2"/>
@@ -7934,7 +7952,7 @@
       <c r="C384" s="2"/>
       <c r="D384" s="27"/>
       <c r="E384" s="2"/>
-      <c r="F384" s="32"/>
+      <c r="F384" s="28"/>
       <c r="G384" s="2"/>
       <c r="H384" s="2"/>
       <c r="I384" s="2"/>
@@ -7949,7 +7967,7 @@
       <c r="C385" s="2"/>
       <c r="D385" s="27"/>
       <c r="E385" s="2"/>
-      <c r="F385" s="32"/>
+      <c r="F385" s="28"/>
       <c r="G385" s="2"/>
       <c r="H385" s="2"/>
       <c r="I385" s="2"/>
@@ -7964,7 +7982,7 @@
       <c r="C386" s="2"/>
       <c r="D386" s="27"/>
       <c r="E386" s="2"/>
-      <c r="F386" s="32"/>
+      <c r="F386" s="28"/>
       <c r="G386" s="2"/>
       <c r="H386" s="2"/>
       <c r="I386" s="2"/>
@@ -7979,7 +7997,7 @@
       <c r="C387" s="2"/>
       <c r="D387" s="27"/>
       <c r="E387" s="2"/>
-      <c r="F387" s="32"/>
+      <c r="F387" s="28"/>
       <c r="G387" s="2"/>
       <c r="H387" s="2"/>
       <c r="I387" s="2"/>
@@ -7994,7 +8012,7 @@
       <c r="C388" s="2"/>
       <c r="D388" s="27"/>
       <c r="E388" s="2"/>
-      <c r="F388" s="32"/>
+      <c r="F388" s="28"/>
       <c r="G388" s="2"/>
       <c r="H388" s="2"/>
       <c r="I388" s="2"/>
@@ -8009,7 +8027,7 @@
       <c r="C389" s="2"/>
       <c r="D389" s="27"/>
       <c r="E389" s="2"/>
-      <c r="F389" s="32"/>
+      <c r="F389" s="28"/>
       <c r="G389" s="2"/>
       <c r="H389" s="2"/>
       <c r="I389" s="2"/>
@@ -8024,7 +8042,7 @@
       <c r="C390" s="2"/>
       <c r="D390" s="27"/>
       <c r="E390" s="2"/>
-      <c r="F390" s="32"/>
+      <c r="F390" s="28"/>
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
       <c r="I390" s="2"/>
@@ -8039,7 +8057,7 @@
       <c r="C391" s="2"/>
       <c r="D391" s="27"/>
       <c r="E391" s="2"/>
-      <c r="F391" s="32"/>
+      <c r="F391" s="28"/>
       <c r="G391" s="2"/>
       <c r="H391" s="2"/>
       <c r="I391" s="2"/>
@@ -8054,7 +8072,7 @@
       <c r="C392" s="2"/>
       <c r="D392" s="27"/>
       <c r="E392" s="2"/>
-      <c r="F392" s="32"/>
+      <c r="F392" s="28"/>
       <c r="G392" s="2"/>
       <c r="H392" s="2"/>
       <c r="I392" s="2"/>
@@ -8069,7 +8087,7 @@
       <c r="C393" s="2"/>
       <c r="D393" s="27"/>
       <c r="E393" s="2"/>
-      <c r="F393" s="32"/>
+      <c r="F393" s="28"/>
       <c r="G393" s="2"/>
       <c r="H393" s="2"/>
       <c r="I393" s="2"/>
@@ -8084,7 +8102,7 @@
       <c r="C394" s="2"/>
       <c r="D394" s="27"/>
       <c r="E394" s="2"/>
-      <c r="F394" s="32"/>
+      <c r="F394" s="28"/>
       <c r="G394" s="2"/>
       <c r="H394" s="2"/>
       <c r="I394" s="2"/>
@@ -8099,7 +8117,7 @@
       <c r="C395" s="2"/>
       <c r="D395" s="27"/>
       <c r="E395" s="2"/>
-      <c r="F395" s="32"/>
+      <c r="F395" s="28"/>
       <c r="G395" s="2"/>
       <c r="H395" s="2"/>
       <c r="I395" s="2"/>
@@ -8114,7 +8132,7 @@
       <c r="C396" s="2"/>
       <c r="D396" s="27"/>
       <c r="E396" s="2"/>
-      <c r="F396" s="32"/>
+      <c r="F396" s="28"/>
       <c r="G396" s="2"/>
       <c r="H396" s="2"/>
       <c r="I396" s="2"/>
@@ -8129,7 +8147,7 @@
       <c r="C397" s="2"/>
       <c r="D397" s="27"/>
       <c r="E397" s="2"/>
-      <c r="F397" s="32"/>
+      <c r="F397" s="28"/>
       <c r="G397" s="2"/>
       <c r="H397" s="2"/>
       <c r="I397" s="2"/>
@@ -8144,7 +8162,7 @@
       <c r="C398" s="2"/>
       <c r="D398" s="27"/>
       <c r="E398" s="2"/>
-      <c r="F398" s="32"/>
+      <c r="F398" s="28"/>
       <c r="G398" s="2"/>
       <c r="H398" s="2"/>
       <c r="I398" s="2"/>
@@ -8159,7 +8177,7 @@
       <c r="C399" s="2"/>
       <c r="D399" s="27"/>
       <c r="E399" s="2"/>
-      <c r="F399" s="32"/>
+      <c r="F399" s="28"/>
       <c r="G399" s="2"/>
       <c r="H399" s="2"/>
       <c r="I399" s="2"/>
@@ -8174,7 +8192,7 @@
       <c r="C400" s="2"/>
       <c r="D400" s="27"/>
       <c r="E400" s="2"/>
-      <c r="F400" s="32"/>
+      <c r="F400" s="28"/>
       <c r="G400" s="2"/>
       <c r="H400" s="2"/>
       <c r="I400" s="2"/>
@@ -8189,7 +8207,7 @@
       <c r="C401" s="2"/>
       <c r="D401" s="27"/>
       <c r="E401" s="2"/>
-      <c r="F401" s="32"/>
+      <c r="F401" s="28"/>
       <c r="G401" s="2"/>
       <c r="H401" s="2"/>
       <c r="I401" s="2"/>
@@ -8204,7 +8222,7 @@
       <c r="C402" s="2"/>
       <c r="D402" s="27"/>
       <c r="E402" s="2"/>
-      <c r="F402" s="32"/>
+      <c r="F402" s="28"/>
       <c r="G402" s="2"/>
       <c r="H402" s="2"/>
       <c r="I402" s="2"/>
@@ -8219,7 +8237,7 @@
       <c r="C403" s="2"/>
       <c r="D403" s="27"/>
       <c r="E403" s="2"/>
-      <c r="F403" s="32"/>
+      <c r="F403" s="28"/>
       <c r="G403" s="2"/>
       <c r="H403" s="2"/>
       <c r="I403" s="2"/>
@@ -8234,7 +8252,7 @@
       <c r="C404" s="2"/>
       <c r="D404" s="27"/>
       <c r="E404" s="2"/>
-      <c r="F404" s="32"/>
+      <c r="F404" s="28"/>
       <c r="G404" s="2"/>
       <c r="H404" s="2"/>
       <c r="I404" s="2"/>
@@ -8249,7 +8267,7 @@
       <c r="C405" s="2"/>
       <c r="D405" s="27"/>
       <c r="E405" s="2"/>
-      <c r="F405" s="32"/>
+      <c r="F405" s="28"/>
       <c r="G405" s="2"/>
       <c r="H405" s="2"/>
       <c r="I405" s="2"/>
@@ -8264,7 +8282,7 @@
       <c r="C406" s="2"/>
       <c r="D406" s="27"/>
       <c r="E406" s="2"/>
-      <c r="F406" s="32"/>
+      <c r="F406" s="28"/>
       <c r="G406" s="2"/>
       <c r="H406" s="2"/>
       <c r="I406" s="2"/>
@@ -8279,7 +8297,7 @@
       <c r="C407" s="2"/>
       <c r="D407" s="27"/>
       <c r="E407" s="2"/>
-      <c r="F407" s="32"/>
+      <c r="F407" s="28"/>
       <c r="G407" s="2"/>
       <c r="H407" s="2"/>
       <c r="I407" s="2"/>
@@ -8294,7 +8312,7 @@
       <c r="C408" s="2"/>
       <c r="D408" s="27"/>
       <c r="E408" s="2"/>
-      <c r="F408" s="32"/>
+      <c r="F408" s="28"/>
       <c r="G408" s="2"/>
       <c r="H408" s="2"/>
       <c r="I408" s="2"/>
@@ -8309,7 +8327,7 @@
       <c r="C409" s="2"/>
       <c r="D409" s="27"/>
       <c r="E409" s="2"/>
-      <c r="F409" s="32"/>
+      <c r="F409" s="28"/>
       <c r="G409" s="2"/>
       <c r="H409" s="2"/>
       <c r="I409" s="2"/>
@@ -8324,7 +8342,7 @@
       <c r="C410" s="2"/>
       <c r="D410" s="27"/>
       <c r="E410" s="2"/>
-      <c r="F410" s="32"/>
+      <c r="F410" s="28"/>
       <c r="G410" s="2"/>
       <c r="H410" s="2"/>
       <c r="I410" s="2"/>
@@ -8339,7 +8357,7 @@
       <c r="C411" s="2"/>
       <c r="D411" s="27"/>
       <c r="E411" s="2"/>
-      <c r="F411" s="32"/>
+      <c r="F411" s="28"/>
       <c r="G411" s="2"/>
       <c r="H411" s="2"/>
       <c r="I411" s="2"/>
@@ -8354,7 +8372,7 @@
       <c r="C412" s="2"/>
       <c r="D412" s="27"/>
       <c r="E412" s="2"/>
-      <c r="F412" s="32"/>
+      <c r="F412" s="28"/>
       <c r="G412" s="2"/>
       <c r="H412" s="2"/>
       <c r="I412" s="2"/>
@@ -8369,7 +8387,7 @@
       <c r="C413" s="2"/>
       <c r="D413" s="27"/>
       <c r="E413" s="2"/>
-      <c r="F413" s="32"/>
+      <c r="F413" s="28"/>
       <c r="G413" s="2"/>
       <c r="H413" s="2"/>
       <c r="I413" s="2"/>
@@ -8384,7 +8402,7 @@
       <c r="C414" s="2"/>
       <c r="D414" s="27"/>
       <c r="E414" s="2"/>
-      <c r="F414" s="32"/>
+      <c r="F414" s="28"/>
       <c r="G414" s="2"/>
       <c r="H414" s="2"/>
       <c r="I414" s="2"/>
@@ -8399,7 +8417,7 @@
       <c r="C415" s="2"/>
       <c r="D415" s="27"/>
       <c r="E415" s="2"/>
-      <c r="F415" s="32"/>
+      <c r="F415" s="28"/>
       <c r="G415" s="2"/>
       <c r="H415" s="2"/>
       <c r="I415" s="2"/>
@@ -8414,7 +8432,7 @@
       <c r="C416" s="2"/>
       <c r="D416" s="27"/>
       <c r="E416" s="2"/>
-      <c r="F416" s="32"/>
+      <c r="F416" s="28"/>
       <c r="G416" s="2"/>
       <c r="H416" s="2"/>
       <c r="I416" s="2"/>
@@ -8429,7 +8447,7 @@
       <c r="C417" s="2"/>
       <c r="D417" s="27"/>
       <c r="E417" s="2"/>
-      <c r="F417" s="32"/>
+      <c r="F417" s="28"/>
       <c r="G417" s="2"/>
       <c r="H417" s="2"/>
       <c r="I417" s="2"/>
@@ -8444,7 +8462,7 @@
       <c r="C418" s="2"/>
       <c r="D418" s="27"/>
       <c r="E418" s="2"/>
-      <c r="F418" s="32"/>
+      <c r="F418" s="28"/>
       <c r="G418" s="2"/>
       <c r="H418" s="2"/>
       <c r="I418" s="2"/>
@@ -8459,7 +8477,7 @@
       <c r="C419" s="2"/>
       <c r="D419" s="27"/>
       <c r="E419" s="2"/>
-      <c r="F419" s="32"/>
+      <c r="F419" s="28"/>
       <c r="G419" s="2"/>
       <c r="H419" s="2"/>
       <c r="I419" s="2"/>
@@ -8474,7 +8492,7 @@
       <c r="C420" s="2"/>
       <c r="D420" s="27"/>
       <c r="E420" s="2"/>
-      <c r="F420" s="32"/>
+      <c r="F420" s="28"/>
       <c r="G420" s="2"/>
       <c r="H420" s="2"/>
       <c r="I420" s="2"/>
@@ -8489,7 +8507,7 @@
       <c r="C421" s="2"/>
       <c r="D421" s="27"/>
       <c r="E421" s="2"/>
-      <c r="F421" s="32"/>
+      <c r="F421" s="28"/>
       <c r="G421" s="2"/>
       <c r="H421" s="2"/>
       <c r="I421" s="2"/>
@@ -8504,7 +8522,7 @@
       <c r="C422" s="2"/>
       <c r="D422" s="27"/>
       <c r="E422" s="2"/>
-      <c r="F422" s="32"/>
+      <c r="F422" s="28"/>
       <c r="G422" s="2"/>
       <c r="H422" s="2"/>
       <c r="I422" s="2"/>
@@ -8519,7 +8537,7 @@
       <c r="C423" s="2"/>
       <c r="D423" s="27"/>
       <c r="E423" s="2"/>
-      <c r="F423" s="32"/>
+      <c r="F423" s="28"/>
       <c r="G423" s="2"/>
       <c r="H423" s="2"/>
       <c r="I423" s="2"/>
@@ -8534,7 +8552,7 @@
       <c r="C424" s="2"/>
       <c r="D424" s="27"/>
       <c r="E424" s="2"/>
-      <c r="F424" s="32"/>
+      <c r="F424" s="28"/>
       <c r="G424" s="2"/>
       <c r="H424" s="2"/>
       <c r="I424" s="2"/>
@@ -8549,7 +8567,7 @@
       <c r="C425" s="2"/>
       <c r="D425" s="27"/>
       <c r="E425" s="2"/>
-      <c r="F425" s="32"/>
+      <c r="F425" s="28"/>
       <c r="G425" s="2"/>
       <c r="H425" s="2"/>
       <c r="I425" s="2"/>
@@ -8564,7 +8582,7 @@
       <c r="C426" s="2"/>
       <c r="D426" s="27"/>
       <c r="E426" s="2"/>
-      <c r="F426" s="32"/>
+      <c r="F426" s="28"/>
       <c r="G426" s="2"/>
       <c r="H426" s="2"/>
       <c r="I426" s="2"/>
@@ -8579,7 +8597,7 @@
       <c r="C427" s="2"/>
       <c r="D427" s="27"/>
       <c r="E427" s="2"/>
-      <c r="F427" s="32"/>
+      <c r="F427" s="28"/>
       <c r="G427" s="2"/>
       <c r="H427" s="2"/>
       <c r="I427" s="2"/>
@@ -8594,7 +8612,7 @@
       <c r="C428" s="2"/>
       <c r="D428" s="27"/>
       <c r="E428" s="2"/>
-      <c r="F428" s="32"/>
+      <c r="F428" s="28"/>
       <c r="G428" s="2"/>
       <c r="H428" s="2"/>
       <c r="I428" s="2"/>
@@ -8609,7 +8627,7 @@
       <c r="C429" s="2"/>
       <c r="D429" s="27"/>
       <c r="E429" s="2"/>
-      <c r="F429" s="32"/>
+      <c r="F429" s="28"/>
       <c r="G429" s="2"/>
       <c r="H429" s="2"/>
       <c r="I429" s="2"/>
@@ -8624,7 +8642,7 @@
       <c r="C430" s="2"/>
       <c r="D430" s="27"/>
       <c r="E430" s="2"/>
-      <c r="F430" s="32"/>
+      <c r="F430" s="28"/>
       <c r="G430" s="2"/>
       <c r="H430" s="2"/>
       <c r="I430" s="2"/>
@@ -8639,7 +8657,7 @@
       <c r="C431" s="2"/>
       <c r="D431" s="27"/>
       <c r="E431" s="2"/>
-      <c r="F431" s="32"/>
+      <c r="F431" s="28"/>
       <c r="G431" s="2"/>
       <c r="H431" s="2"/>
       <c r="I431" s="2"/>
@@ -8654,7 +8672,7 @@
       <c r="C432" s="2"/>
       <c r="D432" s="27"/>
       <c r="E432" s="2"/>
-      <c r="F432" s="32"/>
+      <c r="F432" s="28"/>
       <c r="G432" s="2"/>
       <c r="H432" s="2"/>
       <c r="I432" s="2"/>
@@ -8669,7 +8687,7 @@
       <c r="C433" s="2"/>
       <c r="D433" s="27"/>
       <c r="E433" s="2"/>
-      <c r="F433" s="32"/>
+      <c r="F433" s="28"/>
       <c r="G433" s="2"/>
       <c r="H433" s="2"/>
       <c r="I433" s="2"/>
@@ -8684,7 +8702,7 @@
       <c r="C434" s="2"/>
       <c r="D434" s="27"/>
       <c r="E434" s="2"/>
-      <c r="F434" s="32"/>
+      <c r="F434" s="28"/>
       <c r="G434" s="2"/>
       <c r="H434" s="2"/>
       <c r="I434" s="2"/>
@@ -8699,7 +8717,7 @@
       <c r="C435" s="2"/>
       <c r="D435" s="27"/>
       <c r="E435" s="2"/>
-      <c r="F435" s="32"/>
+      <c r="F435" s="28"/>
       <c r="G435" s="2"/>
       <c r="H435" s="2"/>
       <c r="I435" s="2"/>
@@ -8714,7 +8732,7 @@
       <c r="C436" s="2"/>
       <c r="D436" s="27"/>
       <c r="E436" s="2"/>
-      <c r="F436" s="32"/>
+      <c r="F436" s="28"/>
       <c r="G436" s="2"/>
       <c r="H436" s="2"/>
       <c r="I436" s="2"/>
@@ -8729,7 +8747,7 @@
       <c r="C437" s="2"/>
       <c r="D437" s="27"/>
       <c r="E437" s="2"/>
-      <c r="F437" s="32"/>
+      <c r="F437" s="28"/>
       <c r="G437" s="2"/>
       <c r="H437" s="2"/>
       <c r="I437" s="2"/>
@@ -8744,7 +8762,7 @@
       <c r="C438" s="2"/>
       <c r="D438" s="27"/>
       <c r="E438" s="2"/>
-      <c r="F438" s="32"/>
+      <c r="F438" s="28"/>
       <c r="G438" s="2"/>
       <c r="H438" s="2"/>
       <c r="I438" s="2"/>
@@ -8759,7 +8777,7 @@
       <c r="C439" s="2"/>
       <c r="D439" s="27"/>
       <c r="E439" s="2"/>
-      <c r="F439" s="32"/>
+      <c r="F439" s="28"/>
       <c r="G439" s="2"/>
       <c r="H439" s="2"/>
       <c r="I439" s="2"/>
@@ -8774,7 +8792,7 @@
       <c r="C440" s="2"/>
       <c r="D440" s="27"/>
       <c r="E440" s="2"/>
-      <c r="F440" s="32"/>
+      <c r="F440" s="28"/>
       <c r="G440" s="2"/>
       <c r="H440" s="2"/>
       <c r="I440" s="2"/>
@@ -8789,7 +8807,7 @@
       <c r="C441" s="2"/>
       <c r="D441" s="27"/>
       <c r="E441" s="2"/>
-      <c r="F441" s="32"/>
+      <c r="F441" s="28"/>
       <c r="G441" s="2"/>
       <c r="H441" s="2"/>
       <c r="I441" s="2"/>
@@ -8804,7 +8822,7 @@
       <c r="C442" s="2"/>
       <c r="D442" s="27"/>
       <c r="E442" s="2"/>
-      <c r="F442" s="32"/>
+      <c r="F442" s="28"/>
       <c r="G442" s="2"/>
       <c r="H442" s="2"/>
       <c r="I442" s="2"/>
@@ -8819,7 +8837,7 @@
       <c r="C443" s="2"/>
       <c r="D443" s="27"/>
       <c r="E443" s="2"/>
-      <c r="F443" s="32"/>
+      <c r="F443" s="28"/>
       <c r="G443" s="2"/>
       <c r="H443" s="2"/>
       <c r="I443" s="2"/>
@@ -8834,7 +8852,7 @@
       <c r="C444" s="2"/>
       <c r="D444" s="27"/>
       <c r="E444" s="2"/>
-      <c r="F444" s="32"/>
+      <c r="F444" s="28"/>
       <c r="G444" s="2"/>
       <c r="H444" s="2"/>
       <c r="I444" s="2"/>
@@ -8849,7 +8867,7 @@
       <c r="C445" s="2"/>
       <c r="D445" s="27"/>
       <c r="E445" s="2"/>
-      <c r="F445" s="32"/>
+      <c r="F445" s="28"/>
       <c r="G445" s="2"/>
       <c r="H445" s="2"/>
       <c r="I445" s="2"/>
@@ -8864,7 +8882,7 @@
       <c r="C446" s="2"/>
       <c r="D446" s="27"/>
       <c r="E446" s="2"/>
-      <c r="F446" s="32"/>
+      <c r="F446" s="28"/>
       <c r="G446" s="2"/>
       <c r="H446" s="2"/>
       <c r="I446" s="2"/>
@@ -8879,7 +8897,7 @@
       <c r="C447" s="2"/>
       <c r="D447" s="27"/>
       <c r="E447" s="2"/>
-      <c r="F447" s="32"/>
+      <c r="F447" s="28"/>
       <c r="G447" s="2"/>
       <c r="H447" s="2"/>
       <c r="I447" s="2"/>
@@ -8894,7 +8912,7 @@
       <c r="C448" s="2"/>
       <c r="D448" s="27"/>
       <c r="E448" s="2"/>
-      <c r="F448" s="32"/>
+      <c r="F448" s="28"/>
       <c r="G448" s="2"/>
       <c r="H448" s="2"/>
       <c r="I448" s="2"/>
@@ -8909,7 +8927,7 @@
       <c r="C449" s="2"/>
       <c r="D449" s="27"/>
       <c r="E449" s="2"/>
-      <c r="F449" s="32"/>
+      <c r="F449" s="28"/>
       <c r="G449" s="2"/>
       <c r="H449" s="2"/>
       <c r="I449" s="2"/>
@@ -8924,7 +8942,7 @@
       <c r="C450" s="2"/>
       <c r="D450" s="27"/>
       <c r="E450" s="2"/>
-      <c r="F450" s="32"/>
+      <c r="F450" s="28"/>
       <c r="G450" s="2"/>
       <c r="H450" s="2"/>
       <c r="I450" s="2"/>
@@ -8939,7 +8957,7 @@
       <c r="C451" s="2"/>
       <c r="D451" s="27"/>
       <c r="E451" s="2"/>
-      <c r="F451" s="32"/>
+      <c r="F451" s="28"/>
       <c r="G451" s="2"/>
       <c r="H451" s="2"/>
       <c r="I451" s="2"/>
@@ -8954,7 +8972,7 @@
       <c r="C452" s="2"/>
       <c r="D452" s="27"/>
       <c r="E452" s="2"/>
-      <c r="F452" s="32"/>
+      <c r="F452" s="28"/>
       <c r="G452" s="2"/>
       <c r="H452" s="2"/>
       <c r="I452" s="2"/>
@@ -8969,7 +8987,7 @@
       <c r="C453" s="2"/>
       <c r="D453" s="27"/>
       <c r="E453" s="2"/>
-      <c r="F453" s="32"/>
+      <c r="F453" s="28"/>
       <c r="G453" s="2"/>
       <c r="H453" s="2"/>
       <c r="I453" s="2"/>
@@ -8984,7 +9002,7 @@
       <c r="C454" s="2"/>
       <c r="D454" s="27"/>
       <c r="E454" s="2"/>
-      <c r="F454" s="32"/>
+      <c r="F454" s="28"/>
       <c r="G454" s="2"/>
       <c r="H454" s="2"/>
       <c r="I454" s="2"/>
@@ -8999,7 +9017,7 @@
       <c r="C455" s="2"/>
       <c r="D455" s="27"/>
       <c r="E455" s="2"/>
-      <c r="F455" s="32"/>
+      <c r="F455" s="28"/>
       <c r="G455" s="2"/>
       <c r="H455" s="2"/>
       <c r="I455" s="2"/>
@@ -9014,7 +9032,7 @@
       <c r="C456" s="2"/>
       <c r="D456" s="27"/>
       <c r="E456" s="2"/>
-      <c r="F456" s="32"/>
+      <c r="F456" s="28"/>
       <c r="G456" s="2"/>
       <c r="H456" s="2"/>
       <c r="I456" s="2"/>
@@ -9029,7 +9047,7 @@
       <c r="C457" s="2"/>
       <c r="D457" s="27"/>
       <c r="E457" s="2"/>
-      <c r="F457" s="32"/>
+      <c r="F457" s="28"/>
       <c r="G457" s="2"/>
       <c r="H457" s="2"/>
       <c r="I457" s="2"/>
@@ -9044,7 +9062,7 @@
       <c r="C458" s="2"/>
       <c r="D458" s="27"/>
       <c r="E458" s="2"/>
-      <c r="F458" s="32"/>
+      <c r="F458" s="28"/>
       <c r="G458" s="2"/>
       <c r="H458" s="2"/>
       <c r="I458" s="2"/>
@@ -9059,7 +9077,7 @@
       <c r="C459" s="2"/>
       <c r="D459" s="27"/>
       <c r="E459" s="2"/>
-      <c r="F459" s="32"/>
+      <c r="F459" s="28"/>
       <c r="G459" s="2"/>
       <c r="H459" s="2"/>
       <c r="I459" s="2"/>
@@ -9074,7 +9092,7 @@
       <c r="C460" s="2"/>
       <c r="D460" s="27"/>
       <c r="E460" s="2"/>
-      <c r="F460" s="32"/>
+      <c r="F460" s="28"/>
       <c r="G460" s="2"/>
       <c r="H460" s="2"/>
       <c r="I460" s="2"/>
@@ -9089,7 +9107,7 @@
       <c r="C461" s="2"/>
       <c r="D461" s="27"/>
       <c r="E461" s="2"/>
-      <c r="F461" s="32"/>
+      <c r="F461" s="28"/>
       <c r="G461" s="2"/>
       <c r="H461" s="2"/>
       <c r="I461" s="2"/>
@@ -9104,7 +9122,7 @@
       <c r="C462" s="2"/>
       <c r="D462" s="27"/>
       <c r="E462" s="2"/>
-      <c r="F462" s="32"/>
+      <c r="F462" s="28"/>
       <c r="G462" s="2"/>
       <c r="H462" s="2"/>
       <c r="I462" s="2"/>
@@ -9119,7 +9137,7 @@
       <c r="C463" s="2"/>
       <c r="D463" s="27"/>
       <c r="E463" s="2"/>
-      <c r="F463" s="32"/>
+      <c r="F463" s="28"/>
       <c r="G463" s="2"/>
       <c r="H463" s="2"/>
       <c r="I463" s="2"/>
@@ -9134,7 +9152,7 @@
       <c r="C464" s="2"/>
       <c r="D464" s="27"/>
       <c r="E464" s="2"/>
-      <c r="F464" s="32"/>
+      <c r="F464" s="28"/>
       <c r="G464" s="2"/>
       <c r="H464" s="2"/>
       <c r="I464" s="2"/>
@@ -9149,7 +9167,7 @@
       <c r="C465" s="2"/>
       <c r="D465" s="27"/>
       <c r="E465" s="2"/>
-      <c r="F465" s="32"/>
+      <c r="F465" s="28"/>
       <c r="G465" s="2"/>
       <c r="H465" s="2"/>
       <c r="I465" s="2"/>
@@ -9164,7 +9182,7 @@
       <c r="C466" s="2"/>
       <c r="D466" s="27"/>
       <c r="E466" s="2"/>
-      <c r="F466" s="32"/>
+      <c r="F466" s="28"/>
       <c r="G466" s="2"/>
       <c r="H466" s="2"/>
       <c r="I466" s="2"/>
@@ -9179,7 +9197,7 @@
       <c r="C467" s="2"/>
       <c r="D467" s="27"/>
       <c r="E467" s="2"/>
-      <c r="F467" s="32"/>
+      <c r="F467" s="28"/>
       <c r="G467" s="2"/>
       <c r="H467" s="2"/>
       <c r="I467" s="2"/>
@@ -9194,7 +9212,7 @@
       <c r="C468" s="2"/>
       <c r="D468" s="27"/>
       <c r="E468" s="2"/>
-      <c r="F468" s="32"/>
+      <c r="F468" s="28"/>
       <c r="G468" s="2"/>
       <c r="H468" s="2"/>
       <c r="I468" s="2"/>
@@ -9209,7 +9227,7 @@
       <c r="C469" s="2"/>
       <c r="D469" s="27"/>
       <c r="E469" s="2"/>
-      <c r="F469" s="32"/>
+      <c r="F469" s="28"/>
       <c r="G469" s="2"/>
       <c r="H469" s="2"/>
       <c r="I469" s="2"/>
@@ -9224,7 +9242,7 @@
       <c r="C470" s="2"/>
       <c r="D470" s="27"/>
       <c r="E470" s="2"/>
-      <c r="F470" s="32"/>
+      <c r="F470" s="28"/>
       <c r="G470" s="2"/>
       <c r="H470" s="2"/>
       <c r="I470" s="2"/>
@@ -9239,7 +9257,7 @@
       <c r="C471" s="2"/>
       <c r="D471" s="27"/>
       <c r="E471" s="2"/>
-      <c r="F471" s="32"/>
+      <c r="F471" s="28"/>
       <c r="G471" s="2"/>
       <c r="H471" s="2"/>
       <c r="I471" s="2"/>
@@ -9254,7 +9272,7 @@
       <c r="C472" s="2"/>
       <c r="D472" s="27"/>
       <c r="E472" s="2"/>
-      <c r="F472" s="32"/>
+      <c r="F472" s="28"/>
       <c r="G472" s="2"/>
       <c r="H472" s="2"/>
       <c r="I472" s="2"/>
@@ -9269,7 +9287,7 @@
       <c r="C473" s="2"/>
       <c r="D473" s="27"/>
       <c r="E473" s="2"/>
-      <c r="F473" s="32"/>
+      <c r="F473" s="28"/>
       <c r="G473" s="2"/>
       <c r="H473" s="2"/>
       <c r="I473" s="2"/>
@@ -9284,7 +9302,7 @@
       <c r="C474" s="2"/>
       <c r="D474" s="27"/>
       <c r="E474" s="2"/>
-      <c r="F474" s="32"/>
+      <c r="F474" s="28"/>
       <c r="G474" s="2"/>
       <c r="H474" s="2"/>
       <c r="I474" s="2"/>
@@ -9299,7 +9317,7 @@
       <c r="C475" s="2"/>
       <c r="D475" s="27"/>
       <c r="E475" s="2"/>
-      <c r="F475" s="32"/>
+      <c r="F475" s="28"/>
       <c r="G475" s="2"/>
       <c r="H475" s="2"/>
       <c r="I475" s="2"/>
@@ -9314,7 +9332,7 @@
       <c r="C476" s="2"/>
       <c r="D476" s="27"/>
       <c r="E476" s="2"/>
-      <c r="F476" s="32"/>
+      <c r="F476" s="28"/>
       <c r="G476" s="2"/>
       <c r="H476" s="2"/>
       <c r="I476" s="2"/>
@@ -9329,7 +9347,7 @@
       <c r="C477" s="2"/>
       <c r="D477" s="27"/>
       <c r="E477" s="2"/>
-      <c r="F477" s="32"/>
+      <c r="F477" s="28"/>
       <c r="G477" s="2"/>
       <c r="H477" s="2"/>
       <c r="I477" s="2"/>
@@ -9344,7 +9362,7 @@
       <c r="C478" s="2"/>
       <c r="D478" s="27"/>
       <c r="E478" s="2"/>
-      <c r="F478" s="32"/>
+      <c r="F478" s="28"/>
       <c r="G478" s="2"/>
       <c r="H478" s="2"/>
       <c r="I478" s="2"/>
@@ -9359,7 +9377,7 @@
       <c r="C479" s="2"/>
       <c r="D479" s="27"/>
       <c r="E479" s="2"/>
-      <c r="F479" s="32"/>
+      <c r="F479" s="28"/>
       <c r="G479" s="2"/>
       <c r="H479" s="2"/>
       <c r="I479" s="2"/>
@@ -9374,7 +9392,7 @@
       <c r="C480" s="2"/>
       <c r="D480" s="27"/>
       <c r="E480" s="2"/>
-      <c r="F480" s="32"/>
+      <c r="F480" s="28"/>
       <c r="G480" s="2"/>
       <c r="H480" s="2"/>
       <c r="I480" s="2"/>
@@ -9389,7 +9407,7 @@
       <c r="C481" s="2"/>
       <c r="D481" s="27"/>
       <c r="E481" s="2"/>
-      <c r="F481" s="32"/>
+      <c r="F481" s="28"/>
       <c r="G481" s="2"/>
       <c r="H481" s="2"/>
       <c r="I481" s="2"/>
@@ -9404,7 +9422,7 @@
       <c r="C482" s="2"/>
       <c r="D482" s="27"/>
       <c r="E482" s="2"/>
-      <c r="F482" s="32"/>
+      <c r="F482" s="28"/>
       <c r="G482" s="2"/>
       <c r="H482" s="2"/>
       <c r="I482" s="2"/>
@@ -9419,7 +9437,7 @@
       <c r="C483" s="2"/>
       <c r="D483" s="27"/>
       <c r="E483" s="2"/>
-      <c r="F483" s="32"/>
+      <c r="F483" s="28"/>
       <c r="G483" s="2"/>
       <c r="H483" s="2"/>
       <c r="I483" s="2"/>
@@ -9434,7 +9452,7 @@
       <c r="C484" s="2"/>
       <c r="D484" s="27"/>
       <c r="E484" s="2"/>
-      <c r="F484" s="32"/>
+      <c r="F484" s="28"/>
       <c r="G484" s="2"/>
       <c r="H484" s="2"/>
       <c r="I484" s="2"/>
@@ -9449,7 +9467,7 @@
       <c r="C485" s="2"/>
       <c r="D485" s="27"/>
       <c r="E485" s="2"/>
-      <c r="F485" s="32"/>
+      <c r="F485" s="28"/>
       <c r="G485" s="2"/>
       <c r="H485" s="2"/>
       <c r="I485" s="2"/>
@@ -9464,7 +9482,7 @@
       <c r="C486" s="2"/>
       <c r="D486" s="27"/>
       <c r="E486" s="2"/>
-      <c r="F486" s="32"/>
+      <c r="F486" s="28"/>
       <c r="G486" s="2"/>
       <c r="H486" s="2"/>
       <c r="I486" s="2"/>
@@ -9479,7 +9497,7 @@
       <c r="C487" s="2"/>
       <c r="D487" s="27"/>
       <c r="E487" s="2"/>
-      <c r="F487" s="32"/>
+      <c r="F487" s="28"/>
       <c r="G487" s="2"/>
       <c r="H487" s="2"/>
       <c r="I487" s="2"/>
@@ -9494,7 +9512,7 @@
       <c r="C488" s="2"/>
       <c r="D488" s="27"/>
       <c r="E488" s="2"/>
-      <c r="F488" s="32"/>
+      <c r="F488" s="28"/>
       <c r="G488" s="2"/>
       <c r="H488" s="2"/>
       <c r="I488" s="2"/>
@@ -9509,7 +9527,7 @@
       <c r="C489" s="2"/>
       <c r="D489" s="27"/>
       <c r="E489" s="2"/>
-      <c r="F489" s="32"/>
+      <c r="F489" s="28"/>
       <c r="G489" s="2"/>
       <c r="H489" s="2"/>
       <c r="I489" s="2"/>
@@ -9524,7 +9542,7 @@
       <c r="C490" s="2"/>
       <c r="D490" s="27"/>
       <c r="E490" s="2"/>
-      <c r="F490" s="32"/>
+      <c r="F490" s="28"/>
       <c r="G490" s="2"/>
       <c r="H490" s="2"/>
       <c r="I490" s="2"/>
@@ -9539,7 +9557,7 @@
       <c r="C491" s="2"/>
       <c r="D491" s="27"/>
       <c r="E491" s="2"/>
-      <c r="F491" s="32"/>
+      <c r="F491" s="28"/>
       <c r="G491" s="2"/>
       <c r="H491" s="2"/>
       <c r="I491" s="2"/>
@@ -9554,7 +9572,7 @@
       <c r="C492" s="2"/>
       <c r="D492" s="27"/>
       <c r="E492" s="2"/>
-      <c r="F492" s="32"/>
+      <c r="F492" s="28"/>
       <c r="G492" s="2"/>
       <c r="H492" s="2"/>
       <c r="I492" s="2"/>
@@ -9569,7 +9587,7 @@
       <c r="C493" s="2"/>
       <c r="D493" s="27"/>
       <c r="E493" s="2"/>
-      <c r="F493" s="32"/>
+      <c r="F493" s="28"/>
       <c r="G493" s="2"/>
       <c r="H493" s="2"/>
       <c r="I493" s="2"/>
@@ -9584,7 +9602,7 @@
       <c r="C494" s="2"/>
       <c r="D494" s="27"/>
       <c r="E494" s="2"/>
-      <c r="F494" s="32"/>
+      <c r="F494" s="28"/>
       <c r="G494" s="2"/>
       <c r="H494" s="2"/>
       <c r="I494" s="2"/>
@@ -9599,7 +9617,7 @@
       <c r="C495" s="2"/>
       <c r="D495" s="27"/>
       <c r="E495" s="2"/>
-      <c r="F495" s="32"/>
+      <c r="F495" s="28"/>
       <c r="G495" s="2"/>
       <c r="H495" s="2"/>
       <c r="I495" s="2"/>
@@ -9614,7 +9632,7 @@
       <c r="C496" s="2"/>
       <c r="D496" s="27"/>
       <c r="E496" s="2"/>
-      <c r="F496" s="32"/>
+      <c r="F496" s="28"/>
       <c r="G496" s="2"/>
       <c r="H496" s="2"/>
       <c r="I496" s="2"/>
@@ -9629,7 +9647,7 @@
       <c r="C497" s="2"/>
       <c r="D497" s="27"/>
       <c r="E497" s="2"/>
-      <c r="F497" s="32"/>
+      <c r="F497" s="28"/>
       <c r="G497" s="2"/>
       <c r="H497" s="2"/>
       <c r="I497" s="2"/>
@@ -9644,7 +9662,7 @@
       <c r="C498" s="2"/>
       <c r="D498" s="27"/>
       <c r="E498" s="2"/>
-      <c r="F498" s="32"/>
+      <c r="F498" s="28"/>
       <c r="G498" s="2"/>
       <c r="H498" s="2"/>
       <c r="I498" s="2"/>
@@ -9659,7 +9677,7 @@
       <c r="C499" s="2"/>
       <c r="D499" s="27"/>
       <c r="E499" s="2"/>
-      <c r="F499" s="32"/>
+      <c r="F499" s="28"/>
       <c r="G499" s="2"/>
       <c r="H499" s="2"/>
       <c r="I499" s="2"/>
@@ -9674,7 +9692,7 @@
       <c r="C500" s="2"/>
       <c r="D500" s="27"/>
       <c r="E500" s="2"/>
-      <c r="F500" s="32"/>
+      <c r="F500" s="28"/>
       <c r="G500" s="2"/>
       <c r="H500" s="2"/>
       <c r="I500" s="2"/>
@@ -9689,7 +9707,7 @@
       <c r="C501" s="2"/>
       <c r="D501" s="27"/>
       <c r="E501" s="2"/>
-      <c r="F501" s="32"/>
+      <c r="F501" s="28"/>
       <c r="G501" s="2"/>
       <c r="H501" s="2"/>
       <c r="I501" s="2"/>
@@ -9704,7 +9722,7 @@
       <c r="C502" s="2"/>
       <c r="D502" s="27"/>
       <c r="E502" s="2"/>
-      <c r="F502" s="32"/>
+      <c r="F502" s="28"/>
       <c r="G502" s="2"/>
       <c r="H502" s="2"/>
       <c r="I502" s="2"/>
@@ -9719,7 +9737,7 @@
       <c r="C503" s="2"/>
       <c r="D503" s="27"/>
       <c r="E503" s="2"/>
-      <c r="F503" s="32"/>
+      <c r="F503" s="28"/>
       <c r="G503" s="2"/>
       <c r="H503" s="2"/>
       <c r="I503" s="2"/>
@@ -9734,7 +9752,7 @@
       <c r="C504" s="2"/>
       <c r="D504" s="27"/>
       <c r="E504" s="2"/>
-      <c r="F504" s="32"/>
+      <c r="F504" s="28"/>
       <c r="G504" s="2"/>
       <c r="H504" s="2"/>
       <c r="I504" s="2"/>
@@ -9749,7 +9767,7 @@
       <c r="C505" s="2"/>
       <c r="D505" s="27"/>
       <c r="E505" s="2"/>
-      <c r="F505" s="32"/>
+      <c r="F505" s="28"/>
       <c r="G505" s="2"/>
       <c r="H505" s="2"/>
       <c r="I505" s="2"/>
@@ -9764,7 +9782,7 @@
       <c r="C506" s="2"/>
       <c r="D506" s="27"/>
       <c r="E506" s="2"/>
-      <c r="F506" s="32"/>
+      <c r="F506" s="28"/>
       <c r="G506" s="2"/>
       <c r="H506" s="2"/>
       <c r="I506" s="2"/>
@@ -9779,7 +9797,7 @@
       <c r="C507" s="2"/>
       <c r="D507" s="27"/>
       <c r="E507" s="2"/>
-      <c r="F507" s="32"/>
+      <c r="F507" s="28"/>
       <c r="G507" s="2"/>
       <c r="H507" s="2"/>
       <c r="I507" s="2"/>
@@ -9794,7 +9812,7 @@
       <c r="C508" s="2"/>
       <c r="D508" s="27"/>
       <c r="E508" s="2"/>
-      <c r="F508" s="32"/>
+      <c r="F508" s="28"/>
       <c r="G508" s="2"/>
       <c r="H508" s="2"/>
       <c r="I508" s="2"/>
@@ -9809,7 +9827,7 @@
       <c r="C509" s="2"/>
       <c r="D509" s="27"/>
       <c r="E509" s="2"/>
-      <c r="F509" s="32"/>
+      <c r="F509" s="28"/>
       <c r="G509" s="2"/>
       <c r="H509" s="2"/>
       <c r="I509" s="2"/>
@@ -9824,7 +9842,7 @@
       <c r="C510" s="2"/>
       <c r="D510" s="27"/>
       <c r="E510" s="2"/>
-      <c r="F510" s="32"/>
+      <c r="F510" s="28"/>
       <c r="G510" s="2"/>
       <c r="H510" s="2"/>
       <c r="I510" s="2"/>
@@ -9839,7 +9857,7 @@
       <c r="C511" s="2"/>
       <c r="D511" s="27"/>
       <c r="E511" s="2"/>
-      <c r="F511" s="32"/>
+      <c r="F511" s="28"/>
       <c r="G511" s="2"/>
       <c r="H511" s="2"/>
       <c r="I511" s="2"/>
@@ -9854,7 +9872,7 @@
       <c r="C512" s="2"/>
       <c r="D512" s="27"/>
       <c r="E512" s="2"/>
-      <c r="F512" s="32"/>
+      <c r="F512" s="28"/>
       <c r="G512" s="2"/>
       <c r="H512" s="2"/>
       <c r="I512" s="2"/>
@@ -9869,7 +9887,7 @@
       <c r="C513" s="2"/>
       <c r="D513" s="27"/>
       <c r="E513" s="2"/>
-      <c r="F513" s="32"/>
+      <c r="F513" s="28"/>
       <c r="G513" s="2"/>
       <c r="H513" s="2"/>
       <c r="I513" s="2"/>
@@ -9884,7 +9902,7 @@
       <c r="C514" s="2"/>
       <c r="D514" s="27"/>
       <c r="E514" s="2"/>
-      <c r="F514" s="32"/>
+      <c r="F514" s="28"/>
       <c r="G514" s="2"/>
       <c r="H514" s="2"/>
       <c r="I514" s="2"/>
@@ -9899,7 +9917,7 @@
       <c r="C515" s="2"/>
       <c r="D515" s="27"/>
       <c r="E515" s="2"/>
-      <c r="F515" s="32"/>
+      <c r="F515" s="28"/>
       <c r="G515" s="2"/>
       <c r="H515" s="2"/>
       <c r="I515" s="2"/>
@@ -9914,7 +9932,7 @@
       <c r="C516" s="2"/>
       <c r="D516" s="27"/>
       <c r="E516" s="2"/>
-      <c r="F516" s="32"/>
+      <c r="F516" s="28"/>
       <c r="G516" s="2"/>
       <c r="H516" s="2"/>
       <c r="I516" s="2"/>
@@ -9929,7 +9947,7 @@
       <c r="C517" s="2"/>
       <c r="D517" s="27"/>
       <c r="E517" s="2"/>
-      <c r="F517" s="32"/>
+      <c r="F517" s="28"/>
       <c r="G517" s="2"/>
       <c r="H517" s="2"/>
       <c r="I517" s="2"/>
@@ -9944,7 +9962,7 @@
       <c r="C518" s="2"/>
       <c r="D518" s="27"/>
       <c r="E518" s="2"/>
-      <c r="F518" s="32"/>
+      <c r="F518" s="28"/>
       <c r="G518" s="2"/>
       <c r="H518" s="2"/>
       <c r="I518" s="2"/>
@@ -9959,7 +9977,7 @@
       <c r="C519" s="2"/>
       <c r="D519" s="27"/>
       <c r="E519" s="2"/>
-      <c r="F519" s="32"/>
+      <c r="F519" s="28"/>
       <c r="G519" s="2"/>
       <c r="H519" s="2"/>
       <c r="I519" s="2"/>
@@ -9974,7 +9992,7 @@
       <c r="C520" s="2"/>
       <c r="D520" s="27"/>
       <c r="E520" s="2"/>
-      <c r="F520" s="32"/>
+      <c r="F520" s="28"/>
       <c r="G520" s="2"/>
       <c r="H520" s="2"/>
       <c r="I520" s="2"/>
@@ -9989,7 +10007,7 @@
       <c r="C521" s="2"/>
       <c r="D521" s="27"/>
       <c r="E521" s="2"/>
-      <c r="F521" s="32"/>
+      <c r="F521" s="28"/>
       <c r="G521" s="2"/>
       <c r="H521" s="2"/>
       <c r="I521" s="2"/>
@@ -10004,7 +10022,7 @@
       <c r="C522" s="2"/>
       <c r="D522" s="27"/>
       <c r="E522" s="2"/>
-      <c r="F522" s="32"/>
+      <c r="F522" s="28"/>
       <c r="G522" s="2"/>
       <c r="H522" s="2"/>
       <c r="I522" s="2"/>
@@ -10019,7 +10037,7 @@
       <c r="C523" s="2"/>
       <c r="D523" s="27"/>
       <c r="E523" s="2"/>
-      <c r="F523" s="32"/>
+      <c r="F523" s="28"/>
       <c r="G523" s="2"/>
       <c r="H523" s="2"/>
       <c r="I523" s="2"/>
@@ -10034,7 +10052,7 @@
       <c r="C524" s="2"/>
       <c r="D524" s="27"/>
       <c r="E524" s="2"/>
-      <c r="F524" s="32"/>
+      <c r="F524" s="28"/>
       <c r="G524" s="2"/>
       <c r="H524" s="2"/>
       <c r="I524" s="2"/>
@@ -10049,7 +10067,7 @@
       <c r="C525" s="2"/>
       <c r="D525" s="27"/>
       <c r="E525" s="2"/>
-      <c r="F525" s="32"/>
+      <c r="F525" s="28"/>
       <c r="G525" s="2"/>
       <c r="H525" s="2"/>
       <c r="I525" s="2"/>
@@ -10064,7 +10082,7 @@
       <c r="C526" s="2"/>
       <c r="D526" s="27"/>
       <c r="E526" s="2"/>
-      <c r="F526" s="32"/>
+      <c r="F526" s="28"/>
       <c r="G526" s="2"/>
       <c r="H526" s="2"/>
       <c r="I526" s="2"/>
@@ -10079,7 +10097,7 @@
       <c r="C527" s="2"/>
       <c r="D527" s="27"/>
       <c r="E527" s="2"/>
-      <c r="F527" s="32"/>
+      <c r="F527" s="28"/>
       <c r="G527" s="2"/>
       <c r="H527" s="2"/>
       <c r="I527" s="2"/>
@@ -10094,7 +10112,7 @@
       <c r="C528" s="2"/>
       <c r="D528" s="27"/>
       <c r="E528" s="2"/>
-      <c r="F528" s="32"/>
+      <c r="F528" s="28"/>
       <c r="G528" s="2"/>
       <c r="H528" s="2"/>
       <c r="I528" s="2"/>
@@ -10109,7 +10127,7 @@
       <c r="C529" s="2"/>
       <c r="D529" s="27"/>
       <c r="E529" s="2"/>
-      <c r="F529" s="32"/>
+      <c r="F529" s="28"/>
       <c r="G529" s="2"/>
       <c r="H529" s="2"/>
       <c r="I529" s="2"/>
@@ -10124,7 +10142,7 @@
       <c r="C530" s="2"/>
       <c r="D530" s="27"/>
       <c r="E530" s="2"/>
-      <c r="F530" s="32"/>
+      <c r="F530" s="28"/>
       <c r="G530" s="2"/>
       <c r="H530" s="2"/>
       <c r="I530" s="2"/>
@@ -10139,7 +10157,7 @@
       <c r="C531" s="2"/>
       <c r="D531" s="27"/>
       <c r="E531" s="2"/>
-      <c r="F531" s="32"/>
+      <c r="F531" s="28"/>
       <c r="G531" s="2"/>
       <c r="H531" s="2"/>
       <c r="I531" s="2"/>
@@ -10154,7 +10172,7 @@
       <c r="C532" s="2"/>
       <c r="D532" s="27"/>
       <c r="E532" s="2"/>
-      <c r="F532" s="32"/>
+      <c r="F532" s="28"/>
       <c r="G532" s="2"/>
       <c r="H532" s="2"/>
       <c r="I532" s="2"/>
@@ -10169,7 +10187,7 @@
       <c r="C533" s="2"/>
       <c r="D533" s="27"/>
       <c r="E533" s="2"/>
-      <c r="F533" s="32"/>
+      <c r="F533" s="28"/>
       <c r="G533" s="2"/>
       <c r="H533" s="2"/>
       <c r="I533" s="2"/>
@@ -10184,7 +10202,7 @@
       <c r="C534" s="2"/>
       <c r="D534" s="27"/>
       <c r="E534" s="2"/>
-      <c r="F534" s="32"/>
+      <c r="F534" s="28"/>
       <c r="G534" s="2"/>
       <c r="H534" s="2"/>
       <c r="I534" s="2"/>
@@ -10199,7 +10217,7 @@
       <c r="C535" s="2"/>
       <c r="D535" s="27"/>
       <c r="E535" s="2"/>
-      <c r="F535" s="32"/>
+      <c r="F535" s="28"/>
       <c r="G535" s="2"/>
       <c r="H535" s="2"/>
       <c r="I535" s="2"/>
@@ -10214,7 +10232,7 @@
       <c r="C536" s="2"/>
       <c r="D536" s="27"/>
       <c r="E536" s="2"/>
-      <c r="F536" s="32"/>
+      <c r="F536" s="28"/>
       <c r="G536" s="2"/>
       <c r="H536" s="2"/>
       <c r="I536" s="2"/>
@@ -10229,7 +10247,7 @@
       <c r="C537" s="2"/>
       <c r="D537" s="27"/>
       <c r="E537" s="2"/>
-      <c r="F537" s="32"/>
+      <c r="F537" s="28"/>
       <c r="G537" s="2"/>
       <c r="H537" s="2"/>
       <c r="I537" s="2"/>
@@ -10244,7 +10262,7 @@
       <c r="C538" s="2"/>
       <c r="D538" s="27"/>
       <c r="E538" s="2"/>
-      <c r="F538" s="32"/>
+      <c r="F538" s="28"/>
       <c r="G538" s="2"/>
       <c r="H538" s="2"/>
       <c r="I538" s="2"/>
@@ -10259,7 +10277,7 @@
       <c r="C539" s="2"/>
       <c r="D539" s="27"/>
       <c r="E539" s="2"/>
-      <c r="F539" s="32"/>
+      <c r="F539" s="28"/>
       <c r="G539" s="2"/>
       <c r="H539" s="2"/>
       <c r="I539" s="2"/>
@@ -10274,7 +10292,7 @@
       <c r="C540" s="2"/>
       <c r="D540" s="27"/>
       <c r="E540" s="2"/>
-      <c r="F540" s="32"/>
+      <c r="F540" s="28"/>
       <c r="G540" s="2"/>
       <c r="H540" s="2"/>
       <c r="I540" s="2"/>
@@ -10289,7 +10307,7 @@
       <c r="C541" s="2"/>
       <c r="D541" s="27"/>
       <c r="E541" s="2"/>
-      <c r="F541" s="32"/>
+      <c r="F541" s="28"/>
       <c r="G541" s="2"/>
       <c r="H541" s="2"/>
       <c r="I541" s="2"/>
@@ -10304,7 +10322,7 @@
       <c r="C542" s="2"/>
       <c r="D542" s="27"/>
       <c r="E542" s="2"/>
-      <c r="F542" s="32"/>
+      <c r="F542" s="28"/>
       <c r="G542" s="2"/>
       <c r="H542" s="2"/>
       <c r="I542" s="2"/>
@@ -10319,7 +10337,7 @@
       <c r="C543" s="2"/>
       <c r="D543" s="27"/>
       <c r="E543" s="2"/>
-      <c r="F543" s="32"/>
+      <c r="F543" s="28"/>
       <c r="G543" s="2"/>
       <c r="H543" s="2"/>
       <c r="I543" s="2"/>
@@ -10334,7 +10352,7 @@
       <c r="C544" s="2"/>
       <c r="D544" s="27"/>
       <c r="E544" s="2"/>
-      <c r="F544" s="32"/>
+      <c r="F544" s="28"/>
       <c r="G544" s="2"/>
       <c r="H544" s="2"/>
       <c r="I544" s="2"/>
@@ -10349,7 +10367,7 @@
       <c r="C545" s="2"/>
       <c r="D545" s="27"/>
       <c r="E545" s="2"/>
-      <c r="F545" s="32"/>
+      <c r="F545" s="28"/>
       <c r="G545" s="2"/>
       <c r="H545" s="2"/>
       <c r="I545" s="2"/>
@@ -10364,7 +10382,7 @@
       <c r="C546" s="2"/>
       <c r="D546" s="27"/>
       <c r="E546" s="2"/>
-      <c r="F546" s="32"/>
+      <c r="F546" s="28"/>
       <c r="G546" s="2"/>
       <c r="H546" s="2"/>
       <c r="I546" s="2"/>
@@ -10379,7 +10397,7 @@
       <c r="C547" s="2"/>
       <c r="D547" s="27"/>
       <c r="E547" s="2"/>
-      <c r="F547" s="32"/>
+      <c r="F547" s="28"/>
       <c r="G547" s="2"/>
       <c r="H547" s="2"/>
       <c r="I547" s="2"/>
@@ -10394,7 +10412,7 @@
       <c r="C548" s="2"/>
       <c r="D548" s="27"/>
       <c r="E548" s="2"/>
-      <c r="F548" s="32"/>
+      <c r="F548" s="28"/>
       <c r="G548" s="2"/>
       <c r="H548" s="2"/>
       <c r="I548" s="2"/>
@@ -10409,7 +10427,7 @@
       <c r="C549" s="2"/>
       <c r="D549" s="27"/>
       <c r="E549" s="2"/>
-      <c r="F549" s="32"/>
+      <c r="F549" s="28"/>
       <c r="G549" s="2"/>
       <c r="H549" s="2"/>
       <c r="I549" s="2"/>
@@ -10424,7 +10442,7 @@
       <c r="C550" s="2"/>
       <c r="D550" s="27"/>
       <c r="E550" s="2"/>
-      <c r="F550" s="32"/>
+      <c r="F550" s="28"/>
       <c r="G550" s="2"/>
       <c r="H550" s="2"/>
       <c r="I550" s="2"/>
@@ -10439,7 +10457,7 @@
       <c r="C551" s="2"/>
       <c r="D551" s="27"/>
       <c r="E551" s="2"/>
-      <c r="F551" s="32"/>
+      <c r="F551" s="28"/>
       <c r="G551" s="2"/>
       <c r="H551" s="2"/>
       <c r="I551" s="2"/>
@@ -10454,7 +10472,7 @@
       <c r="C552" s="2"/>
       <c r="D552" s="27"/>
       <c r="E552" s="2"/>
-      <c r="F552" s="32"/>
+      <c r="F552" s="28"/>
       <c r="G552" s="2"/>
       <c r="H552" s="2"/>
       <c r="I552" s="2"/>
@@ -10469,7 +10487,7 @@
       <c r="C553" s="2"/>
       <c r="D553" s="27"/>
       <c r="E553" s="2"/>
-      <c r="F553" s="32"/>
+      <c r="F553" s="28"/>
       <c r="G553" s="2"/>
       <c r="H553" s="2"/>
       <c r="I553" s="2"/>
@@ -10484,7 +10502,7 @@
       <c r="C554" s="2"/>
       <c r="D554" s="27"/>
       <c r="E554" s="2"/>
-      <c r="F554" s="32"/>
+      <c r="F554" s="28"/>
       <c r="G554" s="2"/>
       <c r="H554" s="2"/>
       <c r="I554" s="2"/>
@@ -10499,7 +10517,7 @@
       <c r="C555" s="2"/>
       <c r="D555" s="27"/>
       <c r="E555" s="2"/>
-      <c r="F555" s="32"/>
+      <c r="F555" s="28"/>
       <c r="G555" s="2"/>
       <c r="H555" s="2"/>
       <c r="I555" s="2"/>
@@ -10514,7 +10532,7 @@
       <c r="C556" s="2"/>
       <c r="D556" s="27"/>
       <c r="E556" s="2"/>
-      <c r="F556" s="32"/>
+      <c r="F556" s="28"/>
       <c r="G556" s="2"/>
       <c r="H556" s="2"/>
       <c r="I556" s="2"/>
@@ -10529,7 +10547,7 @@
       <c r="C557" s="2"/>
       <c r="D557" s="27"/>
       <c r="E557" s="2"/>
-      <c r="F557" s="32"/>
+      <c r="F557" s="28"/>
       <c r="G557" s="2"/>
       <c r="H557" s="2"/>
       <c r="I557" s="2"/>
@@ -10544,7 +10562,7 @@
       <c r="C558" s="2"/>
       <c r="D558" s="27"/>
       <c r="E558" s="2"/>
-      <c r="F558" s="32"/>
+      <c r="F558" s="28"/>
       <c r="G558" s="2"/>
       <c r="H558" s="2"/>
       <c r="I558" s="2"/>
@@ -10559,7 +10577,7 @@
       <c r="C559" s="2"/>
       <c r="D559" s="27"/>
       <c r="E559" s="2"/>
-      <c r="F559" s="32"/>
+      <c r="F559" s="28"/>
       <c r="G559" s="2"/>
       <c r="H559" s="2"/>
       <c r="I559" s="2"/>
@@ -10574,7 +10592,7 @@
       <c r="C560" s="2"/>
       <c r="D560" s="27"/>
       <c r="E560" s="2"/>
-      <c r="F560" s="32"/>
+      <c r="F560" s="28"/>
       <c r="G560" s="2"/>
       <c r="H560" s="2"/>
       <c r="I560" s="2"/>
@@ -10589,7 +10607,7 @@
       <c r="C561" s="2"/>
       <c r="D561" s="27"/>
       <c r="E561" s="2"/>
-      <c r="F561" s="32"/>
+      <c r="F561" s="28"/>
       <c r="G561" s="2"/>
       <c r="H561" s="2"/>
       <c r="I561" s="2"/>
@@ -10604,7 +10622,7 @@
       <c r="C562" s="2"/>
       <c r="D562" s="27"/>
       <c r="E562" s="2"/>
-      <c r="F562" s="32"/>
+      <c r="F562" s="28"/>
       <c r="G562" s="2"/>
       <c r="H562" s="2"/>
       <c r="I562" s="2"/>
@@ -10619,7 +10637,7 @@
       <c r="C563" s="2"/>
       <c r="D563" s="27"/>
       <c r="E563" s="2"/>
-      <c r="F563" s="32"/>
+      <c r="F563" s="28"/>
       <c r="G563" s="2"/>
       <c r="H563" s="2"/>
       <c r="I563" s="2"/>
@@ -10634,7 +10652,7 @@
       <c r="C564" s="2"/>
       <c r="D564" s="27"/>
       <c r="E564" s="2"/>
-      <c r="F564" s="32"/>
+      <c r="F564" s="28"/>
       <c r="G564" s="2"/>
       <c r="H564" s="2"/>
       <c r="I564" s="2"/>
@@ -10649,7 +10667,7 @@
       <c r="C565" s="2"/>
       <c r="D565" s="27"/>
       <c r="E565" s="2"/>
-      <c r="F565" s="32"/>
+      <c r="F565" s="28"/>
       <c r="G565" s="2"/>
       <c r="H565" s="2"/>
       <c r="I565" s="2"/>
@@ -10664,7 +10682,7 @@
       <c r="C566" s="2"/>
       <c r="D566" s="27"/>
       <c r="E566" s="2"/>
-      <c r="F566" s="32"/>
+      <c r="F566" s="28"/>
       <c r="G566" s="2"/>
       <c r="H566" s="2"/>
       <c r="I566" s="2"/>
@@ -10679,7 +10697,7 @@
       <c r="C567" s="2"/>
       <c r="D567" s="27"/>
       <c r="E567" s="2"/>
-      <c r="F567" s="32"/>
+      <c r="F567" s="28"/>
       <c r="G567" s="2"/>
       <c r="H567" s="2"/>
       <c r="I567" s="2"/>
@@ -10694,7 +10712,7 @@
       <c r="C568" s="2"/>
       <c r="D568" s="27"/>
       <c r="E568" s="2"/>
-      <c r="F568" s="32"/>
+      <c r="F568" s="28"/>
       <c r="G568" s="2"/>
       <c r="H568" s="2"/>
       <c r="I568" s="2"/>
@@ -10709,7 +10727,7 @@
       <c r="C569" s="2"/>
       <c r="D569" s="27"/>
       <c r="E569" s="2"/>
-      <c r="F569" s="32"/>
+      <c r="F569" s="28"/>
       <c r="G569" s="2"/>
       <c r="H569" s="2"/>
       <c r="I569" s="2"/>
@@ -10724,7 +10742,7 @@
       <c r="C570" s="2"/>
       <c r="D570" s="27"/>
       <c r="E570" s="2"/>
-      <c r="F570" s="32"/>
+      <c r="F570" s="28"/>
       <c r="G570" s="2"/>
       <c r="H570" s="2"/>
       <c r="I570" s="2"/>
@@ -10739,7 +10757,7 @@
       <c r="C571" s="2"/>
       <c r="D571" s="27"/>
       <c r="E571" s="2"/>
-      <c r="F571" s="32"/>
+      <c r="F571" s="28"/>
       <c r="G571" s="2"/>
       <c r="H571" s="2"/>
       <c r="I571" s="2"/>
@@ -10754,7 +10772,7 @@
       <c r="C572" s="2"/>
       <c r="D572" s="27"/>
       <c r="E572" s="2"/>
-      <c r="F572" s="32"/>
+      <c r="F572" s="28"/>
       <c r="G572" s="2"/>
       <c r="H572" s="2"/>
       <c r="I572" s="2"/>
@@ -10769,7 +10787,7 @@
       <c r="C573" s="2"/>
       <c r="D573" s="27"/>
       <c r="E573" s="2"/>
-      <c r="F573" s="32"/>
+      <c r="F573" s="28"/>
       <c r="G573" s="2"/>
       <c r="H573" s="2"/>
       <c r="I573" s="2"/>
@@ -10784,7 +10802,7 @@
       <c r="C574" s="2"/>
       <c r="D574" s="27"/>
       <c r="E574" s="2"/>
-      <c r="F574" s="32"/>
+      <c r="F574" s="28"/>
       <c r="G574" s="2"/>
       <c r="H574" s="2"/>
       <c r="I574" s="2"/>
@@ -10799,7 +10817,7 @@
       <c r="C575" s="2"/>
       <c r="D575" s="27"/>
       <c r="E575" s="2"/>
-      <c r="F575" s="32"/>
+      <c r="F575" s="28"/>
       <c r="G575" s="2"/>
       <c r="H575" s="2"/>
       <c r="I575" s="2"/>
@@ -10814,7 +10832,7 @@
       <c r="C576" s="2"/>
       <c r="D576" s="27"/>
       <c r="E576" s="2"/>
-      <c r="F576" s="32"/>
+      <c r="F576" s="28"/>
       <c r="G576" s="2"/>
       <c r="H576" s="2"/>
       <c r="I576" s="2"/>
@@ -10829,7 +10847,7 @@
       <c r="C577" s="2"/>
       <c r="D577" s="27"/>
       <c r="E577" s="2"/>
-      <c r="F577" s="32"/>
+      <c r="F577" s="28"/>
       <c r="G577" s="2"/>
       <c r="H577" s="2"/>
       <c r="I577" s="2"/>
@@ -10844,7 +10862,7 @@
       <c r="C578" s="2"/>
       <c r="D578" s="27"/>
       <c r="E578" s="2"/>
-      <c r="F578" s="32"/>
+      <c r="F578" s="28"/>
       <c r="G578" s="2"/>
       <c r="H578" s="2"/>
       <c r="I578" s="2"/>
@@ -10859,7 +10877,7 @@
       <c r="C579" s="2"/>
       <c r="D579" s="27"/>
       <c r="E579" s="2"/>
-      <c r="F579" s="32"/>
+      <c r="F579" s="28"/>
       <c r="G579" s="2"/>
       <c r="H579" s="2"/>
       <c r="I579" s="2"/>
@@ -10874,7 +10892,7 @@
       <c r="C580" s="2"/>
       <c r="D580" s="27"/>
       <c r="E580" s="2"/>
-      <c r="F580" s="32"/>
+      <c r="F580" s="28"/>
       <c r="G580" s="2"/>
       <c r="H580" s="2"/>
       <c r="I580" s="2"/>
@@ -10889,7 +10907,7 @@
       <c r="C581" s="2"/>
       <c r="D581" s="27"/>
       <c r="E581" s="2"/>
-      <c r="F581" s="32"/>
+      <c r="F581" s="28"/>
       <c r="G581" s="2"/>
       <c r="H581" s="2"/>
       <c r="I581" s="2"/>
@@ -10904,7 +10922,7 @@
       <c r="C582" s="2"/>
       <c r="D582" s="27"/>
       <c r="E582" s="2"/>
-      <c r="F582" s="32"/>
+      <c r="F582" s="28"/>
       <c r="G582" s="2"/>
       <c r="H582" s="2"/>
       <c r="I582" s="2"/>
@@ -10919,7 +10937,7 @@
       <c r="C583" s="2"/>
       <c r="D583" s="27"/>
       <c r="E583" s="2"/>
-      <c r="F583" s="32"/>
+      <c r="F583" s="28"/>
       <c r="G583" s="2"/>
       <c r="H583" s="2"/>
       <c r="I583" s="2"/>
@@ -10934,7 +10952,7 @@
       <c r="C584" s="2"/>
       <c r="D584" s="27"/>
       <c r="E584" s="2"/>
-      <c r="F584" s="32"/>
+      <c r="F584" s="28"/>
       <c r="G584" s="2"/>
       <c r="H584" s="2"/>
       <c r="I584" s="2"/>
@@ -10949,7 +10967,7 @@
       <c r="C585" s="2"/>
       <c r="D585" s="27"/>
       <c r="E585" s="2"/>
-      <c r="F585" s="32"/>
+      <c r="F585" s="28"/>
       <c r="G585" s="2"/>
       <c r="H585" s="2"/>
       <c r="I585" s="2"/>
@@ -10964,7 +10982,7 @@
       <c r="C586" s="2"/>
       <c r="D586" s="27"/>
       <c r="E586" s="2"/>
-      <c r="F586" s="32"/>
+      <c r="F586" s="28"/>
       <c r="G586" s="2"/>
       <c r="H586" s="2"/>
       <c r="I586" s="2"/>
@@ -10979,7 +10997,7 @@
       <c r="C587" s="2"/>
       <c r="D587" s="27"/>
       <c r="E587" s="2"/>
-      <c r="F587" s="32"/>
+      <c r="F587" s="28"/>
       <c r="G587" s="2"/>
       <c r="H587" s="2"/>
       <c r="I587" s="2"/>
@@ -10994,7 +11012,7 @@
       <c r="C588" s="2"/>
       <c r="D588" s="27"/>
       <c r="E588" s="2"/>
-      <c r="F588" s="32"/>
+      <c r="F588" s="28"/>
       <c r="G588" s="2"/>
       <c r="H588" s="2"/>
       <c r="I588" s="2"/>
@@ -11009,7 +11027,7 @@
       <c r="C589" s="2"/>
       <c r="D589" s="27"/>
       <c r="E589" s="2"/>
-      <c r="F589" s="32"/>
+      <c r="F589" s="28"/>
       <c r="G589" s="2"/>
       <c r="H589" s="2"/>
       <c r="I589" s="2"/>
@@ -11024,7 +11042,7 @@
       <c r="C590" s="2"/>
       <c r="D590" s="27"/>
       <c r="E590" s="2"/>
-      <c r="F590" s="32"/>
+      <c r="F590" s="28"/>
       <c r="G590" s="2"/>
       <c r="H590" s="2"/>
       <c r="I590" s="2"/>
@@ -11039,7 +11057,7 @@
       <c r="C591" s="2"/>
       <c r="D591" s="27"/>
       <c r="E591" s="2"/>
-      <c r="F591" s="32"/>
+      <c r="F591" s="28"/>
       <c r="G591" s="2"/>
       <c r="H591" s="2"/>
       <c r="I591" s="2"/>
@@ -11054,7 +11072,7 @@
       <c r="C592" s="2"/>
       <c r="D592" s="27"/>
       <c r="E592" s="2"/>
-      <c r="F592" s="32"/>
+      <c r="F592" s="28"/>
       <c r="G592" s="2"/>
       <c r="H592" s="2"/>
       <c r="I592" s="2"/>
@@ -11069,7 +11087,7 @@
       <c r="C593" s="2"/>
       <c r="D593" s="27"/>
       <c r="E593" s="2"/>
-      <c r="F593" s="32"/>
+      <c r="F593" s="28"/>
       <c r="G593" s="2"/>
       <c r="H593" s="2"/>
       <c r="I593" s="2"/>
@@ -11084,7 +11102,7 @@
       <c r="C594" s="2"/>
       <c r="D594" s="27"/>
       <c r="E594" s="2"/>
-      <c r="F594" s="32"/>
+      <c r="F594" s="28"/>
       <c r="G594" s="2"/>
       <c r="H594" s="2"/>
       <c r="I594" s="2"/>
@@ -11099,7 +11117,7 @@
       <c r="C595" s="2"/>
       <c r="D595" s="27"/>
       <c r="E595" s="2"/>
-      <c r="F595" s="32"/>
+      <c r="F595" s="28"/>
       <c r="G595" s="2"/>
       <c r="H595" s="2"/>
       <c r="I595" s="2"/>
@@ -11114,7 +11132,7 @@
       <c r="C596" s="2"/>
       <c r="D596" s="27"/>
       <c r="E596" s="2"/>
-      <c r="F596" s="32"/>
+      <c r="F596" s="28"/>
       <c r="G596" s="2"/>
       <c r="H596" s="2"/>
       <c r="I596" s="2"/>
@@ -11129,7 +11147,7 @@
       <c r="C597" s="2"/>
       <c r="D597" s="27"/>
       <c r="E597" s="2"/>
-      <c r="F597" s="32"/>
+      <c r="F597" s="28"/>
       <c r="G597" s="2"/>
       <c r="H597" s="2"/>
       <c r="I597" s="2"/>
@@ -11144,7 +11162,7 @@
       <c r="C598" s="2"/>
       <c r="D598" s="27"/>
       <c r="E598" s="2"/>
-      <c r="F598" s="32"/>
+      <c r="F598" s="28"/>
       <c r="G598" s="2"/>
       <c r="H598" s="2"/>
       <c r="I598" s="2"/>
@@ -11159,7 +11177,7 @@
       <c r="C599" s="2"/>
       <c r="D599" s="27"/>
       <c r="E599" s="2"/>
-      <c r="F599" s="32"/>
+      <c r="F599" s="28"/>
       <c r="G599" s="2"/>
       <c r="H599" s="2"/>
       <c r="I599" s="2"/>
@@ -11174,7 +11192,7 @@
       <c r="C600" s="2"/>
       <c r="D600" s="27"/>
       <c r="E600" s="2"/>
-      <c r="F600" s="32"/>
+      <c r="F600" s="28"/>
       <c r="G600" s="2"/>
       <c r="H600" s="2"/>
       <c r="I600" s="2"/>
@@ -11189,7 +11207,7 @@
       <c r="C601" s="2"/>
       <c r="D601" s="27"/>
       <c r="E601" s="2"/>
-      <c r="F601" s="32"/>
+      <c r="F601" s="28"/>
       <c r="G601" s="2"/>
       <c r="H601" s="2"/>
       <c r="I601" s="2"/>
@@ -11204,7 +11222,7 @@
       <c r="C602" s="2"/>
       <c r="D602" s="27"/>
       <c r="E602" s="2"/>
-      <c r="F602" s="32"/>
+      <c r="F602" s="28"/>
       <c r="G602" s="2"/>
       <c r="H602" s="2"/>
       <c r="I602" s="2"/>
@@ -11219,7 +11237,7 @@
       <c r="C603" s="2"/>
       <c r="D603" s="27"/>
       <c r="E603" s="2"/>
-      <c r="F603" s="32"/>
+      <c r="F603" s="28"/>
       <c r="G603" s="2"/>
       <c r="H603" s="2"/>
       <c r="I603" s="2"/>
@@ -11234,7 +11252,7 @@
       <c r="C604" s="2"/>
       <c r="D604" s="27"/>
       <c r="E604" s="2"/>
-      <c r="F604" s="32"/>
+      <c r="F604" s="28"/>
       <c r="G604" s="2"/>
       <c r="H604" s="2"/>
       <c r="I604" s="2"/>
@@ -11249,7 +11267,7 @@
       <c r="C605" s="2"/>
       <c r="D605" s="27"/>
       <c r="E605" s="2"/>
-      <c r="F605" s="32"/>
+      <c r="F605" s="28"/>
       <c r="G605" s="2"/>
       <c r="H605" s="2"/>
       <c r="I605" s="2"/>
@@ -11264,7 +11282,7 @@
       <c r="C606" s="2"/>
       <c r="D606" s="27"/>
       <c r="E606" s="2"/>
-      <c r="F606" s="32"/>
+      <c r="F606" s="28"/>
       <c r="G606" s="2"/>
       <c r="H606" s="2"/>
       <c r="I606" s="2"/>
@@ -11279,7 +11297,7 @@
       <c r="C607" s="2"/>
       <c r="D607" s="27"/>
       <c r="E607" s="2"/>
-      <c r="F607" s="32"/>
+      <c r="F607" s="28"/>
       <c r="G607" s="2"/>
       <c r="H607" s="2"/>
       <c r="I607" s="2"/>
@@ -11294,7 +11312,7 @@
       <c r="C608" s="2"/>
       <c r="D608" s="27"/>
       <c r="E608" s="2"/>
-      <c r="F608" s="32"/>
+      <c r="F608" s="28"/>
       <c r="G608" s="2"/>
       <c r="H608" s="2"/>
       <c r="I608" s="2"/>
@@ -11309,7 +11327,7 @@
       <c r="C609" s="2"/>
       <c r="D609" s="27"/>
       <c r="E609" s="2"/>
-      <c r="F609" s="32"/>
+      <c r="F609" s="28"/>
       <c r="G609" s="2"/>
       <c r="H609" s="2"/>
       <c r="I609" s="2"/>
@@ -11324,7 +11342,7 @@
       <c r="C610" s="2"/>
       <c r="D610" s="27"/>
       <c r="E610" s="2"/>
-      <c r="F610" s="32"/>
+      <c r="F610" s="28"/>
       <c r="G610" s="2"/>
       <c r="H610" s="2"/>
       <c r="I610" s="2"/>
@@ -11339,7 +11357,7 @@
       <c r="C611" s="2"/>
       <c r="D611" s="27"/>
       <c r="E611" s="2"/>
-      <c r="F611" s="32"/>
+      <c r="F611" s="28"/>
       <c r="G611" s="2"/>
       <c r="H611" s="2"/>
       <c r="I611" s="2"/>
@@ -11354,7 +11372,7 @@
       <c r="C612" s="2"/>
       <c r="D612" s="27"/>
       <c r="E612" s="2"/>
-      <c r="F612" s="32"/>
+      <c r="F612" s="28"/>
       <c r="G612" s="2"/>
       <c r="H612" s="2"/>
       <c r="I612" s="2"/>
@@ -11369,7 +11387,7 @@
       <c r="C613" s="2"/>
       <c r="D613" s="27"/>
       <c r="E613" s="2"/>
-      <c r="F613" s="32"/>
+      <c r="F613" s="28"/>
       <c r="G613" s="2"/>
       <c r="H613" s="2"/>
       <c r="I613" s="2"/>
@@ -11384,7 +11402,7 @@
       <c r="C614" s="2"/>
       <c r="D614" s="27"/>
       <c r="E614" s="2"/>
-      <c r="F614" s="32"/>
+      <c r="F614" s="28"/>
       <c r="G614" s="2"/>
       <c r="H614" s="2"/>
       <c r="I614" s="2"/>
@@ -11399,7 +11417,7 @@
       <c r="C615" s="2"/>
       <c r="D615" s="27"/>
       <c r="E615" s="2"/>
-      <c r="F615" s="32"/>
+      <c r="F615" s="28"/>
       <c r="G615" s="2"/>
       <c r="H615" s="2"/>
       <c r="I615" s="2"/>
@@ -11414,7 +11432,7 @@
       <c r="C616" s="2"/>
       <c r="D616" s="27"/>
       <c r="E616" s="2"/>
-      <c r="F616" s="32"/>
+      <c r="F616" s="28"/>
       <c r="G616" s="2"/>
       <c r="H616" s="2"/>
       <c r="I616" s="2"/>
@@ -11429,7 +11447,7 @@
       <c r="C617" s="2"/>
       <c r="D617" s="27"/>
       <c r="E617" s="2"/>
-      <c r="F617" s="32"/>
+      <c r="F617" s="28"/>
       <c r="G617" s="2"/>
       <c r="H617" s="2"/>
       <c r="I617" s="2"/>
@@ -11444,7 +11462,7 @@
       <c r="C618" s="2"/>
       <c r="D618" s="27"/>
       <c r="E618" s="2"/>
-      <c r="F618" s="32"/>
+      <c r="F618" s="28"/>
       <c r="G618" s="2"/>
       <c r="H618" s="2"/>
       <c r="I618" s="2"/>
@@ -11459,7 +11477,7 @@
       <c r="C619" s="2"/>
       <c r="D619" s="27"/>
       <c r="E619" s="2"/>
-      <c r="F619" s="32"/>
+      <c r="F619" s="28"/>
       <c r="G619" s="2"/>
       <c r="H619" s="2"/>
       <c r="I619" s="2"/>
@@ -11474,7 +11492,7 @@
       <c r="C620" s="2"/>
       <c r="D620" s="27"/>
       <c r="E620" s="2"/>
-      <c r="F620" s="32"/>
+      <c r="F620" s="28"/>
       <c r="G620" s="2"/>
       <c r="H620" s="2"/>
       <c r="I620" s="2"/>
@@ -11489,7 +11507,7 @@
       <c r="C621" s="2"/>
       <c r="D621" s="27"/>
       <c r="E621" s="2"/>
-      <c r="F621" s="32"/>
+      <c r="F621" s="28"/>
       <c r="G621" s="2"/>
       <c r="H621" s="2"/>
       <c r="I621" s="2"/>
@@ -11504,7 +11522,7 @@
       <c r="C622" s="2"/>
       <c r="D622" s="27"/>
       <c r="E622" s="2"/>
-      <c r="F622" s="32"/>
+      <c r="F622" s="28"/>
       <c r="G622" s="2"/>
       <c r="H622" s="2"/>
       <c r="I622" s="2"/>
@@ -11519,7 +11537,7 @@
       <c r="C623" s="2"/>
       <c r="D623" s="27"/>
       <c r="E623" s="2"/>
-      <c r="F623" s="32"/>
+      <c r="F623" s="28"/>
       <c r="G623" s="2"/>
       <c r="H623" s="2"/>
       <c r="I623" s="2"/>
@@ -11534,7 +11552,7 @@
       <c r="C624" s="2"/>
       <c r="D624" s="27"/>
       <c r="E624" s="2"/>
-      <c r="F624" s="32"/>
+      <c r="F624" s="28"/>
       <c r="G624" s="2"/>
       <c r="H624" s="2"/>
       <c r="I624" s="2"/>
@@ -11549,7 +11567,7 @@
       <c r="C625" s="2"/>
       <c r="D625" s="27"/>
       <c r="E625" s="2"/>
-      <c r="F625" s="32"/>
+      <c r="F625" s="28"/>
       <c r="G625" s="2"/>
       <c r="H625" s="2"/>
       <c r="I625" s="2"/>
@@ -11564,7 +11582,7 @@
       <c r="C626" s="2"/>
       <c r="D626" s="27"/>
       <c r="E626" s="2"/>
-      <c r="F626" s="32"/>
+      <c r="F626" s="28"/>
       <c r="G626" s="2"/>
       <c r="H626" s="2"/>
       <c r="I626" s="2"/>
@@ -11579,7 +11597,7 @@
       <c r="C627" s="2"/>
       <c r="D627" s="27"/>
       <c r="E627" s="2"/>
-      <c r="F627" s="32"/>
+      <c r="F627" s="28"/>
       <c r="G627" s="2"/>
       <c r="H627" s="2"/>
       <c r="I627" s="2"/>
@@ -11594,7 +11612,7 @@
       <c r="C628" s="2"/>
       <c r="D628" s="27"/>
       <c r="E628" s="2"/>
-      <c r="F628" s="32"/>
+      <c r="F628" s="28"/>
       <c r="G628" s="2"/>
       <c r="H628" s="2"/>
       <c r="I628" s="2"/>
@@ -11609,7 +11627,7 @@
       <c r="C629" s="2"/>
       <c r="D629" s="27"/>
       <c r="E629" s="2"/>
-      <c r="F629" s="32"/>
+      <c r="F629" s="28"/>
       <c r="G629" s="2"/>
       <c r="H629" s="2"/>
       <c r="I629" s="2"/>
@@ -11624,7 +11642,7 @@
       <c r="C630" s="2"/>
       <c r="D630" s="27"/>
       <c r="E630" s="2"/>
-      <c r="F630" s="32"/>
+      <c r="F630" s="28"/>
       <c r="G630" s="2"/>
       <c r="H630" s="2"/>
       <c r="I630" s="2"/>
@@ -11639,7 +11657,7 @@
       <c r="C631" s="2"/>
       <c r="D631" s="27"/>
       <c r="E631" s="2"/>
-      <c r="F631" s="32"/>
+      <c r="F631" s="28"/>
       <c r="G631" s="2"/>
       <c r="H631" s="2"/>
       <c r="I631" s="2"/>
@@ -11654,7 +11672,7 @@
       <c r="C632" s="2"/>
       <c r="D632" s="27"/>
       <c r="E632" s="2"/>
-      <c r="F632" s="32"/>
+      <c r="F632" s="28"/>
       <c r="G632" s="2"/>
       <c r="H632" s="2"/>
       <c r="I632" s="2"/>
@@ -11669,7 +11687,7 @@
       <c r="C633" s="2"/>
       <c r="D633" s="27"/>
       <c r="E633" s="2"/>
-      <c r="F633" s="32"/>
+      <c r="F633" s="28"/>
       <c r="G633" s="2"/>
       <c r="H633" s="2"/>
       <c r="I633" s="2"/>
@@ -11684,7 +11702,7 @@
       <c r="C634" s="2"/>
       <c r="D634" s="27"/>
       <c r="E634" s="2"/>
-      <c r="F634" s="32"/>
+      <c r="F634" s="28"/>
       <c r="G634" s="2"/>
       <c r="H634" s="2"/>
       <c r="I634" s="2"/>
@@ -11699,7 +11717,7 @@
       <c r="C635" s="2"/>
       <c r="D635" s="27"/>
       <c r="E635" s="2"/>
-      <c r="F635" s="32"/>
+      <c r="F635" s="28"/>
       <c r="G635" s="2"/>
       <c r="H635" s="2"/>
       <c r="I635" s="2"/>
@@ -11714,7 +11732,7 @@
       <c r="C636" s="2"/>
       <c r="D636" s="27"/>
       <c r="E636" s="2"/>
-      <c r="F636" s="32"/>
+      <c r="F636" s="28"/>
       <c r="G636" s="2"/>
       <c r="H636" s="2"/>
       <c r="I636" s="2"/>
@@ -11729,7 +11747,7 @@
       <c r="C637" s="2"/>
       <c r="D637" s="27"/>
       <c r="E637" s="2"/>
-      <c r="F637" s="32"/>
+      <c r="F637" s="28"/>
       <c r="G637" s="2"/>
       <c r="H637" s="2"/>
       <c r="I637" s="2"/>
@@ -11744,7 +11762,7 @@
       <c r="C638" s="2"/>
       <c r="D638" s="27"/>
       <c r="E638" s="2"/>
-      <c r="F638" s="32"/>
+      <c r="F638" s="28"/>
       <c r="G638" s="2"/>
       <c r="H638" s="2"/>
       <c r="I638" s="2"/>
@@ -11759,7 +11777,7 @@
       <c r="C639" s="2"/>
       <c r="D639" s="27"/>
       <c r="E639" s="2"/>
-      <c r="F639" s="32"/>
+      <c r="F639" s="28"/>
       <c r="G639" s="2"/>
       <c r="H639" s="2"/>
       <c r="I639" s="2"/>
@@ -11774,7 +11792,7 @@
       <c r="C640" s="2"/>
       <c r="D640" s="27"/>
       <c r="E640" s="2"/>
-      <c r="F640" s="32"/>
+      <c r="F640" s="28"/>
       <c r="G640" s="2"/>
       <c r="H640" s="2"/>
       <c r="I640" s="2"/>
@@ -11789,7 +11807,7 @@
       <c r="C641" s="2"/>
       <c r="D641" s="27"/>
       <c r="E641" s="2"/>
-      <c r="F641" s="32"/>
+      <c r="F641" s="28"/>
       <c r="G641" s="2"/>
       <c r="H641" s="2"/>
       <c r="I641" s="2"/>
@@ -11804,7 +11822,7 @@
       <c r="C642" s="2"/>
       <c r="D642" s="27"/>
       <c r="E642" s="2"/>
-      <c r="F642" s="32"/>
+      <c r="F642" s="28"/>
       <c r="G642" s="2"/>
       <c r="H642" s="2"/>
       <c r="I642" s="2"/>
@@ -11819,7 +11837,7 @@
       <c r="C643" s="2"/>
       <c r="D643" s="27"/>
       <c r="E643" s="2"/>
-      <c r="F643" s="32"/>
+      <c r="F643" s="28"/>
       <c r="G643" s="2"/>
       <c r="H643" s="2"/>
       <c r="I643" s="2"/>
@@ -11834,7 +11852,7 @@
       <c r="C644" s="2"/>
       <c r="D644" s="27"/>
       <c r="E644" s="2"/>
-      <c r="F644" s="32"/>
+      <c r="F644" s="28"/>
       <c r="G644" s="2"/>
       <c r="H644" s="2"/>
       <c r="I644" s="2"/>
@@ -11849,7 +11867,7 @@
       <c r="C645" s="2"/>
       <c r="D645" s="27"/>
       <c r="E645" s="2"/>
-      <c r="F645" s="32"/>
+      <c r="F645" s="28"/>
       <c r="G645" s="2"/>
       <c r="H645" s="2"/>
       <c r="I645" s="2"/>
@@ -11864,7 +11882,7 @@
       <c r="C646" s="2"/>
       <c r="D646" s="27"/>
       <c r="E646" s="2"/>
-      <c r="F646" s="32"/>
+      <c r="F646" s="28"/>
       <c r="G646" s="2"/>
       <c r="H646" s="2"/>
       <c r="I646" s="2"/>
@@ -11879,7 +11897,7 @@
       <c r="C647" s="2"/>
       <c r="D647" s="27"/>
       <c r="E647" s="2"/>
-      <c r="F647" s="32"/>
+      <c r="F647" s="28"/>
       <c r="G647" s="2"/>
       <c r="H647" s="2"/>
       <c r="I647" s="2"/>
@@ -11894,7 +11912,7 @@
       <c r="C648" s="2"/>
       <c r="D648" s="27"/>
       <c r="E648" s="2"/>
-      <c r="F648" s="32"/>
+      <c r="F648" s="28"/>
       <c r="G648" s="2"/>
       <c r="H648" s="2"/>
       <c r="I648" s="2"/>
@@ -11909,7 +11927,7 @@
       <c r="C649" s="2"/>
       <c r="D649" s="27"/>
       <c r="E649" s="2"/>
-      <c r="F649" s="32"/>
+      <c r="F649" s="28"/>
       <c r="G649" s="2"/>
       <c r="H649" s="2"/>
       <c r="I649" s="2"/>
@@ -11924,7 +11942,7 @@
       <c r="C650" s="2"/>
       <c r="D650" s="27"/>
       <c r="E650" s="2"/>
-      <c r="F650" s="32"/>
+      <c r="F650" s="28"/>
       <c r="G650" s="2"/>
       <c r="H650" s="2"/>
       <c r="I650" s="2"/>
@@ -11939,7 +11957,7 @@
       <c r="C651" s="2"/>
       <c r="D651" s="27"/>
       <c r="E651" s="2"/>
-      <c r="F651" s="32"/>
+      <c r="F651" s="28"/>
       <c r="G651" s="2"/>
       <c r="H651" s="2"/>
       <c r="I651" s="2"/>
@@ -11954,7 +11972,7 @@
       <c r="C652" s="2"/>
       <c r="D652" s="27"/>
       <c r="E652" s="2"/>
-      <c r="F652" s="32"/>
+      <c r="F652" s="28"/>
       <c r="G652" s="2"/>
       <c r="H652" s="2"/>
       <c r="I652" s="2"/>
@@ -11969,7 +11987,7 @@
       <c r="C653" s="2"/>
       <c r="D653" s="27"/>
       <c r="E653" s="2"/>
-      <c r="F653" s="32"/>
+      <c r="F653" s="28"/>
       <c r="G653" s="2"/>
       <c r="H653" s="2"/>
       <c r="I653" s="2"/>
@@ -11984,7 +12002,7 @@
       <c r="C654" s="2"/>
       <c r="D654" s="27"/>
       <c r="E654" s="2"/>
-      <c r="F654" s="32"/>
+      <c r="F654" s="28"/>
       <c r="G654" s="2"/>
       <c r="H654" s="2"/>
       <c r="I654" s="2"/>
@@ -11999,7 +12017,7 @@
       <c r="C655" s="2"/>
       <c r="D655" s="27"/>
       <c r="E655" s="2"/>
-      <c r="F655" s="32"/>
+      <c r="F655" s="28"/>
       <c r="G655" s="2"/>
       <c r="H655" s="2"/>
       <c r="I655" s="2"/>
@@ -12014,7 +12032,7 @@
       <c r="C656" s="2"/>
       <c r="D656" s="27"/>
       <c r="E656" s="2"/>
-      <c r="F656" s="32"/>
+      <c r="F656" s="28"/>
       <c r="G656" s="2"/>
       <c r="H656" s="2"/>
       <c r="I656" s="2"/>
@@ -12029,7 +12047,7 @@
       <c r="C657" s="2"/>
       <c r="D657" s="27"/>
       <c r="E657" s="2"/>
-      <c r="F657" s="32"/>
+      <c r="F657" s="28"/>
       <c r="G657" s="2"/>
       <c r="H657" s="2"/>
       <c r="I657" s="2"/>
@@ -12044,7 +12062,7 @@
       <c r="C658" s="2"/>
       <c r="D658" s="27"/>
       <c r="E658" s="2"/>
-      <c r="F658" s="32"/>
+      <c r="F658" s="28"/>
       <c r="G658" s="2"/>
       <c r="H658" s="2"/>
       <c r="I658" s="2"/>
@@ -12059,7 +12077,7 @@
       <c r="C659" s="2"/>
       <c r="D659" s="27"/>
       <c r="E659" s="2"/>
-      <c r="F659" s="32"/>
+      <c r="F659" s="28"/>
       <c r="G659" s="2"/>
       <c r="H659" s="2"/>
       <c r="I659" s="2"/>
@@ -12074,7 +12092,7 @@
       <c r="C660" s="2"/>
       <c r="D660" s="27"/>
       <c r="E660" s="2"/>
-      <c r="F660" s="32"/>
+      <c r="F660" s="28"/>
       <c r="G660" s="2"/>
       <c r="H660" s="2"/>
       <c r="I660" s="2"/>
@@ -12089,7 +12107,7 @@
       <c r="C661" s="2"/>
       <c r="D661" s="27"/>
       <c r="E661" s="2"/>
-      <c r="F661" s="32"/>
+      <c r="F661" s="28"/>
       <c r="G661" s="2"/>
       <c r="H661" s="2"/>
       <c r="I661" s="2"/>
@@ -12104,7 +12122,7 @@
       <c r="C662" s="2"/>
       <c r="D662" s="27"/>
       <c r="E662" s="2"/>
-      <c r="F662" s="32"/>
+      <c r="F662" s="28"/>
       <c r="G662" s="2"/>
       <c r="H662" s="2"/>
       <c r="I662" s="2"/>
@@ -12119,7 +12137,7 @@
       <c r="C663" s="2"/>
       <c r="D663" s="27"/>
       <c r="E663" s="2"/>
-      <c r="F663" s="32"/>
+      <c r="F663" s="28"/>
       <c r="G663" s="2"/>
       <c r="H663" s="2"/>
       <c r="I663" s="2"/>
@@ -12134,7 +12152,7 @@
       <c r="C664" s="2"/>
       <c r="D664" s="27"/>
       <c r="E664" s="2"/>
-      <c r="F664" s="32"/>
+      <c r="F664" s="28"/>
       <c r="G664" s="2"/>
       <c r="H664" s="2"/>
       <c r="I664" s="2"/>
@@ -12149,7 +12167,7 @@
       <c r="C665" s="2"/>
       <c r="D665" s="27"/>
       <c r="E665" s="2"/>
-      <c r="F665" s="32"/>
+      <c r="F665" s="28"/>
       <c r="G665" s="2"/>
       <c r="H665" s="2"/>
       <c r="I665" s="2"/>
@@ -12164,7 +12182,7 @@
       <c r="C666" s="2"/>
       <c r="D666" s="27"/>
       <c r="E666" s="2"/>
-      <c r="F666" s="32"/>
+      <c r="F666" s="28"/>
       <c r="G666" s="2"/>
       <c r="H666" s="2"/>
       <c r="I666" s="2"/>
@@ -12179,7 +12197,7 @@
       <c r="C667" s="2"/>
       <c r="D667" s="27"/>
       <c r="E667" s="2"/>
-      <c r="F667" s="32"/>
+      <c r="F667" s="28"/>
       <c r="G667" s="2"/>
       <c r="H667" s="2"/>
       <c r="I667" s="2"/>
@@ -12194,7 +12212,7 @@
       <c r="C668" s="2"/>
       <c r="D668" s="27"/>
       <c r="E668" s="2"/>
-      <c r="F668" s="32"/>
+      <c r="F668" s="28"/>
       <c r="G668" s="2"/>
       <c r="H668" s="2"/>
       <c r="I668" s="2"/>
@@ -12209,7 +12227,7 @@
       <c r="C669" s="2"/>
       <c r="D669" s="27"/>
       <c r="E669" s="2"/>
-      <c r="F669" s="32"/>
+      <c r="F669" s="28"/>
       <c r="G669" s="2"/>
       <c r="H669" s="2"/>
       <c r="I669" s="2"/>
@@ -12224,7 +12242,7 @@
       <c r="C670" s="2"/>
       <c r="D670" s="27"/>
       <c r="E670" s="2"/>
-      <c r="F670" s="32"/>
+      <c r="F670" s="28"/>
       <c r="G670" s="2"/>
       <c r="H670" s="2"/>
       <c r="I670" s="2"/>
@@ -12239,7 +12257,7 @@
       <c r="C671" s="2"/>
       <c r="D671" s="27"/>
       <c r="E671" s="2"/>
-      <c r="F671" s="32"/>
+      <c r="F671" s="28"/>
       <c r="G671" s="2"/>
       <c r="H671" s="2"/>
       <c r="I671" s="2"/>
@@ -12254,7 +12272,7 @@
       <c r="C672" s="2"/>
       <c r="D672" s="27"/>
       <c r="E672" s="2"/>
-      <c r="F672" s="32"/>
+      <c r="F672" s="28"/>
       <c r="G672" s="2"/>
       <c r="H672" s="2"/>
       <c r="I672" s="2"/>
@@ -12269,7 +12287,7 @@
       <c r="C673" s="2"/>
       <c r="D673" s="27"/>
       <c r="E673" s="2"/>
-      <c r="F673" s="32"/>
+      <c r="F673" s="28"/>
       <c r="G673" s="2"/>
       <c r="H673" s="2"/>
       <c r="I673" s="2"/>
@@ -12284,7 +12302,7 @@
       <c r="C674" s="2"/>
       <c r="D674" s="27"/>
       <c r="E674" s="2"/>
-      <c r="F674" s="32"/>
+      <c r="F674" s="28"/>
       <c r="G674" s="2"/>
       <c r="H674" s="2"/>
       <c r="I674" s="2"/>
@@ -12299,7 +12317,7 @@
       <c r="C675" s="2"/>
       <c r="D675" s="27"/>
       <c r="E675" s="2"/>
-      <c r="F675" s="32"/>
+      <c r="F675" s="28"/>
       <c r="G675" s="2"/>
       <c r="H675" s="2"/>
       <c r="I675" s="2"/>
@@ -12314,7 +12332,7 @@
       <c r="C676" s="2"/>
       <c r="D676" s="27"/>
       <c r="E676" s="2"/>
-      <c r="F676" s="32"/>
+      <c r="F676" s="28"/>
       <c r="G676" s="2"/>
       <c r="H676" s="2"/>
       <c r="I676" s="2"/>
@@ -12329,7 +12347,7 @@
       <c r="C677" s="2"/>
       <c r="D677" s="27"/>
       <c r="E677" s="2"/>
-      <c r="F677" s="32"/>
+      <c r="F677" s="28"/>
       <c r="G677" s="2"/>
       <c r="H677" s="2"/>
       <c r="I677" s="2"/>
@@ -12344,7 +12362,7 @@
       <c r="C678" s="2"/>
       <c r="D678" s="27"/>
       <c r="E678" s="2"/>
-      <c r="F678" s="32"/>
+      <c r="F678" s="28"/>
       <c r="G678" s="2"/>
       <c r="H678" s="2"/>
       <c r="I678" s="2"/>
@@ -12359,7 +12377,7 @@
       <c r="C679" s="2"/>
       <c r="D679" s="27"/>
       <c r="E679" s="2"/>
-      <c r="F679" s="32"/>
+      <c r="F679" s="28"/>
       <c r="G679" s="2"/>
       <c r="H679" s="2"/>
       <c r="I679" s="2"/>
@@ -12374,7 +12392,7 @@
       <c r="C680" s="2"/>
       <c r="D680" s="27"/>
       <c r="E680" s="2"/>
-      <c r="F680" s="32"/>
+      <c r="F680" s="28"/>
       <c r="G680" s="2"/>
       <c r="H680" s="2"/>
       <c r="I680" s="2"/>
@@ -12389,7 +12407,7 @@
       <c r="C681" s="2"/>
       <c r="D681" s="27"/>
       <c r="E681" s="2"/>
-      <c r="F681" s="32"/>
+      <c r="F681" s="28"/>
       <c r="G681" s="2"/>
       <c r="H681" s="2"/>
       <c r="I681" s="2"/>
@@ -12404,7 +12422,7 @@
       <c r="C682" s="2"/>
       <c r="D682" s="27"/>
       <c r="E682" s="2"/>
-      <c r="F682" s="32"/>
+      <c r="F682" s="28"/>
       <c r="G682" s="2"/>
       <c r="H682" s="2"/>
       <c r="I682" s="2"/>
@@ -12419,7 +12437,7 @@
       <c r="C683" s="2"/>
       <c r="D683" s="27"/>
       <c r="E683" s="2"/>
-      <c r="F683" s="32"/>
+      <c r="F683" s="28"/>
       <c r="G683" s="2"/>
       <c r="H683" s="2"/>
       <c r="I683" s="2"/>
@@ -12434,7 +12452,7 @@
       <c r="C684" s="2"/>
       <c r="D684" s="27"/>
       <c r="E684" s="2"/>
-      <c r="F684" s="32"/>
+      <c r="F684" s="28"/>
       <c r="G684" s="2"/>
       <c r="H684" s="2"/>
       <c r="I684" s="2"/>
@@ -12449,7 +12467,7 @@
       <c r="C685" s="2"/>
       <c r="D685" s="27"/>
       <c r="E685" s="2"/>
-      <c r="F685" s="32"/>
+      <c r="F685" s="28"/>
       <c r="G685" s="2"/>
       <c r="H685" s="2"/>
       <c r="I685" s="2"/>
@@ -12464,7 +12482,7 @@
       <c r="C686" s="2"/>
       <c r="D686" s="27"/>
       <c r="E686" s="2"/>
-      <c r="F686" s="32"/>
+      <c r="F686" s="28"/>
       <c r="G686" s="2"/>
       <c r="H686" s="2"/>
       <c r="I686" s="2"/>
@@ -12479,7 +12497,7 @@
       <c r="C687" s="2"/>
       <c r="D687" s="27"/>
       <c r="E687" s="2"/>
-      <c r="F687" s="32"/>
+      <c r="F687" s="28"/>
       <c r="G687" s="2"/>
       <c r="H687" s="2"/>
       <c r="I687" s="2"/>
@@ -12494,7 +12512,7 @@
       <c r="C688" s="2"/>
       <c r="D688" s="27"/>
       <c r="E688" s="2"/>
-      <c r="F688" s="32"/>
+      <c r="F688" s="28"/>
       <c r="G688" s="2"/>
       <c r="H688" s="2"/>
       <c r="I688" s="2"/>
@@ -12509,7 +12527,7 @@
       <c r="C689" s="2"/>
       <c r="D689" s="27"/>
       <c r="E689" s="2"/>
-      <c r="F689" s="32"/>
+      <c r="F689" s="28"/>
       <c r="G689" s="2"/>
       <c r="H689" s="2"/>
       <c r="I689" s="2"/>
@@ -12524,7 +12542,7 @@
       <c r="C690" s="2"/>
       <c r="D690" s="27"/>
       <c r="E690" s="2"/>
-      <c r="F690" s="32"/>
+      <c r="F690" s="28"/>
       <c r="G690" s="2"/>
       <c r="H690" s="2"/>
       <c r="I690" s="2"/>
@@ -12539,7 +12557,7 @@
       <c r="C691" s="2"/>
       <c r="D691" s="27"/>
       <c r="E691" s="2"/>
-      <c r="F691" s="32"/>
+      <c r="F691" s="28"/>
       <c r="G691" s="2"/>
       <c r="H691" s="2"/>
       <c r="I691" s="2"/>
@@ -12554,7 +12572,7 @@
       <c r="C692" s="2"/>
       <c r="D692" s="27"/>
       <c r="E692" s="2"/>
-      <c r="F692" s="32"/>
+      <c r="F692" s="28"/>
       <c r="G692" s="2"/>
       <c r="H692" s="2"/>
       <c r="I692" s="2"/>
@@ -12569,7 +12587,7 @@
       <c r="C693" s="2"/>
       <c r="D693" s="27"/>
       <c r="E693" s="2"/>
-      <c r="F693" s="32"/>
+      <c r="F693" s="28"/>
       <c r="G693" s="2"/>
       <c r="H693" s="2"/>
       <c r="I693" s="2"/>
@@ -12584,7 +12602,7 @@
       <c r="C694" s="2"/>
       <c r="D694" s="27"/>
       <c r="E694" s="2"/>
-      <c r="F694" s="32"/>
+      <c r="F694" s="28"/>
       <c r="G694" s="2"/>
       <c r="H694" s="2"/>
       <c r="I694" s="2"/>
@@ -12599,7 +12617,7 @@
       <c r="C695" s="2"/>
       <c r="D695" s="27"/>
       <c r="E695" s="2"/>
-      <c r="F695" s="32"/>
+      <c r="F695" s="28"/>
       <c r="G695" s="2"/>
       <c r="H695" s="2"/>
       <c r="I695" s="2"/>
@@ -12614,7 +12632,7 @@
       <c r="C696" s="2"/>
       <c r="D696" s="27"/>
       <c r="E696" s="2"/>
-      <c r="F696" s="32"/>
+      <c r="F696" s="28"/>
       <c r="G696" s="2"/>
       <c r="H696" s="2"/>
       <c r="I696" s="2"/>
@@ -12629,7 +12647,7 @@
       <c r="C697" s="2"/>
       <c r="D697" s="27"/>
       <c r="E697" s="2"/>
-      <c r="F697" s="32"/>
+      <c r="F697" s="28"/>
       <c r="G697" s="2"/>
       <c r="H697" s="2"/>
       <c r="I697" s="2"/>
@@ -12644,7 +12662,7 @@
       <c r="C698" s="2"/>
       <c r="D698" s="27"/>
       <c r="E698" s="2"/>
-      <c r="F698" s="32"/>
+      <c r="F698" s="28"/>
       <c r="G698" s="2"/>
       <c r="H698" s="2"/>
       <c r="I698" s="2"/>
@@ -12659,7 +12677,7 @@
       <c r="C699" s="2"/>
       <c r="D699" s="27"/>
       <c r="E699" s="2"/>
-      <c r="F699" s="32"/>
+      <c r="F699" s="28"/>
       <c r="G699" s="2"/>
       <c r="H699" s="2"/>
       <c r="I699" s="2"/>
@@ -12674,7 +12692,7 @@
       <c r="C700" s="2"/>
       <c r="D700" s="27"/>
       <c r="E700" s="2"/>
-      <c r="F700" s="32"/>
+      <c r="F700" s="28"/>
       <c r="G700" s="2"/>
       <c r="H700" s="2"/>
       <c r="I700" s="2"/>
@@ -12689,7 +12707,7 @@
       <c r="C701" s="2"/>
       <c r="D701" s="27"/>
       <c r="E701" s="2"/>
-      <c r="F701" s="32"/>
+      <c r="F701" s="28"/>
       <c r="G701" s="2"/>
       <c r="H701" s="2"/>
       <c r="I701" s="2"/>
@@ -12704,7 +12722,7 @@
       <c r="C702" s="2"/>
       <c r="D702" s="27"/>
       <c r="E702" s="2"/>
-      <c r="F702" s="32"/>
+      <c r="F702" s="28"/>
       <c r="G702" s="2"/>
       <c r="H702" s="2"/>
       <c r="I702" s="2"/>
@@ -12719,7 +12737,7 @@
       <c r="C703" s="2"/>
       <c r="D703" s="27"/>
       <c r="E703" s="2"/>
-      <c r="F703" s="32"/>
+      <c r="F703" s="28"/>
       <c r="G703" s="2"/>
       <c r="H703" s="2"/>
       <c r="I703" s="2"/>
@@ -12734,7 +12752,7 @@
       <c r="C704" s="2"/>
       <c r="D704" s="27"/>
       <c r="E704" s="2"/>
-      <c r="F704" s="32"/>
+      <c r="F704" s="28"/>
       <c r="G704" s="2"/>
       <c r="H704" s="2"/>
       <c r="I704" s="2"/>
@@ -12749,7 +12767,7 @@
       <c r="C705" s="2"/>
       <c r="D705" s="27"/>
       <c r="E705" s="2"/>
-      <c r="F705" s="32"/>
+      <c r="F705" s="28"/>
       <c r="G705" s="2"/>
       <c r="H705" s="2"/>
       <c r="I705" s="2"/>
@@ -12764,7 +12782,7 @@
       <c r="C706" s="2"/>
       <c r="D706" s="27"/>
       <c r="E706" s="2"/>
-      <c r="F706" s="32"/>
+      <c r="F706" s="28"/>
       <c r="G706" s="2"/>
       <c r="H706" s="2"/>
       <c r="I706" s="2"/>
@@ -12779,7 +12797,7 @@
       <c r="C707" s="2"/>
       <c r="D707" s="27"/>
       <c r="E707" s="2"/>
-      <c r="F707" s="32"/>
+      <c r="F707" s="28"/>
       <c r="G707" s="2"/>
       <c r="H707" s="2"/>
       <c r="I707" s="2"/>
@@ -12794,7 +12812,7 @@
       <c r="C708" s="2"/>
       <c r="D708" s="27"/>
       <c r="E708" s="2"/>
-      <c r="F708" s="32"/>
+      <c r="F708" s="28"/>
       <c r="G708" s="2"/>
       <c r="H708" s="2"/>
       <c r="I708" s="2"/>
@@ -12809,7 +12827,7 @@
       <c r="C709" s="2"/>
       <c r="D709" s="27"/>
       <c r="E709" s="2"/>
-      <c r="F709" s="32"/>
+      <c r="F709" s="28"/>
       <c r="G709" s="2"/>
       <c r="H709" s="2"/>
       <c r="I709" s="2"/>
@@ -12824,7 +12842,7 @@
       <c r="C710" s="2"/>
       <c r="D710" s="27"/>
       <c r="E710" s="2"/>
-      <c r="F710" s="32"/>
+      <c r="F710" s="28"/>
       <c r="G710" s="2"/>
       <c r="H710" s="2"/>
       <c r="I710" s="2"/>
@@ -12839,7 +12857,7 @@
       <c r="C711" s="2"/>
       <c r="D711" s="27"/>
       <c r="E711" s="2"/>
-      <c r="F711" s="32"/>
+      <c r="F711" s="28"/>
       <c r="G711" s="2"/>
       <c r="H711" s="2"/>
       <c r="I711" s="2"/>
@@ -12854,7 +12872,7 @@
       <c r="C712" s="2"/>
       <c r="D712" s="27"/>
       <c r="E712" s="2"/>
-      <c r="F712" s="32"/>
+      <c r="F712" s="28"/>
       <c r="G712" s="2"/>
       <c r="H712" s="2"/>
       <c r="I712" s="2"/>
@@ -12869,7 +12887,7 @@
       <c r="C713" s="2"/>
       <c r="D713" s="27"/>
       <c r="E713" s="2"/>
-      <c r="F713" s="32"/>
+      <c r="F713" s="28"/>
       <c r="G713" s="2"/>
       <c r="H713" s="2"/>
       <c r="I713" s="2"/>
@@ -12884,7 +12902,7 @@
       <c r="C714" s="2"/>
       <c r="D714" s="27"/>
       <c r="E714" s="2"/>
-      <c r="F714" s="32"/>
+      <c r="F714" s="28"/>
       <c r="G714" s="2"/>
       <c r="H714" s="2"/>
       <c r="I714" s="2"/>
@@ -12899,7 +12917,7 @@
       <c r="C715" s="2"/>
       <c r="D715" s="27"/>
       <c r="E715" s="2"/>
-      <c r="F715" s="32"/>
+      <c r="F715" s="28"/>
       <c r="G715" s="2"/>
       <c r="H715" s="2"/>
       <c r="I715" s="2"/>
@@ -12914,7 +12932,7 @@
       <c r="C716" s="2"/>
       <c r="D716" s="27"/>
       <c r="E716" s="2"/>
-      <c r="F716" s="32"/>
+      <c r="F716" s="28"/>
       <c r="G716" s="2"/>
       <c r="H716" s="2"/>
       <c r="I716" s="2"/>
@@ -12929,7 +12947,7 @@
       <c r="C717" s="2"/>
       <c r="D717" s="27"/>
       <c r="E717" s="2"/>
-      <c r="F717" s="32"/>
+      <c r="F717" s="28"/>
       <c r="G717" s="2"/>
       <c r="H717" s="2"/>
       <c r="I717" s="2"/>
@@ -12944,7 +12962,7 @@
       <c r="C718" s="2"/>
       <c r="D718" s="27"/>
       <c r="E718" s="2"/>
-      <c r="F718" s="32"/>
+      <c r="F718" s="28"/>
       <c r="G718" s="2"/>
       <c r="H718" s="2"/>
       <c r="I718" s="2"/>
@@ -12959,7 +12977,7 @@
       <c r="C719" s="2"/>
       <c r="D719" s="27"/>
       <c r="E719" s="2"/>
-      <c r="F719" s="32"/>
+      <c r="F719" s="28"/>
       <c r="G719" s="2"/>
       <c r="H719" s="2"/>
       <c r="I719" s="2"/>
@@ -12974,7 +12992,7 @@
       <c r="C720" s="2"/>
       <c r="D720" s="27"/>
       <c r="E720" s="2"/>
-      <c r="F720" s="32"/>
+      <c r="F720" s="28"/>
       <c r="G720" s="2"/>
       <c r="H720" s="2"/>
       <c r="I720" s="2"/>
@@ -12989,7 +13007,7 @@
       <c r="C721" s="2"/>
       <c r="D721" s="27"/>
       <c r="E721" s="2"/>
-      <c r="F721" s="32"/>
+      <c r="F721" s="28"/>
       <c r="G721" s="2"/>
       <c r="H721" s="2"/>
       <c r="I721" s="2"/>
@@ -13004,7 +13022,7 @@
       <c r="C722" s="2"/>
       <c r="D722" s="27"/>
       <c r="E722" s="2"/>
-      <c r="F722" s="32"/>
+      <c r="F722" s="28"/>
       <c r="G722" s="2"/>
       <c r="H722" s="2"/>
       <c r="I722" s="2"/>
@@ -13019,7 +13037,7 @@
       <c r="C723" s="2"/>
       <c r="D723" s="27"/>
       <c r="E723" s="2"/>
-      <c r="F723" s="32"/>
+      <c r="F723" s="28"/>
       <c r="G723" s="2"/>
       <c r="H723" s="2"/>
       <c r="I723" s="2"/>
@@ -13034,7 +13052,7 @@
       <c r="C724" s="2"/>
       <c r="D724" s="27"/>
       <c r="E724" s="2"/>
-      <c r="F724" s="32"/>
+      <c r="F724" s="28"/>
       <c r="G724" s="2"/>
       <c r="H724" s="2"/>
       <c r="I724" s="2"/>
@@ -13049,7 +13067,7 @@
       <c r="C725" s="2"/>
       <c r="D725" s="27"/>
       <c r="E725" s="2"/>
-      <c r="F725" s="32"/>
+      <c r="F725" s="28"/>
       <c r="G725" s="2"/>
       <c r="H725" s="2"/>
       <c r="I725" s="2"/>
@@ -13064,7 +13082,7 @@
       <c r="C726" s="2"/>
       <c r="D726" s="27"/>
       <c r="E726" s="2"/>
-      <c r="F726" s="32"/>
+      <c r="F726" s="28"/>
       <c r="G726" s="2"/>
       <c r="H726" s="2"/>
       <c r="I726" s="2"/>
@@ -13079,7 +13097,7 @@
       <c r="C727" s="2"/>
       <c r="D727" s="27"/>
       <c r="E727" s="2"/>
-      <c r="F727" s="32"/>
+      <c r="F727" s="28"/>
       <c r="G727" s="2"/>
       <c r="H727" s="2"/>
       <c r="I727" s="2"/>
@@ -13094,7 +13112,7 @@
       <c r="C728" s="2"/>
       <c r="D728" s="27"/>
       <c r="E728" s="2"/>
-      <c r="F728" s="32"/>
+      <c r="F728" s="28"/>
       <c r="G728" s="2"/>
       <c r="H728" s="2"/>
       <c r="I728" s="2"/>
@@ -13109,7 +13127,7 @@
       <c r="C729" s="2"/>
       <c r="D729" s="27"/>
       <c r="E729" s="2"/>
-      <c r="F729" s="32"/>
+      <c r="F729" s="28"/>
       <c r="G729" s="2"/>
       <c r="H729" s="2"/>
       <c r="I729" s="2"/>
@@ -13124,7 +13142,7 @@
       <c r="C730" s="2"/>
       <c r="D730" s="27"/>
       <c r="E730" s="2"/>
-      <c r="F730" s="32"/>
+      <c r="F730" s="28"/>
       <c r="G730" s="2"/>
       <c r="H730" s="2"/>
       <c r="I730" s="2"/>
@@ -13139,7 +13157,7 @@
       <c r="C731" s="2"/>
       <c r="D731" s="27"/>
       <c r="E731" s="2"/>
-      <c r="F731" s="32"/>
+      <c r="F731" s="28"/>
       <c r="G731" s="2"/>
       <c r="H731" s="2"/>
       <c r="I731" s="2"/>
@@ -13154,7 +13172,7 @@
       <c r="C732" s="2"/>
       <c r="D732" s="27"/>
       <c r="E732" s="2"/>
-      <c r="F732" s="32"/>
+      <c r="F732" s="28"/>
       <c r="G732" s="2"/>
       <c r="H732" s="2"/>
       <c r="I732" s="2"/>
@@ -13169,7 +13187,7 @@
       <c r="C733" s="2"/>
       <c r="D733" s="27"/>
       <c r="E733" s="2"/>
-      <c r="F733" s="32"/>
+      <c r="F733" s="28"/>
       <c r="G733" s="2"/>
       <c r="H733" s="2"/>
       <c r="I733" s="2"/>
@@ -13184,7 +13202,7 @@
       <c r="C734" s="2"/>
       <c r="D734" s="27"/>
       <c r="E734" s="2"/>
-      <c r="F734" s="32"/>
+      <c r="F734" s="28"/>
       <c r="G734" s="2"/>
       <c r="H734" s="2"/>
       <c r="I734" s="2"/>
@@ -13199,7 +13217,7 @@
       <c r="C735" s="2"/>
       <c r="D735" s="27"/>
       <c r="E735" s="2"/>
-      <c r="F735" s="32"/>
+      <c r="F735" s="28"/>
       <c r="G735" s="2"/>
       <c r="H735" s="2"/>
       <c r="I735" s="2"/>
@@ -13214,7 +13232,7 @@
       <c r="C736" s="2"/>
       <c r="D736" s="27"/>
       <c r="E736" s="2"/>
-      <c r="F736" s="32"/>
+      <c r="F736" s="28"/>
       <c r="G736" s="2"/>
       <c r="H736" s="2"/>
       <c r="I736" s="2"/>
@@ -13229,7 +13247,7 @@
       <c r="C737" s="2"/>
       <c r="D737" s="27"/>
       <c r="E737" s="2"/>
-      <c r="F737" s="32"/>
+      <c r="F737" s="28"/>
       <c r="G737" s="2"/>
       <c r="H737" s="2"/>
       <c r="I737" s="2"/>
@@ -13244,7 +13262,7 @@
       <c r="C738" s="2"/>
       <c r="D738" s="27"/>
       <c r="E738" s="2"/>
-      <c r="F738" s="32"/>
+      <c r="F738" s="28"/>
       <c r="G738" s="2"/>
       <c r="H738" s="2"/>
       <c r="I738" s="2"/>
@@ -13259,7 +13277,7 @@
       <c r="C739" s="2"/>
       <c r="D739" s="27"/>
       <c r="E739" s="2"/>
-      <c r="F739" s="32"/>
+      <c r="F739" s="28"/>
       <c r="G739" s="2"/>
       <c r="H739" s="2"/>
       <c r="I739" s="2"/>
@@ -13274,7 +13292,7 @@
       <c r="C740" s="2"/>
       <c r="D740" s="27"/>
       <c r="E740" s="2"/>
-      <c r="F740" s="32"/>
+      <c r="F740" s="28"/>
       <c r="G740" s="2"/>
       <c r="H740" s="2"/>
       <c r="I740" s="2"/>
@@ -13289,7 +13307,7 @@
       <c r="C741" s="2"/>
       <c r="D741" s="27"/>
       <c r="E741" s="2"/>
-      <c r="F741" s="32"/>
+      <c r="F741" s="28"/>
       <c r="G741" s="2"/>
       <c r="H741" s="2"/>
       <c r="I741" s="2"/>
@@ -13304,7 +13322,7 @@
       <c r="C742" s="2"/>
       <c r="D742" s="27"/>
       <c r="E742" s="2"/>
-      <c r="F742" s="32"/>
+      <c r="F742" s="28"/>
       <c r="G742" s="2"/>
       <c r="H742" s="2"/>
       <c r="I742" s="2"/>
@@ -13319,7 +13337,7 @@
       <c r="C743" s="2"/>
       <c r="D743" s="27"/>
       <c r="E743" s="2"/>
-      <c r="F743" s="32"/>
+      <c r="F743" s="28"/>
       <c r="G743" s="2"/>
       <c r="H743" s="2"/>
       <c r="I743" s="2"/>
@@ -13334,7 +13352,7 @@
       <c r="C744" s="2"/>
       <c r="D744" s="27"/>
       <c r="E744" s="2"/>
-      <c r="F744" s="32"/>
+      <c r="F744" s="28"/>
       <c r="G744" s="2"/>
       <c r="H744" s="2"/>
       <c r="I744" s="2"/>
@@ -13349,7 +13367,7 @@
       <c r="C745" s="2"/>
       <c r="D745" s="27"/>
       <c r="E745" s="2"/>
-      <c r="F745" s="32"/>
+      <c r="F745" s="28"/>
       <c r="G745" s="2"/>
       <c r="H745" s="2"/>
       <c r="I745" s="2"/>
@@ -13364,7 +13382,7 @@
       <c r="C746" s="2"/>
       <c r="D746" s="27"/>
       <c r="E746" s="2"/>
-      <c r="F746" s="32"/>
+      <c r="F746" s="28"/>
       <c r="G746" s="2"/>
       <c r="H746" s="2"/>
       <c r="I746" s="2"/>
@@ -13379,7 +13397,7 @@
       <c r="C747" s="2"/>
       <c r="D747" s="27"/>
       <c r="E747" s="2"/>
-      <c r="F747" s="32"/>
+      <c r="F747" s="28"/>
       <c r="G747" s="2"/>
       <c r="H747" s="2"/>
       <c r="I747" s="2"/>
@@ -13394,7 +13412,7 @@
       <c r="C748" s="2"/>
       <c r="D748" s="27"/>
       <c r="E748" s="2"/>
-      <c r="F748" s="32"/>
+      <c r="F748" s="28"/>
       <c r="G748" s="2"/>
       <c r="H748" s="2"/>
       <c r="I748" s="2"/>
@@ -13409,7 +13427,7 @@
       <c r="C749" s="2"/>
       <c r="D749" s="27"/>
       <c r="E749" s="2"/>
-      <c r="F749" s="32"/>
+      <c r="F749" s="28"/>
       <c r="G749" s="2"/>
       <c r="H749" s="2"/>
       <c r="I749" s="2"/>
@@ -13424,7 +13442,7 @@
       <c r="C750" s="2"/>
       <c r="D750" s="27"/>
       <c r="E750" s="2"/>
-      <c r="F750" s="32"/>
+      <c r="F750" s="28"/>
       <c r="G750" s="2"/>
       <c r="H750" s="2"/>
       <c r="I750" s="2"/>
@@ -13439,7 +13457,7 @@
       <c r="C751" s="2"/>
       <c r="D751" s="27"/>
       <c r="E751" s="2"/>
-      <c r="F751" s="32"/>
+      <c r="F751" s="28"/>
       <c r="G751" s="2"/>
       <c r="H751" s="2"/>
       <c r="I751" s="2"/>
@@ -13454,7 +13472,7 @@
       <c r="C752" s="2"/>
       <c r="D752" s="27"/>
       <c r="E752" s="2"/>
-      <c r="F752" s="32"/>
+      <c r="F752" s="28"/>
       <c r="G752" s="2"/>
       <c r="H752" s="2"/>
       <c r="I752" s="2"/>
@@ -13469,7 +13487,7 @@
       <c r="C753" s="2"/>
       <c r="D753" s="27"/>
       <c r="E753" s="2"/>
-      <c r="F753" s="32"/>
+      <c r="F753" s="28"/>
       <c r="G753" s="2"/>
       <c r="H753" s="2"/>
       <c r="I753" s="2"/>
@@ -13484,7 +13502,7 @@
       <c r="C754" s="2"/>
       <c r="D754" s="27"/>
       <c r="E754" s="2"/>
-      <c r="F754" s="32"/>
+      <c r="F754" s="28"/>
       <c r="G754" s="2"/>
       <c r="H754" s="2"/>
       <c r="I754" s="2"/>
@@ -13499,7 +13517,7 @@
       <c r="C755" s="2"/>
       <c r="D755" s="27"/>
       <c r="E755" s="2"/>
-      <c r="F755" s="32"/>
+      <c r="F755" s="28"/>
       <c r="G755" s="2"/>
       <c r="H755" s="2"/>
       <c r="I755" s="2"/>
@@ -13514,7 +13532,7 @@
       <c r="C756" s="2"/>
       <c r="D756" s="27"/>
       <c r="E756" s="2"/>
-      <c r="F756" s="32"/>
+      <c r="F756" s="28"/>
       <c r="G756" s="2"/>
       <c r="H756" s="2"/>
       <c r="I756" s="2"/>
@@ -13529,7 +13547,7 @@
       <c r="C757" s="2"/>
       <c r="D757" s="27"/>
       <c r="E757" s="2"/>
-      <c r="F757" s="32"/>
+      <c r="F757" s="28"/>
       <c r="G757" s="2"/>
       <c r="H757" s="2"/>
       <c r="I757" s="2"/>
@@ -13544,7 +13562,7 @@
       <c r="C758" s="2"/>
       <c r="D758" s="27"/>
       <c r="E758" s="2"/>
-      <c r="F758" s="32"/>
+      <c r="F758" s="28"/>
       <c r="G758" s="2"/>
       <c r="H758" s="2"/>
       <c r="I758" s="2"/>
@@ -13559,7 +13577,7 @@
       <c r="C759" s="2"/>
       <c r="D759" s="27"/>
       <c r="E759" s="2"/>
-      <c r="F759" s="32"/>
+      <c r="F759" s="28"/>
       <c r="G759" s="2"/>
       <c r="H759" s="2"/>
       <c r="I759" s="2"/>
@@ -13574,7 +13592,7 @@
       <c r="C760" s="2"/>
       <c r="D760" s="27"/>
       <c r="E760" s="2"/>
-      <c r="F760" s="32"/>
+      <c r="F760" s="28"/>
       <c r="G760" s="2"/>
       <c r="H760" s="2"/>
       <c r="I760" s="2"/>
@@ -13589,7 +13607,7 @@
       <c r="C761" s="2"/>
       <c r="D761" s="27"/>
       <c r="E761" s="2"/>
-      <c r="F761" s="32"/>
+      <c r="F761" s="28"/>
       <c r="G761" s="2"/>
       <c r="H761" s="2"/>
       <c r="I761" s="2"/>
@@ -13604,7 +13622,7 @@
       <c r="C762" s="2"/>
       <c r="D762" s="27"/>
       <c r="E762" s="2"/>
-      <c r="F762" s="32"/>
+      <c r="F762" s="28"/>
       <c r="G762" s="2"/>
       <c r="H762" s="2"/>
       <c r="I762" s="2"/>
@@ -13619,7 +13637,7 @@
       <c r="C763" s="2"/>
       <c r="D763" s="27"/>
       <c r="E763" s="2"/>
-      <c r="F763" s="32"/>
+      <c r="F763" s="28"/>
       <c r="G763" s="2"/>
       <c r="H763" s="2"/>
       <c r="I763" s="2"/>
@@ -13634,7 +13652,7 @@
       <c r="C764" s="2"/>
       <c r="D764" s="27"/>
       <c r="E764" s="2"/>
-      <c r="F764" s="32"/>
+      <c r="F764" s="28"/>
       <c r="G764" s="2"/>
       <c r="H764" s="2"/>
       <c r="I764" s="2"/>
@@ -13649,7 +13667,7 @@
       <c r="C765" s="2"/>
       <c r="D765" s="27"/>
       <c r="E765" s="2"/>
-      <c r="F765" s="32"/>
+      <c r="F765" s="28"/>
       <c r="G765" s="2"/>
       <c r="H765" s="2"/>
       <c r="I765" s="2"/>
@@ -13664,7 +13682,7 @@
       <c r="C766" s="2"/>
       <c r="D766" s="27"/>
       <c r="E766" s="2"/>
-      <c r="F766" s="32"/>
+      <c r="F766" s="28"/>
       <c r="G766" s="2"/>
       <c r="H766" s="2"/>
       <c r="I766" s="2"/>
@@ -13679,7 +13697,7 @@
       <c r="C767" s="2"/>
       <c r="D767" s="27"/>
       <c r="E767" s="2"/>
-      <c r="F767" s="32"/>
+      <c r="F767" s="28"/>
       <c r="G767" s="2"/>
       <c r="H767" s="2"/>
       <c r="I767" s="2"/>
@@ -13694,7 +13712,7 @@
       <c r="C768" s="2"/>
       <c r="D768" s="27"/>
       <c r="E768" s="2"/>
-      <c r="F768" s="32"/>
+      <c r="F768" s="28"/>
       <c r="G768" s="2"/>
       <c r="H768" s="2"/>
       <c r="I768" s="2"/>
@@ -13709,7 +13727,7 @@
       <c r="C769" s="2"/>
       <c r="D769" s="27"/>
       <c r="E769" s="2"/>
-      <c r="F769" s="32"/>
+      <c r="F769" s="28"/>
       <c r="G769" s="2"/>
       <c r="H769" s="2"/>
       <c r="I769" s="2"/>
@@ -13724,7 +13742,7 @@
       <c r="C770" s="2"/>
       <c r="D770" s="27"/>
       <c r="E770" s="2"/>
-      <c r="F770" s="32"/>
+      <c r="F770" s="28"/>
       <c r="G770" s="2"/>
       <c r="H770" s="2"/>
       <c r="I770" s="2"/>
@@ -13739,7 +13757,7 @@
       <c r="C771" s="2"/>
       <c r="D771" s="27"/>
       <c r="E771" s="2"/>
-      <c r="F771" s="32"/>
+      <c r="F771" s="28"/>
       <c r="G771" s="2"/>
       <c r="H771" s="2"/>
       <c r="I771" s="2"/>
@@ -13754,7 +13772,7 @@
       <c r="C772" s="2"/>
       <c r="D772" s="27"/>
       <c r="E772" s="2"/>
-      <c r="F772" s="32"/>
+      <c r="F772" s="28"/>
       <c r="G772" s="2"/>
       <c r="H772" s="2"/>
       <c r="I772" s="2"/>
@@ -13769,7 +13787,7 @@
       <c r="C773" s="2"/>
       <c r="D773" s="27"/>
       <c r="E773" s="2"/>
-      <c r="F773" s="32"/>
+      <c r="F773" s="28"/>
       <c r="G773" s="2"/>
       <c r="H773" s="2"/>
       <c r="I773" s="2"/>
@@ -13784,7 +13802,7 @@
       <c r="C774" s="2"/>
       <c r="D774" s="27"/>
       <c r="E774" s="2"/>
-      <c r="F774" s="32"/>
+      <c r="F774" s="28"/>
       <c r="G774" s="2"/>
       <c r="H774" s="2"/>
       <c r="I774" s="2"/>
@@ -13799,7 +13817,7 @@
       <c r="C775" s="2"/>
       <c r="D775" s="27"/>
       <c r="E775" s="2"/>
-      <c r="F775" s="32"/>
+      <c r="F775" s="28"/>
       <c r="G775" s="2"/>
       <c r="H775" s="2"/>
       <c r="I775" s="2"/>
@@ -13814,7 +13832,7 @@
       <c r="C776" s="2"/>
       <c r="D776" s="27"/>
       <c r="E776" s="2"/>
-      <c r="F776" s="32"/>
+      <c r="F776" s="28"/>
       <c r="G776" s="2"/>
       <c r="H776" s="2"/>
       <c r="I776" s="2"/>
@@ -13829,7 +13847,7 @@
       <c r="C777" s="2"/>
       <c r="D777" s="27"/>
       <c r="E777" s="2"/>
-      <c r="F777" s="32"/>
+      <c r="F777" s="28"/>
       <c r="G777" s="2"/>
       <c r="H777" s="2"/>
       <c r="I777" s="2"/>
@@ -13844,7 +13862,7 @@
       <c r="C778" s="2"/>
       <c r="D778" s="27"/>
       <c r="E778" s="2"/>
-      <c r="F778" s="32"/>
+      <c r="F778" s="28"/>
       <c r="G778" s="2"/>
       <c r="H778" s="2"/>
       <c r="I778" s="2"/>
@@ -13859,7 +13877,7 @@
       <c r="C779" s="2"/>
       <c r="D779" s="27"/>
       <c r="E779" s="2"/>
-      <c r="F779" s="32"/>
+      <c r="F779" s="28"/>
       <c r="G779" s="2"/>
       <c r="H779" s="2"/>
       <c r="I779" s="2"/>
@@ -13874,7 +13892,7 @@
       <c r="C780" s="2"/>
       <c r="D780" s="27"/>
       <c r="E780" s="2"/>
-      <c r="F780" s="32"/>
+      <c r="F780" s="28"/>
       <c r="G780" s="2"/>
       <c r="H780" s="2"/>
       <c r="I780" s="2"/>
@@ -13889,7 +13907,7 @@
       <c r="C781" s="2"/>
       <c r="D781" s="27"/>
       <c r="E781" s="2"/>
-      <c r="F781" s="32"/>
+      <c r="F781" s="28"/>
       <c r="G781" s="2"/>
       <c r="H781" s="2"/>
       <c r="I781" s="2"/>
@@ -13904,7 +13922,7 @@
       <c r="C782" s="2"/>
       <c r="D782" s="27"/>
       <c r="E782" s="2"/>
-      <c r="F782" s="32"/>
+      <c r="F782" s="28"/>
       <c r="G782" s="2"/>
       <c r="H782" s="2"/>
       <c r="I782" s="2"/>
@@ -13919,7 +13937,7 @@
       <c r="C783" s="2"/>
       <c r="D783" s="27"/>
       <c r="E783" s="2"/>
-      <c r="F783" s="32"/>
+      <c r="F783" s="28"/>
       <c r="G783" s="2"/>
       <c r="H783" s="2"/>
       <c r="I783" s="2"/>
@@ -13934,7 +13952,7 @@
       <c r="C784" s="2"/>
       <c r="D784" s="27"/>
       <c r="E784" s="2"/>
-      <c r="F784" s="32"/>
+      <c r="F784" s="28"/>
       <c r="G784" s="2"/>
       <c r="H784" s="2"/>
       <c r="I784" s="2"/>
@@ -13949,7 +13967,7 @@
       <c r="C785" s="2"/>
       <c r="D785" s="27"/>
       <c r="E785" s="2"/>
-      <c r="F785" s="32"/>
+      <c r="F785" s="28"/>
       <c r="G785" s="2"/>
       <c r="H785" s="2"/>
       <c r="I785" s="2"/>
@@ -13964,7 +13982,7 @@
       <c r="C786" s="2"/>
       <c r="D786" s="27"/>
       <c r="E786" s="2"/>
-      <c r="F786" s="32"/>
+      <c r="F786" s="28"/>
       <c r="G786" s="2"/>
       <c r="H786" s="2"/>
       <c r="I786" s="2"/>
@@ -13979,7 +13997,7 @@
       <c r="C787" s="2"/>
       <c r="D787" s="27"/>
       <c r="E787" s="2"/>
-      <c r="F787" s="32"/>
+      <c r="F787" s="28"/>
       <c r="G787" s="2"/>
       <c r="H787" s="2"/>
       <c r="I787" s="2"/>
@@ -13994,7 +14012,7 @@
       <c r="C788" s="2"/>
       <c r="D788" s="27"/>
       <c r="E788" s="2"/>
-      <c r="F788" s="32"/>
+      <c r="F788" s="28"/>
       <c r="G788" s="2"/>
       <c r="H788" s="2"/>
       <c r="I788" s="2"/>
@@ -14009,7 +14027,7 @@
       <c r="C789" s="2"/>
       <c r="D789" s="27"/>
       <c r="E789" s="2"/>
-      <c r="F789" s="32"/>
+      <c r="F789" s="28"/>
       <c r="G789" s="2"/>
       <c r="H789" s="2"/>
       <c r="I789" s="2"/>
@@ -14024,7 +14042,7 @@
       <c r="C790" s="2"/>
       <c r="D790" s="27"/>
       <c r="E790" s="2"/>
-      <c r="F790" s="32"/>
+      <c r="F790" s="28"/>
       <c r="G790" s="2"/>
       <c r="H790" s="2"/>
       <c r="I790" s="2"/>
@@ -14039,7 +14057,7 @@
       <c r="C791" s="2"/>
       <c r="D791" s="27"/>
       <c r="E791" s="2"/>
-      <c r="F791" s="32"/>
+      <c r="F791" s="28"/>
       <c r="G791" s="2"/>
       <c r="H791" s="2"/>
       <c r="I791" s="2"/>
@@ -14054,7 +14072,7 @@
       <c r="C792" s="2"/>
       <c r="D792" s="27"/>
       <c r="E792" s="2"/>
-      <c r="F792" s="32"/>
+      <c r="F792" s="28"/>
       <c r="G792" s="2"/>
       <c r="H792" s="2"/>
       <c r="I792" s="2"/>
@@ -14069,7 +14087,7 @@
       <c r="C793" s="2"/>
       <c r="D793" s="27"/>
       <c r="E793" s="2"/>
-      <c r="F793" s="32"/>
+      <c r="F793" s="28"/>
       <c r="G793" s="2"/>
       <c r="H793" s="2"/>
       <c r="I793" s="2"/>
@@ -14084,7 +14102,7 @@
       <c r="C794" s="2"/>
       <c r="D794" s="27"/>
       <c r="E794" s="2"/>
-      <c r="F794" s="32"/>
+      <c r="F794" s="28"/>
       <c r="G794" s="2"/>
       <c r="H794" s="2"/>
       <c r="I794" s="2"/>
@@ -14099,7 +14117,7 @@
       <c r="C795" s="2"/>
       <c r="D795" s="27"/>
       <c r="E795" s="2"/>
-      <c r="F795" s="32"/>
+      <c r="F795" s="28"/>
       <c r="G795" s="2"/>
       <c r="H795" s="2"/>
       <c r="I795" s="2"/>
@@ -14114,7 +14132,7 @@
       <c r="C796" s="2"/>
       <c r="D796" s="27"/>
       <c r="E796" s="2"/>
-      <c r="F796" s="32"/>
+      <c r="F796" s="28"/>
       <c r="G796" s="2"/>
       <c r="H796" s="2"/>
       <c r="I796" s="2"/>
@@ -14129,7 +14147,7 @@
       <c r="C797" s="2"/>
       <c r="D797" s="27"/>
       <c r="E797" s="2"/>
-      <c r="F797" s="32"/>
+      <c r="F797" s="28"/>
       <c r="G797" s="2"/>
       <c r="H797" s="2"/>
       <c r="I797" s="2"/>
@@ -14144,7 +14162,7 @@
       <c r="C798" s="2"/>
       <c r="D798" s="27"/>
       <c r="E798" s="2"/>
-      <c r="F798" s="32"/>
+      <c r="F798" s="28"/>
       <c r="G798" s="2"/>
       <c r="H798" s="2"/>
       <c r="I798" s="2"/>
@@ -14159,7 +14177,7 @@
       <c r="C799" s="2"/>
       <c r="D799" s="27"/>
       <c r="E799" s="2"/>
-      <c r="F799" s="32"/>
+      <c r="F799" s="28"/>
       <c r="G799" s="2"/>
       <c r="H799" s="2"/>
       <c r="I799" s="2"/>
@@ -14174,7 +14192,7 @@
       <c r="C800" s="2"/>
       <c r="D800" s="27"/>
       <c r="E800" s="2"/>
-      <c r="F800" s="32"/>
+      <c r="F800" s="28"/>
       <c r="G800" s="2"/>
       <c r="H800" s="2"/>
       <c r="I800" s="2"/>
@@ -14189,7 +14207,7 @@
       <c r="C801" s="2"/>
       <c r="D801" s="27"/>
       <c r="E801" s="2"/>
-      <c r="F801" s="32"/>
+      <c r="F801" s="28"/>
       <c r="G801" s="2"/>
       <c r="H801" s="2"/>
       <c r="I801" s="2"/>
@@ -14204,7 +14222,7 @@
       <c r="C802" s="2"/>
       <c r="D802" s="27"/>
       <c r="E802" s="2"/>
-      <c r="F802" s="32"/>
+      <c r="F802" s="28"/>
       <c r="G802" s="2"/>
       <c r="H802" s="2"/>
       <c r="I802" s="2"/>
@@ -14219,7 +14237,7 @@
       <c r="C803" s="2"/>
       <c r="D803" s="27"/>
       <c r="E803" s="2"/>
-      <c r="F803" s="32"/>
+      <c r="F803" s="28"/>
       <c r="G803" s="2"/>
       <c r="H803" s="2"/>
       <c r="I803" s="2"/>
@@ -14234,7 +14252,7 @@
       <c r="C804" s="2"/>
       <c r="D804" s="27"/>
       <c r="E804" s="2"/>
-      <c r="F804" s="32"/>
+      <c r="F804" s="28"/>
       <c r="G804" s="2"/>
       <c r="H804" s="2"/>
       <c r="I804" s="2"/>
@@ -14249,7 +14267,7 @@
       <c r="C805" s="2"/>
       <c r="D805" s="27"/>
       <c r="E805" s="2"/>
-      <c r="F805" s="32"/>
+      <c r="F805" s="28"/>
       <c r="G805" s="2"/>
       <c r="H805" s="2"/>
       <c r="I805" s="2"/>
@@ -14264,7 +14282,7 @@
       <c r="C806" s="2"/>
       <c r="D806" s="27"/>
       <c r="E806" s="2"/>
-      <c r="F806" s="32"/>
+      <c r="F806" s="28"/>
       <c r="G806" s="2"/>
       <c r="H806" s="2"/>
       <c r="I806" s="2"/>
@@ -14279,7 +14297,7 @@
       <c r="C807" s="2"/>
       <c r="D807" s="27"/>
       <c r="E807" s="2"/>
-      <c r="F807" s="32"/>
+      <c r="F807" s="28"/>
       <c r="G807" s="2"/>
       <c r="H807" s="2"/>
       <c r="I807" s="2"/>
@@ -14294,7 +14312,7 @@
       <c r="C808" s="2"/>
       <c r="D808" s="27"/>
       <c r="E808" s="2"/>
-      <c r="F808" s="32"/>
+      <c r="F808" s="28"/>
       <c r="G808" s="2"/>
       <c r="H808" s="2"/>
       <c r="I808" s="2"/>
@@ -14309,7 +14327,7 @@
       <c r="C809" s="2"/>
       <c r="D809" s="27"/>
       <c r="E809" s="2"/>
-      <c r="F809" s="32"/>
+      <c r="F809" s="28"/>
       <c r="G809" s="2"/>
       <c r="H809" s="2"/>
       <c r="I809" s="2"/>
@@ -14324,7 +14342,7 @@
       <c r="C810" s="2"/>
       <c r="D810" s="27"/>
       <c r="E810" s="2"/>
-      <c r="F810" s="32"/>
+      <c r="F810" s="28"/>
       <c r="G810" s="2"/>
       <c r="H810" s="2"/>
       <c r="I810" s="2"/>
@@ -14339,7 +14357,7 @@
       <c r="C811" s="2"/>
       <c r="D811" s="27"/>
       <c r="E811" s="2"/>
-      <c r="F811" s="32"/>
+      <c r="F811" s="28"/>
       <c r="G811" s="2"/>
       <c r="H811" s="2"/>
       <c r="I811" s="2"/>
@@ -14354,7 +14372,7 @@
       <c r="C812" s="2"/>
       <c r="D812" s="27"/>
       <c r="E812" s="2"/>
-      <c r="F812" s="32"/>
+      <c r="F812" s="28"/>
       <c r="G812" s="2"/>
       <c r="H812" s="2"/>
       <c r="I812" s="2"/>
@@ -14369,7 +14387,7 @@
       <c r="C813" s="2"/>
       <c r="D813" s="27"/>
       <c r="E813" s="2"/>
-      <c r="F813" s="32"/>
+      <c r="F813" s="28"/>
       <c r="G813" s="2"/>
       <c r="H813" s="2"/>
       <c r="I813" s="2"/>
@@ -14384,7 +14402,7 @@
       <c r="C814" s="2"/>
       <c r="D814" s="27"/>
       <c r="E814" s="2"/>
-      <c r="F814" s="32"/>
+      <c r="F814" s="28"/>
       <c r="G814" s="2"/>
       <c r="H814" s="2"/>
       <c r="I814" s="2"/>
@@ -14399,7 +14417,7 @@
       <c r="C815" s="2"/>
       <c r="D815" s="27"/>
       <c r="E815" s="2"/>
-      <c r="F815" s="32"/>
+      <c r="F815" s="28"/>
       <c r="G815" s="2"/>
       <c r="H815" s="2"/>
       <c r="I815" s="2"/>
@@ -14414,7 +14432,7 @@
       <c r="C816" s="2"/>
       <c r="D816" s="27"/>
       <c r="E816" s="2"/>
-      <c r="F816" s="32"/>
+      <c r="F816" s="28"/>
       <c r="G816" s="2"/>
       <c r="H816" s="2"/>
       <c r="I816" s="2"/>
@@ -14429,7 +14447,7 @@
       <c r="C817" s="2"/>
       <c r="D817" s="27"/>
       <c r="E817" s="2"/>
-      <c r="F817" s="32"/>
+      <c r="F817" s="28"/>
       <c r="G817" s="2"/>
       <c r="H817" s="2"/>
       <c r="I817" s="2"/>
@@ -14444,7 +14462,7 @@
       <c r="C818" s="2"/>
       <c r="D818" s="27"/>
       <c r="E818" s="2"/>
-      <c r="F818" s="32"/>
+      <c r="F818" s="28"/>
       <c r="G818" s="2"/>
       <c r="H818" s="2"/>
       <c r="I818" s="2"/>
@@ -14459,7 +14477,7 @@
       <c r="C819" s="2"/>
       <c r="D819" s="27"/>
       <c r="E819" s="2"/>
-      <c r="F819" s="32"/>
+      <c r="F819" s="28"/>
       <c r="G819" s="2"/>
       <c r="H819" s="2"/>
       <c r="I819" s="2"/>
@@ -14474,7 +14492,7 @@
       <c r="C820" s="2"/>
       <c r="D820" s="27"/>
       <c r="E820" s="2"/>
-      <c r="F820" s="32"/>
+      <c r="F820" s="28"/>
       <c r="G820" s="2"/>
       <c r="H820" s="2"/>
       <c r="I820" s="2"/>
@@ -14489,7 +14507,7 @@
       <c r="C821" s="2"/>
       <c r="D821" s="27"/>
       <c r="E821" s="2"/>
-      <c r="F821" s="32"/>
+      <c r="F821" s="28"/>
       <c r="G821" s="2"/>
       <c r="H821" s="2"/>
       <c r="I821" s="2"/>
@@ -14504,7 +14522,7 @@
       <c r="C822" s="2"/>
       <c r="D822" s="27"/>
       <c r="E822" s="2"/>
-      <c r="F822" s="32"/>
+      <c r="F822" s="28"/>
       <c r="G822" s="2"/>
       <c r="H822" s="2"/>
       <c r="I822" s="2"/>
@@ -14519,7 +14537,7 @@
       <c r="C823" s="2"/>
       <c r="D823" s="27"/>
       <c r="E823" s="2"/>
-      <c r="F823" s="32"/>
+      <c r="F823" s="28"/>
       <c r="G823" s="2"/>
       <c r="H823" s="2"/>
       <c r="I823" s="2"/>
@@ -14534,7 +14552,7 @@
       <c r="C824" s="2"/>
       <c r="D824" s="27"/>
       <c r="E824" s="2"/>
-      <c r="F824" s="32"/>
+      <c r="F824" s="28"/>
       <c r="G824" s="2"/>
       <c r="H824" s="2"/>
       <c r="I824" s="2"/>
@@ -14549,7 +14567,7 @@
       <c r="C825" s="2"/>
       <c r="D825" s="27"/>
       <c r="E825" s="2"/>
-      <c r="F825" s="32"/>
+      <c r="F825" s="28"/>
       <c r="G825" s="2"/>
       <c r="H825" s="2"/>
       <c r="I825" s="2"/>
@@ -14564,7 +14582,7 @@
       <c r="C826" s="2"/>
       <c r="D826" s="27"/>
       <c r="E826" s="2"/>
-      <c r="F826" s="32"/>
+      <c r="F826" s="28"/>
       <c r="G826" s="2"/>
       <c r="H826" s="2"/>
       <c r="I826" s="2"/>
@@ -14579,7 +14597,7 @@
       <c r="C827" s="2"/>
       <c r="D827" s="27"/>
       <c r="E827" s="2"/>
-      <c r="F827" s="32"/>
+      <c r="F827" s="28"/>
       <c r="G827" s="2"/>
       <c r="H827" s="2"/>
       <c r="I827" s="2"/>
@@ -14594,7 +14612,7 @@
       <c r="C828" s="2"/>
       <c r="D828" s="27"/>
       <c r="E828" s="2"/>
-      <c r="F828" s="32"/>
+      <c r="F828" s="28"/>
       <c r="G828" s="2"/>
       <c r="H828" s="2"/>
       <c r="I828" s="2"/>
@@ -14609,7 +14627,7 @@
       <c r="C829" s="2"/>
       <c r="D829" s="27"/>
       <c r="E829" s="2"/>
-      <c r="F829" s="32"/>
+      <c r="F829" s="28"/>
       <c r="G829" s="2"/>
       <c r="H829" s="2"/>
       <c r="I829" s="2"/>
@@ -14624,7 +14642,7 @@
       <c r="C830" s="2"/>
       <c r="D830" s="27"/>
       <c r="E830" s="2"/>
-      <c r="F830" s="32"/>
+      <c r="F830" s="28"/>
       <c r="G830" s="2"/>
       <c r="H830" s="2"/>
       <c r="I830" s="2"/>
@@ -14639,7 +14657,7 @@
       <c r="C831" s="2"/>
       <c r="D831" s="27"/>
       <c r="E831" s="2"/>
-      <c r="F831" s="32"/>
+      <c r="F831" s="28"/>
       <c r="G831" s="2"/>
       <c r="H831" s="2"/>
       <c r="I831" s="2"/>
@@ -14654,7 +14672,7 @@
       <c r="C832" s="2"/>
       <c r="D832" s="27"/>
       <c r="E832" s="2"/>
-      <c r="F832" s="32"/>
+      <c r="F832" s="28"/>
       <c r="G832" s="2"/>
       <c r="H832" s="2"/>
       <c r="I832" s="2"/>
@@ -14669,7 +14687,7 @@
       <c r="C833" s="2"/>
       <c r="D833" s="27"/>
       <c r="E833" s="2"/>
-      <c r="F833" s="32"/>
+      <c r="F833" s="28"/>
       <c r="G833" s="2"/>
       <c r="H833" s="2"/>
       <c r="I833" s="2"/>
@@ -14684,7 +14702,7 @@
       <c r="C834" s="2"/>
       <c r="D834" s="27"/>
       <c r="E834" s="2"/>
-      <c r="F834" s="32"/>
+      <c r="F834" s="28"/>
       <c r="G834" s="2"/>
       <c r="H834" s="2"/>
       <c r="I834" s="2"/>
@@ -14699,7 +14717,7 @@
       <c r="C835" s="2"/>
       <c r="D835" s="27"/>
       <c r="E835" s="2"/>
-      <c r="F835" s="32"/>
+      <c r="F835" s="28"/>
       <c r="G835" s="2"/>
       <c r="H835" s="2"/>
       <c r="I835" s="2"/>
@@ -14714,7 +14732,7 @@
       <c r="C836" s="2"/>
       <c r="D836" s="27"/>
       <c r="E836" s="2"/>
-      <c r="F836" s="32"/>
+      <c r="F836" s="28"/>
       <c r="G836" s="2"/>
       <c r="H836" s="2"/>
       <c r="I836" s="2"/>
@@ -14729,7 +14747,7 @@
       <c r="C837" s="2"/>
       <c r="D837" s="27"/>
       <c r="E837" s="2"/>
-      <c r="F837" s="32"/>
+      <c r="F837" s="28"/>
       <c r="G837" s="2"/>
       <c r="H837" s="2"/>
       <c r="I837" s="2"/>
@@ -14744,7 +14762,7 @@
       <c r="C838" s="2"/>
       <c r="D838" s="27"/>
       <c r="E838" s="2"/>
-      <c r="F838" s="32"/>
+      <c r="F838" s="28"/>
       <c r="G838" s="2"/>
       <c r="H838" s="2"/>
       <c r="I838" s="2"/>
@@ -14759,7 +14777,7 @@
       <c r="C839" s="2"/>
       <c r="D839" s="27"/>
       <c r="E839" s="2"/>
-      <c r="F839" s="32"/>
+      <c r="F839" s="28"/>
       <c r="G839" s="2"/>
       <c r="H839" s="2"/>
       <c r="I839" s="2"/>
@@ -14774,7 +14792,7 @@
       <c r="C840" s="2"/>
       <c r="D840" s="27"/>
       <c r="E840" s="2"/>
-      <c r="F840" s="32"/>
+      <c r="F840" s="28"/>
       <c r="G840" s="2"/>
       <c r="H840" s="2"/>
       <c r="I840" s="2"/>
@@ -14789,7 +14807,7 @@
       <c r="C841" s="2"/>
       <c r="D841" s="27"/>
       <c r="E841" s="2"/>
-      <c r="F841" s="32"/>
+      <c r="F841" s="28"/>
       <c r="G841" s="2"/>
       <c r="H841" s="2"/>
       <c r="I841" s="2"/>
@@ -14804,7 +14822,7 @@
       <c r="C842" s="2"/>
       <c r="D842" s="27"/>
       <c r="E842" s="2"/>
-      <c r="F842" s="32"/>
+      <c r="F842" s="28"/>
       <c r="G842" s="2"/>
       <c r="H842" s="2"/>
       <c r="I842" s="2"/>
@@ -14819,7 +14837,7 @@
       <c r="C843" s="2"/>
       <c r="D843" s="27"/>
       <c r="E843" s="2"/>
-      <c r="F843" s="32"/>
+      <c r="F843" s="28"/>
       <c r="G843" s="2"/>
       <c r="H843" s="2"/>
       <c r="I843" s="2"/>
@@ -14834,7 +14852,7 @@
       <c r="C844" s="2"/>
       <c r="D844" s="27"/>
       <c r="E844" s="2"/>
-      <c r="F844" s="32"/>
+      <c r="F844" s="28"/>
       <c r="G844" s="2"/>
       <c r="H844" s="2"/>
       <c r="I844" s="2"/>
@@ -14849,7 +14867,7 @@
       <c r="C845" s="2"/>
       <c r="D845" s="27"/>
       <c r="E845" s="2"/>
-      <c r="F845" s="32"/>
+      <c r="F845" s="28"/>
       <c r="G845" s="2"/>
       <c r="H845" s="2"/>
       <c r="I845" s="2"/>
@@ -14864,7 +14882,7 @@
       <c r="C846" s="2"/>
       <c r="D846" s="27"/>
       <c r="E846" s="2"/>
-      <c r="F846" s="32"/>
+      <c r="F846" s="28"/>
       <c r="G846" s="2"/>
       <c r="H846" s="2"/>
       <c r="I846" s="2"/>
@@ -14879,7 +14897,7 @@
       <c r="C847" s="2"/>
       <c r="D847" s="27"/>
       <c r="E847" s="2"/>
-      <c r="F847" s="32"/>
+      <c r="F847" s="28"/>
       <c r="G847" s="2"/>
       <c r="H847" s="2"/>
       <c r="I847" s="2"/>
@@ -14894,7 +14912,7 @@
       <c r="C848" s="2"/>
       <c r="D848" s="27"/>
       <c r="E848" s="2"/>
-      <c r="F848" s="32"/>
+      <c r="F848" s="28"/>
       <c r="G848" s="2"/>
       <c r="H848" s="2"/>
       <c r="I848" s="2"/>
@@ -14909,7 +14927,7 @@
       <c r="C849" s="2"/>
       <c r="D849" s="27"/>
       <c r="E849" s="2"/>
-      <c r="F849" s="32"/>
+      <c r="F849" s="28"/>
       <c r="G849" s="2"/>
       <c r="H849" s="2"/>
       <c r="I849" s="2"/>
@@ -14924,7 +14942,7 @@
       <c r="C850" s="2"/>
       <c r="D850" s="27"/>
       <c r="E850" s="2"/>
-      <c r="F850" s="32"/>
+      <c r="F850" s="28"/>
       <c r="G850" s="2"/>
       <c r="H850" s="2"/>
       <c r="I850" s="2"/>
@@ -14939,7 +14957,7 @@
       <c r="C851" s="2"/>
       <c r="D851" s="27"/>
       <c r="E851" s="2"/>
-      <c r="F851" s="32"/>
+      <c r="F851" s="28"/>
       <c r="G851" s="2"/>
       <c r="H851" s="2"/>
       <c r="I851" s="2"/>
@@ -14954,7 +14972,7 @@
       <c r="C852" s="2"/>
       <c r="D852" s="27"/>
       <c r="E852" s="2"/>
-      <c r="F852" s="32"/>
+      <c r="F852" s="28"/>
       <c r="G852" s="2"/>
       <c r="H852" s="2"/>
       <c r="I852" s="2"/>
@@ -14969,7 +14987,7 @@
       <c r="C853" s="2"/>
       <c r="D853" s="27"/>
       <c r="E853" s="2"/>
-      <c r="F853" s="32"/>
+      <c r="F853" s="28"/>
       <c r="G853" s="2"/>
       <c r="H853" s="2"/>
       <c r="I853" s="2"/>
@@ -14984,7 +15002,7 @@
       <c r="C854" s="2"/>
       <c r="D854" s="27"/>
       <c r="E854" s="2"/>
-      <c r="F854" s="32"/>
+      <c r="F854" s="28"/>
       <c r="G854" s="2"/>
       <c r="H854" s="2"/>
       <c r="I854" s="2"/>
@@ -14999,7 +15017,7 @@
       <c r="C855" s="2"/>
       <c r="D855" s="27"/>
       <c r="E855" s="2"/>
-      <c r="F855" s="32"/>
+      <c r="F855" s="28"/>
       <c r="G855" s="2"/>
       <c r="H855" s="2"/>
       <c r="I855" s="2"/>
@@ -15014,7 +15032,7 @@
       <c r="C856" s="2"/>
       <c r="D856" s="27"/>
       <c r="E856" s="2"/>
-      <c r="F856" s="32"/>
+      <c r="F856" s="28"/>
       <c r="G856" s="2"/>
       <c r="H856" s="2"/>
       <c r="I856" s="2"/>
@@ -15029,7 +15047,7 @@
       <c r="C857" s="2"/>
       <c r="D857" s="27"/>
       <c r="E857" s="2"/>
-      <c r="F857" s="32"/>
+      <c r="F857" s="28"/>
       <c r="G857" s="2"/>
       <c r="H857" s="2"/>
       <c r="I857" s="2"/>
@@ -15044,7 +15062,7 @@
       <c r="C858" s="2"/>
       <c r="D858" s="27"/>
       <c r="E858" s="2"/>
-      <c r="F858" s="32"/>
+      <c r="F858" s="28"/>
       <c r="G858" s="2"/>
       <c r="H858" s="2"/>
       <c r="I858" s="2"/>
@@ -15059,7 +15077,7 @@
       <c r="C859" s="2"/>
       <c r="D859" s="27"/>
       <c r="E859" s="2"/>
-      <c r="F859" s="32"/>
+      <c r="F859" s="28"/>
       <c r="G859" s="2"/>
       <c r="H859" s="2"/>
       <c r="I859" s="2"/>
@@ -15074,7 +15092,7 @@
       <c r="C860" s="2"/>
       <c r="D860" s="27"/>
       <c r="E860" s="2"/>
-      <c r="F860" s="32"/>
+      <c r="F860" s="28"/>
       <c r="G860" s="2"/>
       <c r="H860" s="2"/>
       <c r="I860" s="2"/>
@@ -15089,7 +15107,7 @@
       <c r="C861" s="2"/>
       <c r="D861" s="27"/>
       <c r="E861" s="2"/>
-      <c r="F861" s="32"/>
+      <c r="F861" s="28"/>
       <c r="G861" s="2"/>
       <c r="H861" s="2"/>
       <c r="I861" s="2"/>
@@ -15104,7 +15122,7 @@
       <c r="C862" s="2"/>
       <c r="D862" s="27"/>
       <c r="E862" s="2"/>
-      <c r="F862" s="32"/>
+      <c r="F862" s="28"/>
       <c r="G862" s="2"/>
       <c r="H862" s="2"/>
       <c r="I862" s="2"/>
@@ -15119,7 +15137,7 @@
       <c r="C863" s="2"/>
       <c r="D863" s="27"/>
       <c r="E863" s="2"/>
-      <c r="F863" s="32"/>
+      <c r="F863" s="28"/>
       <c r="G863" s="2"/>
       <c r="H863" s="2"/>
       <c r="I863" s="2"/>
@@ -15134,7 +15152,7 @@
       <c r="C864" s="2"/>
       <c r="D864" s="27"/>
       <c r="E864" s="2"/>
-      <c r="F864" s="32"/>
+      <c r="F864" s="28"/>
       <c r="G864" s="2"/>
       <c r="H864" s="2"/>
       <c r="I864" s="2"/>
@@ -15149,7 +15167,7 @@
       <c r="C865" s="2"/>
       <c r="D865" s="27"/>
       <c r="E865" s="2"/>
-      <c r="F865" s="32"/>
+      <c r="F865" s="28"/>
       <c r="G865" s="2"/>
       <c r="H865" s="2"/>
       <c r="I865" s="2"/>
@@ -15164,7 +15182,7 @@
       <c r="C866" s="2"/>
       <c r="D866" s="27"/>
       <c r="E866" s="2"/>
-      <c r="F866" s="32"/>
+      <c r="F866" s="28"/>
       <c r="G866" s="2"/>
       <c r="H866" s="2"/>
       <c r="I866" s="2"/>
@@ -15179,7 +15197,7 @@
       <c r="C867" s="2"/>
       <c r="D867" s="27"/>
       <c r="E867" s="2"/>
-      <c r="F867" s="32"/>
+      <c r="F867" s="28"/>
       <c r="G867" s="2"/>
       <c r="H867" s="2"/>
       <c r="I867" s="2"/>
@@ -15194,7 +15212,7 @@
       <c r="C868" s="2"/>
       <c r="D868" s="27"/>
       <c r="E868" s="2"/>
-      <c r="F868" s="32"/>
+      <c r="F868" s="28"/>
       <c r="G868" s="2"/>
       <c r="H868" s="2"/>
       <c r="I868" s="2"/>
@@ -15209,7 +15227,7 @@
       <c r="C869" s="2"/>
       <c r="D869" s="27"/>
       <c r="E869" s="2"/>
-      <c r="F869" s="32"/>
+      <c r="F869" s="28"/>
       <c r="G869" s="2"/>
       <c r="H869" s="2"/>
       <c r="I869" s="2"/>
@@ -15224,7 +15242,7 @@
       <c r="C870" s="2"/>
       <c r="D870" s="27"/>
       <c r="E870" s="2"/>
-      <c r="F870" s="32"/>
+      <c r="F870" s="28"/>
       <c r="G870" s="2"/>
       <c r="H870" s="2"/>
       <c r="I870" s="2"/>
@@ -15239,7 +15257,7 @@
       <c r="C871" s="2"/>
       <c r="D871" s="27"/>
       <c r="E871" s="2"/>
-      <c r="F871" s="32"/>
+      <c r="F871" s="28"/>
       <c r="G871" s="2"/>
       <c r="H871" s="2"/>
       <c r="I871" s="2"/>
@@ -15254,7 +15272,7 @@
       <c r="C872" s="2"/>
       <c r="D872" s="27"/>
       <c r="E872" s="2"/>
-      <c r="F872" s="32"/>
+      <c r="F872" s="28"/>
       <c r="G872" s="2"/>
       <c r="H872" s="2"/>
       <c r="I872" s="2"/>
@@ -15269,7 +15287,7 @@
       <c r="C873" s="2"/>
       <c r="D873" s="27"/>
       <c r="E873" s="2"/>
-      <c r="F873" s="32"/>
+      <c r="F873" s="28"/>
       <c r="G873" s="2"/>
       <c r="H873" s="2"/>
       <c r="I873" s="2"/>
@@ -15284,7 +15302,7 @@
       <c r="C874" s="2"/>
       <c r="D874" s="27"/>
       <c r="E874" s="2"/>
-      <c r="F874" s="32"/>
+      <c r="F874" s="28"/>
       <c r="G874" s="2"/>
       <c r="H874" s="2"/>
       <c r="I874" s="2"/>
@@ -15299,7 +15317,7 @@
       <c r="C875" s="2"/>
       <c r="D875" s="27"/>
       <c r="E875" s="2"/>
-      <c r="F875" s="32"/>
+      <c r="F875" s="28"/>
       <c r="G875" s="2"/>
       <c r="H875" s="2"/>
       <c r="I875" s="2"/>
@@ -15314,7 +15332,7 @@
       <c r="C876" s="2"/>
       <c r="D876" s="27"/>
       <c r="E876" s="2"/>
-      <c r="F876" s="32"/>
+      <c r="F876" s="28"/>
       <c r="G876" s="2"/>
       <c r="H876" s="2"/>
       <c r="I876" s="2"/>
@@ -15329,7 +15347,7 @@
       <c r="C877" s="2"/>
       <c r="D877" s="27"/>
       <c r="E877" s="2"/>
-      <c r="F877" s="32"/>
+      <c r="F877" s="28"/>
       <c r="G877" s="2"/>
       <c r="H877" s="2"/>
       <c r="I877" s="2"/>
@@ -15344,7 +15362,7 @@
       <c r="C878" s="2"/>
       <c r="D878" s="27"/>
       <c r="E878" s="2"/>
-      <c r="F878" s="32"/>
+      <c r="F878" s="28"/>
       <c r="G878" s="2"/>
       <c r="H878" s="2"/>
       <c r="I878" s="2"/>
@@ -15359,7 +15377,7 @@
       <c r="C879" s="2"/>
       <c r="D879" s="27"/>
       <c r="E879" s="2"/>
-      <c r="F879" s="32"/>
+      <c r="F879" s="28"/>
       <c r="G879" s="2"/>
       <c r="H879" s="2"/>
       <c r="I879" s="2"/>
@@ -15374,7 +15392,7 @@
       <c r="C880" s="2"/>
       <c r="D880" s="27"/>
       <c r="E880" s="2"/>
-      <c r="F880" s="32"/>
+      <c r="F880" s="28"/>
       <c r="G880" s="2"/>
       <c r="H880" s="2"/>
       <c r="I880" s="2"/>
@@ -15389,7 +15407,7 @@
       <c r="C881" s="2"/>
       <c r="D881" s="27"/>
       <c r="E881" s="2"/>
-      <c r="F881" s="32"/>
+      <c r="F881" s="28"/>
       <c r="G881" s="2"/>
       <c r="H881" s="2"/>
       <c r="I881" s="2"/>
@@ -15404,7 +15422,7 @@
       <c r="C882" s="2"/>
       <c r="D882" s="27"/>
       <c r="E882" s="2"/>
-      <c r="F882" s="32"/>
+      <c r="F882" s="28"/>
       <c r="G882" s="2"/>
       <c r="H882" s="2"/>
       <c r="I882" s="2"/>
@@ -15419,7 +15437,7 @@
       <c r="C883" s="2"/>
       <c r="D883" s="27"/>
       <c r="E883" s="2"/>
-      <c r="F883" s="32"/>
+      <c r="F883" s="28"/>
       <c r="G883" s="2"/>
       <c r="H883" s="2"/>
       <c r="I883" s="2"/>
@@ -15434,7 +15452,7 @@
       <c r="C884" s="2"/>
       <c r="D884" s="27"/>
       <c r="E884" s="2"/>
-      <c r="F884" s="32"/>
+      <c r="F884" s="28"/>
       <c r="G884" s="2"/>
       <c r="H884" s="2"/>
       <c r="I884" s="2"/>
@@ -15449,7 +15467,7 @@
       <c r="C885" s="2"/>
       <c r="D885" s="27"/>
       <c r="E885" s="2"/>
-      <c r="F885" s="32"/>
+      <c r="F885" s="28"/>
       <c r="G885" s="2"/>
       <c r="H885" s="2"/>
       <c r="I885" s="2"/>
@@ -15464,7 +15482,7 @@
       <c r="C886" s="2"/>
       <c r="D886" s="27"/>
       <c r="E886" s="2"/>
-      <c r="F886" s="32"/>
+      <c r="F886" s="28"/>
       <c r="G886" s="2"/>
       <c r="H886" s="2"/>
       <c r="I886" s="2"/>
@@ -15479,7 +15497,7 @@
       <c r="C887" s="2"/>
       <c r="D887" s="27"/>
       <c r="E887" s="2"/>
-      <c r="F887" s="32"/>
+      <c r="F887" s="28"/>
       <c r="G887" s="2"/>
       <c r="H887" s="2"/>
       <c r="I887" s="2"/>
@@ -15494,7 +15512,7 @@
       <c r="C888" s="2"/>
       <c r="D888" s="27"/>
       <c r="E888" s="2"/>
-      <c r="F888" s="32"/>
+      <c r="F888" s="28"/>
       <c r="G888" s="2"/>
       <c r="H888" s="2"/>
       <c r="I888" s="2"/>
@@ -15509,7 +15527,7 @@
       <c r="C889" s="2"/>
       <c r="D889" s="27"/>
       <c r="E889" s="2"/>
-      <c r="F889" s="32"/>
+      <c r="F889" s="28"/>
       <c r="G889" s="2"/>
       <c r="H889" s="2"/>
       <c r="I889" s="2"/>
@@ -15524,7 +15542,7 @@
       <c r="C890" s="2"/>
       <c r="D890" s="27"/>
       <c r="E890" s="2"/>
-      <c r="F890" s="32"/>
+      <c r="F890" s="28"/>
       <c r="G890" s="2"/>
       <c r="H890" s="2"/>
       <c r="I890" s="2"/>
@@ -15539,7 +15557,7 @@
       <c r="C891" s="2"/>
       <c r="D891" s="27"/>
       <c r="E891" s="2"/>
-      <c r="F891" s="32"/>
+      <c r="F891" s="28"/>
       <c r="G891" s="2"/>
       <c r="H891" s="2"/>
       <c r="I891" s="2"/>
@@ -15554,7 +15572,7 @@
       <c r="C892" s="2"/>
       <c r="D892" s="27"/>
       <c r="E892" s="2"/>
-      <c r="F892" s="32"/>
+      <c r="F892" s="28"/>
       <c r="G892" s="2"/>
       <c r="H892" s="2"/>
       <c r="I892" s="2"/>
@@ -15569,7 +15587,7 @@
       <c r="C893" s="2"/>
       <c r="D893" s="27"/>
       <c r="E893" s="2"/>
-      <c r="F893" s="32"/>
+      <c r="F893" s="28"/>
       <c r="G893" s="2"/>
       <c r="H893" s="2"/>
       <c r="I893" s="2"/>
@@ -15584,7 +15602,7 @@
       <c r="C894" s="2"/>
       <c r="D894" s="27"/>
       <c r="E894" s="2"/>
-      <c r="F894" s="32"/>
+      <c r="F894" s="28"/>
       <c r="G894" s="2"/>
       <c r="H894" s="2"/>
       <c r="I894" s="2"/>
@@ -15599,7 +15617,7 @@
       <c r="C895" s="2"/>
       <c r="D895" s="27"/>
       <c r="E895" s="2"/>
-      <c r="F895" s="32"/>
+      <c r="F895" s="28"/>
       <c r="G895" s="2"/>
       <c r="H895" s="2"/>
       <c r="I895" s="2"/>
@@ -15614,7 +15632,7 @@
       <c r="C896" s="2"/>
       <c r="D896" s="27"/>
       <c r="E896" s="2"/>
-      <c r="F896" s="32"/>
+      <c r="F896" s="28"/>
       <c r="G896" s="2"/>
       <c r="H896" s="2"/>
       <c r="I896" s="2"/>
@@ -15629,7 +15647,7 @@
       <c r="C897" s="2"/>
       <c r="D897" s="27"/>
       <c r="E897" s="2"/>
-      <c r="F897" s="32"/>
+      <c r="F897" s="28"/>
       <c r="G897" s="2"/>
       <c r="H897" s="2"/>
       <c r="I897" s="2"/>
@@ -15644,7 +15662,7 @@
       <c r="C898" s="2"/>
       <c r="D898" s="27"/>
       <c r="E898" s="2"/>
-      <c r="F898" s="32"/>
+      <c r="F898" s="28"/>
       <c r="G898" s="2"/>
       <c r="H898" s="2"/>
       <c r="I898" s="2"/>
@@ -15659,7 +15677,7 @@
       <c r="C899" s="2"/>
       <c r="D899" s="27"/>
       <c r="E899" s="2"/>
-      <c r="F899" s="32"/>
+      <c r="F899" s="28"/>
       <c r="G899" s="2"/>
       <c r="H899" s="2"/>
       <c r="I899" s="2"/>
@@ -15674,7 +15692,7 @@
       <c r="C900" s="2"/>
       <c r="D900" s="27"/>
       <c r="E900" s="2"/>
-      <c r="F900" s="32"/>
+      <c r="F900" s="28"/>
       <c r="G900" s="2"/>
       <c r="H900" s="2"/>
       <c r="I900" s="2"/>
@@ -15689,7 +15707,7 @@
       <c r="C901" s="2"/>
       <c r="D901" s="27"/>
       <c r="E901" s="2"/>
-      <c r="F901" s="32"/>
+      <c r="F901" s="28"/>
       <c r="G901" s="2"/>
       <c r="H901" s="2"/>
       <c r="I901" s="2"/>
@@ -15704,7 +15722,7 @@
       <c r="C902" s="2"/>
       <c r="D902" s="27"/>
       <c r="E902" s="2"/>
-      <c r="F902" s="32"/>
+      <c r="F902" s="28"/>
       <c r="G902" s="2"/>
       <c r="H902" s="2"/>
       <c r="I902" s="2"/>
@@ -15719,7 +15737,7 @@
       <c r="C903" s="2"/>
       <c r="D903" s="27"/>
       <c r="E903" s="2"/>
-      <c r="F903" s="32"/>
+      <c r="F903" s="28"/>
       <c r="G903" s="2"/>
       <c r="H903" s="2"/>
       <c r="I903" s="2"/>
@@ -15734,7 +15752,7 @@
       <c r="C904" s="2"/>
       <c r="D904" s="27"/>
       <c r="E904" s="2"/>
-      <c r="F904" s="32"/>
+      <c r="F904" s="28"/>
       <c r="G904" s="2"/>
       <c r="H904" s="2"/>
       <c r="I904" s="2"/>
@@ -15749,7 +15767,7 @@
       <c r="C905" s="2"/>
       <c r="D905" s="27"/>
       <c r="E905" s="2"/>
-      <c r="F905" s="32"/>
+      <c r="F905" s="28"/>
       <c r="G905" s="2"/>
       <c r="H905" s="2"/>
       <c r="I905" s="2"/>
@@ -15764,7 +15782,7 @@
       <c r="C906" s="2"/>
       <c r="D906" s="27"/>
       <c r="E906" s="2"/>
-      <c r="F906" s="32"/>
+      <c r="F906" s="28"/>
       <c r="G906" s="2"/>
       <c r="H906" s="2"/>
       <c r="I906" s="2"/>
@@ -15779,7 +15797,7 @@
       <c r="C907" s="2"/>
       <c r="D907" s="27"/>
       <c r="E907" s="2"/>
-      <c r="F907" s="32"/>
+      <c r="F907" s="28"/>
       <c r="G907" s="2"/>
       <c r="H907" s="2"/>
       <c r="I907" s="2"/>
@@ -15794,7 +15812,7 @@
       <c r="C908" s="2"/>
       <c r="D908" s="27"/>
       <c r="E908" s="2"/>
-      <c r="F908" s="32"/>
+      <c r="F908" s="28"/>
       <c r="G908" s="2"/>
       <c r="H908" s="2"/>
       <c r="I908" s="2"/>
@@ -15809,7 +15827,7 @@
       <c r="C909" s="2"/>
       <c r="D909" s="27"/>
       <c r="E909" s="2"/>
-      <c r="F909" s="32"/>
+      <c r="F909" s="28"/>
       <c r="G909" s="2"/>
       <c r="H909" s="2"/>
       <c r="I909" s="2"/>
@@ -15824,7 +15842,7 @@
       <c r="C910" s="2"/>
       <c r="D910" s="27"/>
       <c r="E910" s="2"/>
-      <c r="F910" s="32"/>
+      <c r="F910" s="28"/>
       <c r="G910" s="2"/>
       <c r="H910" s="2"/>
       <c r="I910" s="2"/>
@@ -15839,7 +15857,7 @@
       <c r="C911" s="2"/>
       <c r="D911" s="27"/>
       <c r="E911" s="2"/>
-      <c r="F911" s="32"/>
+      <c r="F911" s="28"/>
       <c r="G911" s="2"/>
       <c r="H911" s="2"/>
       <c r="I911" s="2"/>
@@ -15854,7 +15872,7 @@
       <c r="C912" s="2"/>
       <c r="D912" s="27"/>
       <c r="E912" s="2"/>
-      <c r="F912" s="32"/>
+      <c r="F912" s="28"/>
       <c r="G912" s="2"/>
       <c r="H912" s="2"/>
       <c r="I912" s="2"/>
@@ -15869,7 +15887,7 @@
       <c r="C913" s="2"/>
       <c r="D913" s="27"/>
       <c r="E913" s="2"/>
-      <c r="F913" s="32"/>
+      <c r="F913" s="28"/>
       <c r="G913" s="2"/>
       <c r="H913" s="2"/>
       <c r="I913" s="2"/>
@@ -15884,7 +15902,7 @@
       <c r="C914" s="2"/>
       <c r="D914" s="27"/>
       <c r="E914" s="2"/>
-      <c r="F914" s="32"/>
+      <c r="F914" s="28"/>
       <c r="G914" s="2"/>
       <c r="H914" s="2"/>
       <c r="I914" s="2"/>
@@ -15899,7 +15917,7 @@
       <c r="C915" s="2"/>
       <c r="D915" s="27"/>
       <c r="E915" s="2"/>
-      <c r="F915" s="32"/>
+      <c r="F915" s="28"/>
       <c r="G915" s="2"/>
       <c r="H915" s="2"/>
       <c r="I915" s="2"/>
@@ -15914,7 +15932,7 @@
       <c r="C916" s="2"/>
       <c r="D916" s="27"/>
       <c r="E916" s="2"/>
-      <c r="F916" s="32"/>
+      <c r="F916" s="28"/>
       <c r="G916" s="2"/>
       <c r="H916" s="2"/>
       <c r="I916" s="2"/>
@@ -15929,7 +15947,7 @@
       <c r="C917" s="2"/>
       <c r="D917" s="27"/>
       <c r="E917" s="2"/>
-      <c r="F917" s="32"/>
+      <c r="F917" s="28"/>
       <c r="G917" s="2"/>
       <c r="H917" s="2"/>
       <c r="I917" s="2"/>
@@ -15944,7 +15962,7 @@
       <c r="C918" s="2"/>
       <c r="D918" s="27"/>
       <c r="E918" s="2"/>
-      <c r="F918" s="32"/>
+      <c r="F918" s="28"/>
       <c r="G918" s="2"/>
       <c r="H918" s="2"/>
       <c r="I918" s="2"/>
@@ -15959,7 +15977,7 @@
       <c r="C919" s="2"/>
       <c r="D919" s="27"/>
       <c r="E919" s="2"/>
-      <c r="F919" s="32"/>
+      <c r="F919" s="28"/>
       <c r="G919" s="2"/>
       <c r="H919" s="2"/>
       <c r="I919" s="2"/>
@@ -15974,7 +15992,7 @@
       <c r="C920" s="2"/>
       <c r="D920" s="27"/>
       <c r="E920" s="2"/>
-      <c r="F920" s="32"/>
+      <c r="F920" s="28"/>
       <c r="G920" s="2"/>
       <c r="H920" s="2"/>
       <c r="I920" s="2"/>
@@ -15989,7 +16007,7 @@
       <c r="C921" s="2"/>
       <c r="D921" s="27"/>
       <c r="E921" s="2"/>
-      <c r="F921" s="32"/>
+      <c r="F921" s="28"/>
       <c r="G921" s="2"/>
       <c r="H921" s="2"/>
       <c r="I921" s="2"/>
@@ -16004,7 +16022,7 @@
       <c r="C922" s="2"/>
       <c r="D922" s="27"/>
       <c r="E922" s="2"/>
-      <c r="F922" s="32"/>
+      <c r="F922" s="28"/>
       <c r="G922" s="2"/>
       <c r="H922" s="2"/>
       <c r="I922" s="2"/>
@@ -16019,7 +16037,7 @@
       <c r="C923" s="6"/>
       <c r="D923" s="29"/>
       <c r="E923" s="6"/>
-      <c r="F923" s="34"/>
+      <c r="F923" s="30"/>
       <c r="G923" s="6"/>
       <c r="H923" s="6"/>
       <c r="I923" s="6"/>
@@ -16087,267 +16105,267 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="55"/>
+    <col min="1" max="1" width="9.140625" style="51"/>
     <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62">
+    <row r="1" spans="1:4" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="58">
         <v>42957</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="56" t="s">
-        <v>65</v>
+      <c r="B2" s="52" t="s">
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="56" t="s">
-        <v>66</v>
+      <c r="B3" s="52" t="s">
+        <v>65</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="56" t="s">
-        <v>67</v>
+      <c r="B4" s="52" t="s">
+        <v>66</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="56" t="s">
-        <v>74</v>
+      <c r="B5" s="52" t="s">
+        <v>73</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="56"/>
+      <c r="D5" s="52"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="56" t="s">
-        <v>69</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="54" t="s">
+        <v>70</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C8" s="52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="58" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C9" s="52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="58" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C10" s="52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="58" t="s">
-        <v>73</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="52" t="s">
+        <v>67</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C11" s="52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="56" t="s">
-        <v>68</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="58">
+        <v>42957</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="D12" s="52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="51"/>
+      <c r="B13" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="62">
-        <v>42957</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
-      <c r="B13" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="63">
+      <c r="D13" s="59">
         <v>42958</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="56" t="s">
-        <v>79</v>
+      <c r="B14" s="52" t="s">
+        <v>77</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="59">
         <v>42958</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="56" t="s">
-        <v>80</v>
+      <c r="B15" s="52" t="s">
+        <v>78</v>
       </c>
       <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="59">
         <v>42958</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="56" t="s">
-        <v>81</v>
+      <c r="B16" s="52" t="s">
+        <v>79</v>
       </c>
       <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="59">
         <v>42958</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="56" t="s">
-        <v>83</v>
+      <c r="B17" s="52" t="s">
+        <v>81</v>
       </c>
       <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="59">
         <v>42958</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="56" t="s">
-        <v>84</v>
+      <c r="B18" s="52" t="s">
+        <v>82</v>
       </c>
       <c r="C18" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="59">
         <v>42958</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="56" t="s">
-        <v>85</v>
+      <c r="B19" s="52" t="s">
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="59">
         <v>42958</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="60" t="s">
-        <v>86</v>
+      <c r="B20" s="56" t="s">
+        <v>84</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="59">
         <v>42958</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="61" t="s">
-        <v>87</v>
+      <c r="B21" s="57" t="s">
+        <v>85</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="59">
         <v>42958</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="61"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="63"/>
-    </row>
-    <row r="23" spans="2:4" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="60" t="s">
-        <v>70</v>
+    <row r="22" spans="2:4" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="57"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="59"/>
+    </row>
+    <row r="23" spans="2:4" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="56" t="s">
+        <v>69</v>
       </c>
       <c r="C23" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="59">
         <v>42961</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="60" t="s">
-        <v>88</v>
+      <c r="B24" s="56" t="s">
+        <v>86</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="59">
         <v>42961</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="60" t="s">
-        <v>89</v>
+      <c r="B25" s="56" t="s">
+        <v>87</v>
       </c>
       <c r="C25" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25" s="59">
         <v>42961</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="59" t="s">
-        <v>90</v>
+      <c r="B26" s="55" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="64" t="s">
-        <v>91</v>
+      <c r="B27" s="60" t="s">
+        <v>89</v>
       </c>
       <c r="C27" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="63">
+      <c r="D27" s="59">
         <v>42961</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="64" t="s">
-        <v>92</v>
+      <c r="B28" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="C28" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="63">
+      <c r="D28" s="59">
         <v>42961</v>
       </c>
     </row>
@@ -30170,61 +30188,61 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="31"/>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="44"/>
+    <col min="3" max="3" width="9.140625" style="41"/>
     <col min="5" max="5" width="56.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="44"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="43"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="43"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="43"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="40" t="s">
         <v>55</v>
       </c>
     </row>
@@ -30232,10 +30250,10 @@
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="42" t="s">
         <v>57</v>
       </c>
     </row>
@@ -30243,20 +30261,20 @@
       <c r="B7" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="42" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="42" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="40" t="s">
         <v>60</v>
       </c>
     </row>
@@ -30264,7 +30282,7 @@
       <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="42" t="s">
         <v>61</v>
       </c>
     </row>
@@ -30272,10 +30290,10 @@
       <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="42" t="s">
         <v>62</v>
       </c>
     </row>
@@ -30283,12 +30301,12 @@
       <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="41" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="39" t="s">
         <v>50</v>
       </c>
     </row>

--- a/VacationTracking/Vacation Tracking - Features Estimation.xlsx
+++ b/VacationTracking/Vacation Tracking - Features Estimation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="98">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -152,11 +152,6 @@
   </si>
   <si>
     <t>As a admin, I want to see the list of day off of each employee on that calendar grouped by month</t>
-  </si>
-  <si>
-    <t>- Able to see list of day off on calendar that grouped by month
-- Able to filter by employee
-- Able to see the remaning day of employee</t>
   </si>
   <si>
     <t>text Loi</t>
@@ -999,125 +994,6 @@
   </si>
   <si>
     <r>
-      <t>- Each employee will have 12 days off (configurable), every time a vacation booked, employee's days off will be reduce accordingly
-- Able to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>book vacation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> with some information such as: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>from date - to date, from hour - to hour, reason</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve">
-- Able to see my vacation on google calendar
-- After </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>submited,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> Team Lead and HR will recieve an </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>email</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> notification
-- Abe to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>edit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> submited vacation, Team Lead and HR will recieve email notification</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>- Able to</t>
     </r>
     <r>
@@ -1177,6 +1053,343 @@
   </si>
   <si>
     <t>Done, turned off send email</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Each employee will have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>12 days off (configurable)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">, every time a vacation </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>booked,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> employee's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>days off will be reduce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> accordingly
+- Able to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>book vacation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> with some information such as: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>from date - to date, from hour - to hour, reason</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>- Able to see my vacation on google calendar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">
+- After </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>submited,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> Team Lead and HR will </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>recieve an email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> notification
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">- Abe to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>edit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> submited vacation, Team Lead and HR will recieve email notification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Able to see </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>list of day off</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>calendar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>grouped by month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">
+- Able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>filter by employee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">
+- Able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>see</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>remaning day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> of employee</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1310,7 +1523,7 @@
       <charset val="163"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1332,6 +1545,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1357,7 +1576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1473,12 +1692,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1528,6 +1741,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1544,12 +1763,34 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2054,10 +2295,10 @@
   <dimension ref="A1:M923"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2067,7 +2308,7 @@
     <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="108.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="69" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="25.85546875" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
     <col min="11" max="11" width="21.28515625" customWidth="1"/>
@@ -2142,19 +2383,19 @@
       <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49" t="s">
-        <v>74</v>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47" t="s">
+        <v>73</v>
       </c>
-      <c r="F4" s="76" t="s">
-        <v>63</v>
+      <c r="F4" s="68" t="s">
+        <v>62</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="7"/>
@@ -2190,11 +2431,11 @@
         <v>14</v>
       </c>
       <c r="D6" s="37"/>
-      <c r="E6" s="45" t="s">
-        <v>75</v>
+      <c r="E6" s="43" t="s">
+        <v>74</v>
       </c>
-      <c r="F6" s="45" t="s">
-        <v>63</v>
+      <c r="F6" s="43" t="s">
+        <v>62</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="7"/>
@@ -2213,11 +2454,11 @@
         <v>18</v>
       </c>
       <c r="D7" s="37"/>
-      <c r="E7" s="45" t="s">
-        <v>76</v>
+      <c r="E7" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="7"/>
@@ -2248,7 +2489,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="1:13" s="65" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="63" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="34"/>
       <c r="B9" s="35" t="s">
         <v>9</v>
@@ -2257,42 +2498,42 @@
         <v>24</v>
       </c>
       <c r="D9" s="37"/>
-      <c r="E9" s="45" t="s">
-        <v>93</v>
+      <c r="E9" s="43" t="s">
+        <v>92</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-    </row>
-    <row r="10" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
-      <c r="B10" s="67" t="s">
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+    </row>
+    <row r="10" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="64"/>
+      <c r="B10" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69" t="s">
+      <c r="D10" s="66"/>
+      <c r="E10" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="63"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-    </row>
-    <row r="11" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="61"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+    </row>
+    <row r="11" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
       <c r="B11" s="35" t="s">
         <v>9</v>
@@ -2301,19 +2542,19 @@
         <v>29</v>
       </c>
       <c r="D11" s="37"/>
-      <c r="E11" s="45" t="s">
-        <v>92</v>
+      <c r="E11" s="43" t="s">
+        <v>91</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="75" t="s">
@@ -2363,7 +2604,7 @@
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="15"/>
@@ -2391,30 +2632,30 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="19" t="s">
+    <row r="16" spans="1:13" s="85" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="76"/>
+      <c r="B16" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="32" t="s">
+      <c r="D16" s="79"/>
+      <c r="E16" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
     </row>
     <row r="17" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
@@ -2425,11 +2666,11 @@
         <v>27</v>
       </c>
       <c r="D17" s="37"/>
-      <c r="E17" s="45" t="s">
-        <v>95</v>
+      <c r="E17" s="43" t="s">
+        <v>93</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
@@ -2462,11 +2703,11 @@
         <v>37</v>
       </c>
       <c r="D19" s="37"/>
-      <c r="E19" s="45" t="s">
-        <v>91</v>
+      <c r="E19" s="43" t="s">
+        <v>90</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="7"/>
@@ -2493,28 +2734,30 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
-      <c r="B21" s="19" t="s">
+    <row r="21" spans="1:13" s="63" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="32" t="s">
-        <v>40</v>
+      <c r="D21" s="37"/>
+      <c r="E21" s="43" t="s">
+        <v>97</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="15" t="s">
+      <c r="F21" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
@@ -16105,267 +16348,267 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="51"/>
+    <col min="1" max="1" width="9.140625" style="49"/>
     <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58">
+    <row r="1" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="56">
         <v>42957</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="50"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="56">
+        <v>42957</v>
+      </c>
+      <c r="D12" s="50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="52" t="s">
-        <v>65</v>
+    <row r="13" spans="1:4" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="49"/>
+      <c r="B13" s="50" t="s">
+        <v>79</v>
       </c>
-      <c r="C3" t="s">
-        <v>51</v>
+      <c r="C13" s="50" t="s">
+        <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="52" t="s">
-        <v>66</v>
+      <c r="D13" s="57">
+        <v>42958</v>
       </c>
-      <c r="C4" t="s">
-        <v>51</v>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="50" t="s">
+        <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="52" t="s">
-        <v>73</v>
+      <c r="C14" t="s">
+        <v>50</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>51</v>
+      <c r="D14" s="57">
+        <v>42958</v>
       </c>
-      <c r="D5" s="52"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="52" t="s">
-        <v>67</v>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="50" t="s">
+        <v>77</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>51</v>
+      <c r="C15" t="s">
+        <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="52" t="s">
+      <c r="D15" s="57">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="57">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="57">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="57">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="57">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="57">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="57">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="55"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="57"/>
+    </row>
+    <row r="23" spans="2:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>51</v>
+      <c r="C23" t="s">
+        <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="54" t="s">
-        <v>70</v>
+      <c r="D23" s="57">
+        <v>42961</v>
       </c>
-      <c r="C8" s="52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="58">
-        <v>42957</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="59">
-        <v>42958</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="59">
-        <v>42958</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="59">
-        <v>42958</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="59">
-        <v>42958</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="59">
-        <v>42958</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="59">
-        <v>42958</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="59">
-        <v>42958</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="59">
-        <v>42958</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="57" t="s">
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="52" t="s">
-        <v>51</v>
+      <c r="C24" s="50" t="s">
+        <v>50</v>
       </c>
-      <c r="D21" s="59">
-        <v>42958</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="57"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="59"/>
-    </row>
-    <row r="23" spans="2:4" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="59">
+      <c r="D24" s="57">
         <v>42961</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="56" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="52" t="s">
-        <v>51</v>
+      <c r="C25" t="s">
+        <v>50</v>
       </c>
-      <c r="D24" s="59">
+      <c r="D25" s="57">
         <v>42961</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="56" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C25" t="s">
-        <v>51</v>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="58" t="s">
+        <v>88</v>
       </c>
-      <c r="D25" s="59">
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="57">
         <v>42961</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="60" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="C27" t="s">
-        <v>51</v>
+      <c r="C28" t="s">
+        <v>50</v>
       </c>
-      <c r="D27" s="59">
-        <v>42961</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="59">
+      <c r="D28" s="57">
         <v>42961</v>
       </c>
     </row>
@@ -30198,116 +30441,116 @@
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="40"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>51</v>
+      <c r="C3" s="41" t="s">
+        <v>50</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E3" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="40"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="40"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>42</v>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>48</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>51</v>
+      <c r="C7" s="41" t="s">
+        <v>50</v>
       </c>
-      <c r="E3" s="42" t="s">
-        <v>53</v>
+      <c r="E7" s="42" t="s">
+        <v>57</v>
       </c>
-      <c r="G3" s="40"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>43</v>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E8" s="42" t="s">
+        <v>58</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>51</v>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E9" s="40" t="s">
+        <v>59</v>
       </c>
-      <c r="E4" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="40"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E8" s="42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E9" s="40" t="s">
+      <c r="E10" s="42" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="C11" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
       <c r="C12" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/VacationTracking/Vacation Tracking - Features Estimation.xlsx
+++ b/VacationTracking/Vacation Tracking - Features Estimation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="105">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -1049,10 +1049,158 @@
     </r>
   </si>
   <si>
-    <t>Turned off send email</t>
+    <t>Done, turned off send email</t>
   </si>
   <si>
-    <t>Done, turned off send email</t>
+    <r>
+      <t xml:space="preserve">- Able to see </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>list of day off</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>calendar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>grouped by month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">
+- Able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>filter by employee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">
+- Able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>see</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>remaning day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve"> of employee</t>
+    </r>
+  </si>
+  <si>
+    <t>ừ mày có thể dùng chung bảng booking hiện tại cho admin thêm booking</t>
+  </si>
+  <si>
+    <t>nhưng mà nó có thêm 1 cột là type= admin book or user book</t>
+  </si>
+  <si>
+    <t>nếu admin book thì ghi trực tiếp số giờ vào</t>
+  </si>
+  <si>
+    <t>user book thì chọn ngày</t>
+  </si>
+  <si>
+    <t>Do tao tách admin và user, nên phần edit user chỉ có admin có, thằng user bị mất, nên tao phải làm thêm page edit cho user nữa.</t>
+  </si>
+  <si>
+    <t>năm 2017? 2018</t>
+  </si>
+  <si>
+    <t>Ờ mài, còn cái edit booking tao chưa có làm.</t>
+  </si>
+  <si>
+    <t>calendar</t>
   </si>
   <si>
     <r>
@@ -1230,43 +1378,7 @@
         <charset val="163"/>
       </rPr>
       <t xml:space="preserve"> notification
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve">- Abe to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>edit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> submited vacation, Team Lead and HR will recieve email notification</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Able to see </t>
+- Abe to </t>
     </r>
     <r>
       <rPr>
@@ -1277,7 +1389,7 @@
         <family val="2"/>
         <charset val="163"/>
       </rPr>
-      <t>list of day off</t>
+      <t>edit</t>
     </r>
     <r>
       <rPr>
@@ -1286,27 +1398,7 @@
         <family val="2"/>
         <charset val="163"/>
       </rPr>
-      <t xml:space="preserve"> on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>calendar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> that </t>
+      <t xml:space="preserve"> submited vacation, Team Lead and HR will </t>
     </r>
     <r>
       <rPr>
@@ -1317,7 +1409,7 @@
         <family val="2"/>
         <charset val="163"/>
       </rPr>
-      <t>grouped by month</t>
+      <t xml:space="preserve">recieve email </t>
     </r>
     <r>
       <rPr>
@@ -1326,69 +1418,7 @@
         <family val="2"/>
         <charset val="163"/>
       </rPr>
-      <t xml:space="preserve">
-- Able to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>filter by employee</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve">
-- Able to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>see</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>remaning day</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve"> of employee</t>
+      <t>notification</t>
     </r>
   </si>
 </sst>
@@ -1523,7 +1553,7 @@
       <charset val="163"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1545,12 +1575,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1576,7 +1600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1763,34 +1787,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2295,10 +2298,10 @@
   <dimension ref="A1:M923"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2632,30 +2635,30 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" s="85" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="76"/>
-      <c r="B16" s="77" t="s">
+    <row r="16" spans="1:13" s="63" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80" t="s">
-        <v>96</v>
+      <c r="D16" s="37"/>
+      <c r="E16" s="43" t="s">
+        <v>104</v>
       </c>
-      <c r="F16" s="81" t="s">
+      <c r="F16" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="82" t="s">
+      <c r="G16" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="83"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
     </row>
     <row r="17" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
@@ -2670,7 +2673,7 @@
         <v>93</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
@@ -2744,7 +2747,7 @@
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F21" s="38" t="s">
         <v>62</v>
@@ -16340,10 +16343,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16492,7 +16495,7 @@
         <v>42958</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="50" t="s">
         <v>80</v>
       </c>
@@ -16503,7 +16506,7 @@
         <v>42958</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="50" t="s">
         <v>81</v>
       </c>
@@ -16514,7 +16517,7 @@
         <v>42958</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="50" t="s">
         <v>82</v>
       </c>
@@ -16525,7 +16528,7 @@
         <v>42958</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="54" t="s">
         <v>83</v>
       </c>
@@ -16536,7 +16539,7 @@
         <v>42958</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="55" t="s">
         <v>84</v>
       </c>
@@ -16547,12 +16550,12 @@
         <v>42958</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="55"/>
       <c r="C22" s="50"/>
       <c r="D22" s="57"/>
     </row>
-    <row r="23" spans="2:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="54" t="s">
         <v>68</v>
       </c>
@@ -16563,7 +16566,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="54" t="s">
         <v>85</v>
       </c>
@@ -16574,7 +16577,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="54" t="s">
         <v>86</v>
       </c>
@@ -16585,12 +16588,12 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="53" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="58" t="s">
         <v>88</v>
       </c>
@@ -16601,7 +16604,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="58" t="s">
         <v>89</v>
       </c>
@@ -16610,6 +16613,61 @@
       </c>
       <c r="D28" s="57">
         <v>42961</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="49">
+        <v>1</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="49">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="49">
+        <v>3</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="49">
+        <v>4</v>
+      </c>
+      <c r="B39" s="78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="49">
+        <v>5</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/VacationTracking/Vacation Tracking - Features Estimation.xlsx
+++ b/VacationTracking/Vacation Tracking - Features Estimation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vacation\VacationTracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Company\Futurify\Project\Vacation\VacationTracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,13 +17,13 @@
     <sheet name="Mobile" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="107">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -1421,12 +1421,18 @@
       <t>notification</t>
     </r>
   </si>
+  <si>
+    <t>Remaining Days Off, for new user maybe error</t>
+  </si>
+  <si>
+    <t>with set default 12 days off for new user, must be F5 page???</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1552,6 +1558,12 @@
       <family val="2"/>
       <charset val="163"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1600,7 +1612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1753,24 +1765,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1787,13 +1794,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2298,10 +2301,10 @@
   <dimension ref="A1:M923"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2311,7 +2314,7 @@
     <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="108.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="65" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="25.85546875" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
     <col min="11" max="11" width="21.28515625" customWidth="1"/>
@@ -2333,9 +2336,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="30"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -2369,14 +2372,14 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
       <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
@@ -2397,7 +2400,7 @@
       <c r="E4" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="64" t="s">
         <v>62</v>
       </c>
       <c r="G4" s="15"/>
@@ -2409,14 +2412,14 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -2516,18 +2519,20 @@
       <c r="M9" s="61"/>
     </row>
     <row r="10" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="64"/>
-      <c r="B10" s="65" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67" t="s">
+      <c r="D10" s="37"/>
+      <c r="E10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="61"/>
+      <c r="F10" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="G10" s="59"/>
       <c r="H10" s="60"/>
       <c r="I10" s="61"/>
@@ -2560,14 +2565,14 @@
       <c r="M11" s="61"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="15"/>
       <c r="H12" s="7"/>
       <c r="I12" s="16"/>
@@ -2619,14 +2624,14 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="15"/>
       <c r="H15" s="7"/>
       <c r="I15" s="16"/>
@@ -2640,7 +2645,7 @@
       <c r="B16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="66" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="37"/>
@@ -2650,7 +2655,7 @@
       <c r="F16" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="77" t="s">
+      <c r="G16" s="67" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="60"/>
@@ -2721,14 +2726,14 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -16343,9 +16348,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -16495,7 +16500,7 @@
         <v>42958</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="50" t="s">
         <v>80</v>
       </c>
@@ -16506,7 +16511,7 @@
         <v>42958</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="50" t="s">
         <v>81</v>
       </c>
@@ -16517,7 +16522,7 @@
         <v>42958</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="50" t="s">
         <v>82</v>
       </c>
@@ -16528,7 +16533,7 @@
         <v>42958</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="54" t="s">
         <v>83</v>
       </c>
@@ -16539,7 +16544,7 @@
         <v>42958</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="55" t="s">
         <v>84</v>
       </c>
@@ -16550,12 +16555,12 @@
         <v>42958</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="55"/>
       <c r="C22" s="50"/>
       <c r="D22" s="57"/>
     </row>
-    <row r="23" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="54" t="s">
         <v>68</v>
       </c>
@@ -16566,7 +16571,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="54" t="s">
         <v>85</v>
       </c>
@@ -16577,7 +16582,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="54" t="s">
         <v>86</v>
       </c>
@@ -16588,12 +16593,12 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="53" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="58" t="s">
         <v>88</v>
       </c>
@@ -16604,7 +16609,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="58" t="s">
         <v>89</v>
       </c>
@@ -16615,20 +16620,17 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="49">
-        <v>1</v>
-      </c>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>98</v>
       </c>
@@ -16639,39 +16641,46 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="49">
-        <v>2</v>
+      <c r="A35" s="76" t="s">
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="49">
-        <v>3</v>
-      </c>
       <c r="B37" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="49">
-        <v>4</v>
+      <c r="A39" s="76" t="s">
+        <v>50</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="68" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="49">
-        <v>5</v>
-      </c>
       <c r="B41" s="50" t="s">
         <v>103</v>
       </c>
     </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="76"/>
+      <c r="B43" s="75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="76"/>
+      <c r="B44" s="77" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16715,9 +16724,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -16751,14 +16760,14 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
       <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
@@ -16789,14 +16798,14 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -16827,14 +16836,14 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="15"/>
       <c r="H7" s="7"/>
       <c r="I7" s="16"/>

--- a/VacationTracking/Vacation Tracking - Features Estimation.xlsx
+++ b/VacationTracking/Vacation Tracking - Features Estimation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Web" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="Mobile" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Function" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="155">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -1427,12 +1428,156 @@
   <si>
     <t>with set default 12 days off for new user, must be F5 page???</t>
   </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>Incorrect email or password</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Forgot password</t>
+  </si>
+  <si>
+    <t>The account cannot be found</t>
+  </si>
+  <si>
+    <t>Please check your email</t>
+  </si>
+  <si>
+    <t>Redirect Page</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>Reset password</t>
+  </si>
+  <si>
+    <t>Password reset successfully! Redirectly to login page…</t>
+  </si>
+  <si>
+    <t>The token is expired</t>
+  </si>
+  <si>
+    <t>Forget password</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>Old password is incorrect</t>
+  </si>
+  <si>
+    <t>Password was changed! Loging out…</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Update (Admin)</t>
+  </si>
+  <si>
+    <t>Update (User)</t>
+  </si>
+  <si>
+    <t>The email has been used by another user</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Send mail</t>
+  </si>
+  <si>
+    <t>Add user success!</t>
+  </si>
+  <si>
+    <t>Expect</t>
+  </si>
+  <si>
+    <t>Add to top table</t>
+  </si>
+  <si>
+    <t>Remove at table</t>
+  </si>
+  <si>
+    <t>Update user success!</t>
+  </si>
+  <si>
+    <t>Update at table</t>
+  </si>
+  <si>
+    <t>Filter user</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>Sort user</t>
+  </si>
+  <si>
+    <t>Set department</t>
+  </si>
+  <si>
+    <t>Update at table, user can't login</t>
+  </si>
+  <si>
+    <t>Set system admin</t>
+  </si>
+  <si>
+    <t>Have/haven't admin rights.</t>
+  </si>
+  <si>
+    <t>Filter by keyword</t>
+  </si>
+  <si>
+    <t>Set active/re-active</t>
+  </si>
+  <si>
+    <t>Vacation duration</t>
+  </si>
+  <si>
+    <t>In week, in month, configurable</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1564,8 +1709,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1590,8 +1742,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1608,11 +1766,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1778,6 +1988,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1794,9 +2008,38 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2300,11 +2543,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M923"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2314,8 +2557,9 @@
     <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="108.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="25.85546875" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
     <col min="11" max="11" width="21.28515625" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" customWidth="1"/>
@@ -2336,9 +2580,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="30"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -2363,7 +2607,9 @@
       <c r="F2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="14"/>
@@ -2372,14 +2618,14 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
@@ -2412,14 +2658,14 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -2565,14 +2811,14 @@
       <c r="M11" s="61"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="15"/>
       <c r="H12" s="7"/>
       <c r="I12" s="16"/>
@@ -2624,14 +2870,14 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="15"/>
       <c r="H15" s="7"/>
       <c r="I15" s="16"/>
@@ -2726,14 +2972,14 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -16641,7 +16887,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="76" t="s">
+      <c r="A35" s="71" t="s">
         <v>50</v>
       </c>
       <c r="B35" t="s">
@@ -16654,7 +16900,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="76" t="s">
+      <c r="A39" s="71" t="s">
         <v>50</v>
       </c>
       <c r="B39" s="68" t="s">
@@ -16667,14 +16913,14 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="76"/>
-      <c r="B43" s="75" t="s">
+      <c r="A43" s="71"/>
+      <c r="B43" s="70" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="76"/>
-      <c r="B44" s="77" t="s">
+      <c r="A44" s="71"/>
+      <c r="B44" s="72" t="s">
         <v>106</v>
       </c>
     </row>
@@ -16724,9 +16970,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -16760,14 +17006,14 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="15"/>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
@@ -16798,14 +17044,14 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="15"/>
       <c r="H5" s="7"/>
       <c r="I5" s="16"/>
@@ -16836,14 +17082,14 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="15"/>
       <c r="H7" s="7"/>
       <c r="I7" s="16"/>
@@ -30624,4 +30870,375 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="69"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" s="69" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="80"/>
+      <c r="F3" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="82"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="82"/>
+      <c r="C5" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="80"/>
+      <c r="F5" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="82"/>
+      <c r="C6" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="80"/>
+      <c r="G6" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="80"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="82"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="82"/>
+      <c r="C8" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="82"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="82"/>
+      <c r="C10" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="83"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="90" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="80"/>
+      <c r="G12" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="79" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="91"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="91"/>
+      <c r="C14" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="79" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="91"/>
+      <c r="C15" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="79" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="79" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="91"/>
+      <c r="C16" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="79" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+    </row>
+    <row r="17" spans="2:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="91"/>
+      <c r="C17" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="86"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="86" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="91"/>
+      <c r="C18" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="86"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="89"/>
+    </row>
+    <row r="19" spans="2:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="91"/>
+      <c r="C19" s="86" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="89" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="91"/>
+      <c r="C20" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="86"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+    </row>
+    <row r="21" spans="2:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="91"/>
+      <c r="C21" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="86"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="79" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="92"/>
+      <c r="C22" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="86"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+    </row>
+    <row r="23" spans="2:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="86"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="79" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="85" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="85"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="B12:B22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/VacationTracking/Vacation Tracking - Features Estimation.xlsx
+++ b/VacationTracking/Vacation Tracking - Features Estimation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="169">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -1572,6 +1572,51 @@
   <si>
     <t>In week, in month, configurable</t>
   </si>
+  <si>
+    <t>List day off grouped by month</t>
+  </si>
+  <si>
+    <t>Fillter by employee</t>
+  </si>
+  <si>
+    <t>Remaining days off</t>
+  </si>
+  <si>
+    <t>Booking data is invalid. 
+Working Time: 09:00 -&gt; 19:00</t>
+  </si>
+  <si>
+    <t>Booking data is invalid. 
+Lunch Break: 11:30 -&gt; 13:30</t>
+  </si>
+  <si>
+    <t>Configure (working time, lunch break) in appsettings</t>
+  </si>
+  <si>
+    <t>Booking is conflict</t>
+  </si>
+  <si>
+    <t>The remaining vacation day is not enough to booking</t>
+  </si>
+  <si>
+    <t>Vacation duration &gt; {0} days, you do not allow to book within a month</t>
+  </si>
+  <si>
+    <t>Vacation duration &gt; {0} days, you do not allow to book within a week</t>
+  </si>
+  <si>
+    <t>Create
+Update</t>
+  </si>
+  <si>
+    <t>Add/Update booking success</t>
+  </si>
+  <si>
+    <t>Add to top table, remaining day will be reduce accordingly</t>
+  </si>
+  <si>
+    <t>Remove at table, remaining day will be reduce accordingly</t>
+  </si>
 </sst>
 </file>
 
@@ -1822,7 +1867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2022,10 +2067,12 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2039,6 +2086,24 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2547,7 +2612,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30874,19 +30939,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="69"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -30919,7 +30984,7 @@
       <c r="B3" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="96" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="79" t="s">
@@ -30934,7 +30999,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="82"/>
-      <c r="C4" s="80"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="79" t="s">
         <v>112</v>
       </c>
@@ -30962,7 +31027,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="82"/>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="96" t="s">
         <v>117</v>
       </c>
       <c r="D6" s="79" t="s">
@@ -30979,7 +31044,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="82"/>
-      <c r="C7" s="80"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="79" t="s">
         <v>112</v>
       </c>
@@ -30992,7 +31057,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="82"/>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="96" t="s">
         <v>122</v>
       </c>
       <c r="D8" s="79" t="s">
@@ -31009,7 +31074,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="82"/>
-      <c r="C9" s="80"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="79" t="s">
         <v>112</v>
       </c>
@@ -31024,7 +31089,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="82"/>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="96" t="s">
         <v>126</v>
       </c>
       <c r="D10" s="79" t="s">
@@ -31041,7 +31106,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="83"/>
-      <c r="C11" s="80"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="79" t="s">
         <v>112</v>
       </c>
@@ -31056,13 +31121,13 @@
       <c r="B12" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="85" t="s">
         <v>138</v>
       </c>
       <c r="F12" s="80"/>
@@ -31075,11 +31140,11 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="91"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="86" t="s">
+      <c r="C13" s="97"/>
+      <c r="D13" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="86" t="s">
         <v>135</v>
       </c>
       <c r="F13" s="80"/>
@@ -31088,10 +31153,10 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="91"/>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="85" t="s">
         <v>111</v>
       </c>
       <c r="E14" s="80"/>
@@ -31103,10 +31168,10 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="91"/>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="85" t="s">
         <v>111</v>
       </c>
       <c r="E15" s="79" t="s">
@@ -31120,10 +31185,10 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="91"/>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="85" t="s">
         <v>111</v>
       </c>
       <c r="E16" s="79" t="s">
@@ -31133,36 +31198,42 @@
       <c r="G16" s="80"/>
       <c r="H16" s="80"/>
     </row>
-    <row r="17" spans="2:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="91"/>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="86"/>
+      <c r="D17" s="85" t="s">
+        <v>111</v>
+      </c>
       <c r="E17" s="79"/>
       <c r="F17" s="80"/>
       <c r="G17" s="80"/>
-      <c r="H17" s="86" t="s">
+      <c r="H17" s="85" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="91"/>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="86"/>
+      <c r="D18" s="85" t="s">
+        <v>111</v>
+      </c>
       <c r="E18" s="79"/>
       <c r="F18" s="80"/>
       <c r="G18" s="80"/>
       <c r="H18" s="89"/>
     </row>
-    <row r="19" spans="2:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="91"/>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="86"/>
+      <c r="D19" s="85" t="s">
+        <v>111</v>
+      </c>
       <c r="E19" s="79"/>
       <c r="F19" s="80"/>
       <c r="G19" s="80"/>
@@ -31170,23 +31241,23 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="91"/>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="86"/>
+      <c r="D20" s="85"/>
       <c r="E20" s="79"/>
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
       <c r="H20" s="80"/>
     </row>
-    <row r="21" spans="2:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="91"/>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="86"/>
+      <c r="D21" s="85"/>
       <c r="E21" s="79"/>
       <c r="F21" s="80"/>
       <c r="G21" s="80"/>
@@ -31194,25 +31265,25 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="92"/>
-      <c r="C22" s="86" t="s">
+      <c r="C22" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="86"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="79"/>
       <c r="F22" s="80"/>
       <c r="G22" s="80"/>
       <c r="H22" s="80"/>
     </row>
-    <row r="23" spans="2:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="D23" s="86"/>
+      <c r="D23" s="85"/>
       <c r="E23" s="79"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
@@ -31220,23 +31291,192 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="71" t="s">
+    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="71"/>
+      <c r="B24" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="87"/>
+      <c r="C25" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="87"/>
+      <c r="C26" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+    </row>
+    <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B27" s="87" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="85" t="s">
-        <v>38</v>
+      <c r="C27" s="98" t="s">
+        <v>165</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="85"/>
+      <c r="D27" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="80"/>
+      <c r="G27" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="86" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B28" s="87"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+    </row>
+    <row r="29" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="87"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="87"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="87"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="87"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="87"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+    </row>
+    <row r="34" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B34" s="87"/>
+      <c r="C34" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" s="86" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="87"/>
+      <c r="C35" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="79"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+    </row>
+    <row r="36" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B36" s="87"/>
+      <c r="C36" s="93" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="B3:B11"/>
     <mergeCell ref="B12:B22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
